--- a/Input_data/IST_US_trad_eco_cal_2024-12-28_to_2025-03-31.xlsx
+++ b/Input_data/IST_US_trad_eco_cal_2024-12-28_to_2025-03-31.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G1314"/>
+  <dimension ref="A1:G1234"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -33083,10 +33083,8 @@
       <c r="D1198" t="inlineStr"/>
       <c r="E1198" t="inlineStr"/>
       <c r="F1198" t="inlineStr"/>
-      <c r="G1198" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="G1198" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="1199">
@@ -33116,10 +33114,8 @@
         </is>
       </c>
       <c r="F1199" t="inlineStr"/>
-      <c r="G1199" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="G1199" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1200">
@@ -33145,10 +33141,8 @@
       </c>
       <c r="E1200" t="inlineStr"/>
       <c r="F1200" t="inlineStr"/>
-      <c r="G1200" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G1200" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1201">
@@ -33174,10 +33168,8 @@
       </c>
       <c r="E1201" t="inlineStr"/>
       <c r="F1201" t="inlineStr"/>
-      <c r="G1201" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G1201" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1202">
@@ -33211,10 +33203,8 @@
           <t>$ -340.0B</t>
         </is>
       </c>
-      <c r="G1202" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="G1202" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1203">
@@ -33248,10 +33238,8 @@
           <t>225.0K</t>
         </is>
       </c>
-      <c r="G1203" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="G1203" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1204">
@@ -33285,10 +33273,8 @@
           <t>11</t>
         </is>
       </c>
-      <c r="G1204" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="G1204" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1205">
@@ -33322,10 +33308,8 @@
           <t>1880.0K</t>
         </is>
       </c>
-      <c r="G1205" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G1205" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1206">
@@ -33355,10 +33339,8 @@
           <t>229.0K</t>
         </is>
       </c>
-      <c r="G1206" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G1206" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1207">
@@ -33384,10 +33366,8 @@
       </c>
       <c r="E1207" t="inlineStr"/>
       <c r="F1207" t="inlineStr"/>
-      <c r="G1207" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G1207" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1208">
@@ -33413,10 +33393,8 @@
       </c>
       <c r="E1208" t="inlineStr"/>
       <c r="F1208" t="inlineStr"/>
-      <c r="G1208" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G1208" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1209">
@@ -33442,10 +33420,8 @@
       </c>
       <c r="E1209" t="inlineStr"/>
       <c r="F1209" t="inlineStr"/>
-      <c r="G1209" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G1209" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1210">
@@ -33471,10 +33447,8 @@
       </c>
       <c r="E1210" t="inlineStr"/>
       <c r="F1210" t="inlineStr"/>
-      <c r="G1210" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G1210" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1211">
@@ -33500,10 +33474,8 @@
       </c>
       <c r="E1211" t="inlineStr"/>
       <c r="F1211" t="inlineStr"/>
-      <c r="G1211" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G1211" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1212">
@@ -33537,10 +33509,8 @@
           <t>4.05M</t>
         </is>
       </c>
-      <c r="G1212" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="G1212" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="1213">
@@ -33570,10 +33540,8 @@
           <t>-0.7%</t>
         </is>
       </c>
-      <c r="G1213" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="G1213" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1214">
@@ -33607,10 +33575,8 @@
           <t>-0.2%</t>
         </is>
       </c>
-      <c r="G1214" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G1214" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1215">
@@ -33640,10 +33606,8 @@
         </is>
       </c>
       <c r="F1215" t="inlineStr"/>
-      <c r="G1215" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G1215" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1216">
@@ -33669,10 +33633,8 @@
       </c>
       <c r="E1216" t="inlineStr"/>
       <c r="F1216" t="inlineStr"/>
-      <c r="G1216" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G1216" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1217">
@@ -33698,10 +33660,8 @@
       </c>
       <c r="E1217" t="inlineStr"/>
       <c r="F1217" t="inlineStr"/>
-      <c r="G1217" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G1217" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1218">
@@ -33727,10 +33687,8 @@
       </c>
       <c r="E1218" t="inlineStr"/>
       <c r="F1218" t="inlineStr"/>
-      <c r="G1218" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G1218" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1219">
@@ -33756,10 +33714,8 @@
       </c>
       <c r="E1219" t="inlineStr"/>
       <c r="F1219" t="inlineStr"/>
-      <c r="G1219" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G1219" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1220">
@@ -33785,69 +33741,91 @@
       </c>
       <c r="E1220" t="inlineStr"/>
       <c r="F1220" t="inlineStr"/>
-      <c r="G1220" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G1220" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1221">
       <c r="A1221" t="inlineStr">
         <is>
-          <t>Friday March 21 2025</t>
-        </is>
-      </c>
-      <c r="B1221" t="inlineStr"/>
+          <t>06:00 PM</t>
+        </is>
+      </c>
+      <c r="B1221" t="inlineStr">
+        <is>
+          <t>Personal Income MoMFEB</t>
+        </is>
+      </c>
       <c r="C1221" t="inlineStr"/>
-      <c r="D1221" t="inlineStr"/>
+      <c r="D1221" t="inlineStr">
+        <is>
+          <t>0.9%</t>
+        </is>
+      </c>
       <c r="E1221" t="inlineStr"/>
-      <c r="F1221" t="inlineStr"/>
-      <c r="G1221" t="inlineStr"/>
+      <c r="F1221" t="inlineStr">
+        <is>
+          <t>0.3%</t>
+        </is>
+      </c>
+      <c r="G1221" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
     </row>
     <row r="1222">
       <c r="A1222" t="inlineStr">
         <is>
-          <t>02:00 AM</t>
+          <t>06:00 PM</t>
         </is>
       </c>
       <c r="B1222" t="inlineStr">
         <is>
-          <t>Fed Balance SheetMAR/19</t>
-        </is>
-      </c>
-      <c r="C1222" t="inlineStr">
-        <is>
-          <t>$6.76T</t>
-        </is>
-      </c>
+          <t>Personal Spending MoMFEB</t>
+        </is>
+      </c>
+      <c r="C1222" t="inlineStr"/>
       <c r="D1222" t="inlineStr">
         <is>
-          <t>$6.76T</t>
+          <t>-0.2%</t>
         </is>
       </c>
       <c r="E1222" t="inlineStr"/>
-      <c r="F1222" t="inlineStr"/>
+      <c r="F1222" t="inlineStr">
+        <is>
+          <t>0.1%</t>
+        </is>
+      </c>
       <c r="G1222" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="1223">
       <c r="A1223" t="inlineStr">
         <is>
-          <t>06:35 PM</t>
+          <t>06:00 PM</t>
         </is>
       </c>
       <c r="B1223" t="inlineStr">
         <is>
-          <t>Fed Williams Speech</t>
+          <t>PCE Price Index MoMFEB</t>
         </is>
       </c>
       <c r="C1223" t="inlineStr"/>
-      <c r="D1223" t="inlineStr"/>
+      <c r="D1223" t="inlineStr">
+        <is>
+          <t>0.3%</t>
+        </is>
+      </c>
       <c r="E1223" t="inlineStr"/>
-      <c r="F1223" t="inlineStr"/>
+      <c r="F1223" t="inlineStr">
+        <is>
+          <t>0.5%</t>
+        </is>
+      </c>
       <c r="G1223" t="inlineStr">
         <is>
           <t>2</t>
@@ -33857,47 +33835,55 @@
     <row r="1224">
       <c r="A1224" t="inlineStr">
         <is>
-          <t>10:30 PM</t>
+          <t>06:00 PM</t>
         </is>
       </c>
       <c r="B1224" t="inlineStr">
         <is>
-          <t>Baker Hughes Oil Rig CountMAR/21</t>
+          <t>PCE Price Index YoYFEB</t>
         </is>
       </c>
       <c r="C1224" t="inlineStr"/>
       <c r="D1224" t="inlineStr">
         <is>
-          <t>487</t>
+          <t>2.5%</t>
         </is>
       </c>
       <c r="E1224" t="inlineStr"/>
-      <c r="F1224" t="inlineStr"/>
+      <c r="F1224" t="inlineStr">
+        <is>
+          <t>2.7%</t>
+        </is>
+      </c>
       <c r="G1224" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="1225">
       <c r="A1225" t="inlineStr">
         <is>
-          <t>10:30 PM</t>
+          <t>06:00 PM</t>
         </is>
       </c>
       <c r="B1225" t="inlineStr">
         <is>
-          <t>Baker Hughes Total Rigs CountMAR/21</t>
+          <t>Core PCE Price Index YoYFEB</t>
         </is>
       </c>
       <c r="C1225" t="inlineStr"/>
       <c r="D1225" t="inlineStr">
         <is>
-          <t>592</t>
+          <t>2.6%</t>
         </is>
       </c>
       <c r="E1225" t="inlineStr"/>
-      <c r="F1225" t="inlineStr"/>
+      <c r="F1225" t="inlineStr">
+        <is>
+          <t>2.8%</t>
+        </is>
+      </c>
       <c r="G1225" t="inlineStr">
         <is>
           <t>3</t>
@@ -33907,162 +33893,202 @@
     <row r="1226">
       <c r="A1226" t="inlineStr">
         <is>
-          <t>Saturday March 22 2025</t>
-        </is>
-      </c>
-      <c r="B1226" t="inlineStr"/>
+          <t>07:30 PM</t>
+        </is>
+      </c>
+      <c r="B1226" t="inlineStr">
+        <is>
+          <t>Michigan Consumer Sentiment FinalMAR</t>
+        </is>
+      </c>
       <c r="C1226" t="inlineStr"/>
-      <c r="D1226" t="inlineStr"/>
-      <c r="E1226" t="inlineStr"/>
-      <c r="F1226" t="inlineStr"/>
-      <c r="G1226" t="inlineStr"/>
+      <c r="D1226" t="inlineStr">
+        <is>
+          <t>64.7</t>
+        </is>
+      </c>
+      <c r="E1226" t="inlineStr">
+        <is>
+          <t>57.9</t>
+        </is>
+      </c>
+      <c r="F1226" t="inlineStr">
+        <is>
+          <t>57.9</t>
+        </is>
+      </c>
+      <c r="G1226" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
     </row>
     <row r="1227">
       <c r="A1227" t="inlineStr">
         <is>
-          <t>Monday March 24 2025</t>
-        </is>
-      </c>
-      <c r="B1227" t="inlineStr"/>
+          <t>07:30 PM</t>
+        </is>
+      </c>
+      <c r="B1227" t="inlineStr">
+        <is>
+          <t>Michigan 5 Year Inflation Expectations FinalMAR</t>
+        </is>
+      </c>
       <c r="C1227" t="inlineStr"/>
-      <c r="D1227" t="inlineStr"/>
-      <c r="E1227" t="inlineStr"/>
-      <c r="F1227" t="inlineStr"/>
-      <c r="G1227" t="inlineStr"/>
+      <c r="D1227" t="inlineStr">
+        <is>
+          <t>3.5%</t>
+        </is>
+      </c>
+      <c r="E1227" t="inlineStr">
+        <is>
+          <t>3.9%</t>
+        </is>
+      </c>
+      <c r="F1227" t="inlineStr">
+        <is>
+          <t>3.9%</t>
+        </is>
+      </c>
+      <c r="G1227" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
     </row>
     <row r="1228">
       <c r="A1228" t="inlineStr">
         <is>
-          <t>06:00 PM</t>
+          <t>07:30 PM</t>
         </is>
       </c>
       <c r="B1228" t="inlineStr">
         <is>
-          <t>Chicago Fed National Activity IndexFEB</t>
+          <t>Michigan Consumer Expectations FinalMAR</t>
         </is>
       </c>
       <c r="C1228" t="inlineStr"/>
       <c r="D1228" t="inlineStr">
         <is>
-          <t>-0.03</t>
-        </is>
-      </c>
-      <c r="E1228" t="inlineStr"/>
+          <t>64.0</t>
+        </is>
+      </c>
+      <c r="E1228" t="inlineStr">
+        <is>
+          <t>54.2</t>
+        </is>
+      </c>
       <c r="F1228" t="inlineStr">
         <is>
-          <t>0.08</t>
+          <t>54.2</t>
         </is>
       </c>
       <c r="G1228" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1229">
       <c r="A1229" t="inlineStr">
         <is>
-          <t>07:15 PM</t>
+          <t>07:30 PM</t>
         </is>
       </c>
       <c r="B1229" t="inlineStr">
         <is>
-          <t>S&amp;P Global Composite PMI FlashMAR</t>
+          <t>Michigan Current Conditions FinalMAR</t>
         </is>
       </c>
       <c r="C1229" t="inlineStr"/>
       <c r="D1229" t="inlineStr">
         <is>
-          <t>51.6</t>
-        </is>
-      </c>
-      <c r="E1229" t="inlineStr"/>
+          <t>65.7</t>
+        </is>
+      </c>
+      <c r="E1229" t="inlineStr">
+        <is>
+          <t>63.5</t>
+        </is>
+      </c>
       <c r="F1229" t="inlineStr">
         <is>
-          <t>50.2</t>
+          <t>63.5</t>
         </is>
       </c>
       <c r="G1229" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1230">
       <c r="A1230" t="inlineStr">
         <is>
-          <t>07:15 PM</t>
+          <t>07:30 PM</t>
         </is>
       </c>
       <c r="B1230" t="inlineStr">
         <is>
-          <t>S&amp;P Global Manufacturing PMI FlashMAR</t>
+          <t>Michigan Inflation Expectations FinalMAR</t>
         </is>
       </c>
       <c r="C1230" t="inlineStr"/>
       <c r="D1230" t="inlineStr">
         <is>
-          <t>52.7</t>
-        </is>
-      </c>
-      <c r="E1230" t="inlineStr"/>
+          <t>4.3%</t>
+        </is>
+      </c>
+      <c r="E1230" t="inlineStr">
+        <is>
+          <t>4.9%</t>
+        </is>
+      </c>
       <c r="F1230" t="inlineStr">
         <is>
-          <t>51</t>
+          <t>4.9%</t>
         </is>
       </c>
       <c r="G1230" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1231">
       <c r="A1231" t="inlineStr">
         <is>
-          <t>07:15 PM</t>
+          <t>10:30 PM</t>
         </is>
       </c>
       <c r="B1231" t="inlineStr">
         <is>
-          <t>S&amp;P Global Services PMI FlashMAR</t>
+          <t>Baker Hughes Oil Rig CountMAR/28</t>
         </is>
       </c>
       <c r="C1231" t="inlineStr"/>
-      <c r="D1231" t="inlineStr">
-        <is>
-          <t>51</t>
-        </is>
-      </c>
+      <c r="D1231" t="inlineStr"/>
       <c r="E1231" t="inlineStr"/>
-      <c r="F1231" t="inlineStr">
-        <is>
-          <t>49.5</t>
-        </is>
-      </c>
+      <c r="F1231" t="inlineStr"/>
       <c r="G1231" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1232">
       <c r="A1232" t="inlineStr">
         <is>
-          <t>09:00 PM</t>
+          <t>10:30 PM</t>
         </is>
       </c>
       <c r="B1232" t="inlineStr">
         <is>
-          <t>3-Month Bill Auction</t>
+          <t>Baker Hughes Total Rigs CountMAR/28</t>
         </is>
       </c>
       <c r="C1232" t="inlineStr"/>
-      <c r="D1232" t="inlineStr">
-        <is>
-          <t>4.205%</t>
-        </is>
-      </c>
+      <c r="D1232" t="inlineStr"/>
       <c r="E1232" t="inlineStr"/>
       <c r="F1232" t="inlineStr"/>
       <c r="G1232" t="inlineStr">
@@ -34074,32 +34100,20 @@
     <row r="1233">
       <c r="A1233" t="inlineStr">
         <is>
-          <t>09:00 PM</t>
-        </is>
-      </c>
-      <c r="B1233" t="inlineStr">
-        <is>
-          <t>6-Month Bill Auction</t>
-        </is>
-      </c>
+          <t>Saturday March 29 2025</t>
+        </is>
+      </c>
+      <c r="B1233" t="inlineStr"/>
       <c r="C1233" t="inlineStr"/>
-      <c r="D1233" t="inlineStr">
-        <is>
-          <t>4.100%</t>
-        </is>
-      </c>
+      <c r="D1233" t="inlineStr"/>
       <c r="E1233" t="inlineStr"/>
       <c r="F1233" t="inlineStr"/>
-      <c r="G1233" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
+      <c r="G1233" t="inlineStr"/>
     </row>
     <row r="1234">
       <c r="A1234" t="inlineStr">
         <is>
-          <t>Tuesday March 25 2025</t>
+          <t>Monday March 31 2025</t>
         </is>
       </c>
       <c r="B1234" t="inlineStr"/>
@@ -34109,2114 +34123,6 @@
       <c r="F1234" t="inlineStr"/>
       <c r="G1234" t="inlineStr"/>
     </row>
-    <row r="1235">
-      <c r="A1235" t="inlineStr">
-        <is>
-          <t>06:25 PM</t>
-        </is>
-      </c>
-      <c r="B1235" t="inlineStr">
-        <is>
-          <t>Redbook YoYMAR/22</t>
-        </is>
-      </c>
-      <c r="C1235" t="inlineStr"/>
-      <c r="D1235" t="inlineStr">
-        <is>
-          <t>5.2%</t>
-        </is>
-      </c>
-      <c r="E1235" t="inlineStr"/>
-      <c r="F1235" t="inlineStr"/>
-      <c r="G1235" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1236">
-      <c r="A1236" t="inlineStr">
-        <is>
-          <t>06:30 PM</t>
-        </is>
-      </c>
-      <c r="B1236" t="inlineStr">
-        <is>
-          <t>S&amp;P/Case-Shiller Home Price YoYJAN</t>
-        </is>
-      </c>
-      <c r="C1236" t="inlineStr"/>
-      <c r="D1236" t="inlineStr">
-        <is>
-          <t>4.5%</t>
-        </is>
-      </c>
-      <c r="E1236" t="inlineStr"/>
-      <c r="F1236" t="inlineStr">
-        <is>
-          <t>4.2%</t>
-        </is>
-      </c>
-      <c r="G1236" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="1237">
-      <c r="A1237" t="inlineStr">
-        <is>
-          <t>06:30 PM</t>
-        </is>
-      </c>
-      <c r="B1237" t="inlineStr">
-        <is>
-          <t>House Price IndexJAN</t>
-        </is>
-      </c>
-      <c r="C1237" t="inlineStr"/>
-      <c r="D1237" t="inlineStr">
-        <is>
-          <t>436.1</t>
-        </is>
-      </c>
-      <c r="E1237" t="inlineStr"/>
-      <c r="F1237" t="inlineStr">
-        <is>
-          <t>437.4</t>
-        </is>
-      </c>
-      <c r="G1237" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1238">
-      <c r="A1238" t="inlineStr">
-        <is>
-          <t>06:30 PM</t>
-        </is>
-      </c>
-      <c r="B1238" t="inlineStr">
-        <is>
-          <t>House Price Index MoMJAN</t>
-        </is>
-      </c>
-      <c r="C1238" t="inlineStr"/>
-      <c r="D1238" t="inlineStr">
-        <is>
-          <t>0.4%</t>
-        </is>
-      </c>
-      <c r="E1238" t="inlineStr"/>
-      <c r="F1238" t="inlineStr">
-        <is>
-          <t>0.3%</t>
-        </is>
-      </c>
-      <c r="G1238" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1239">
-      <c r="A1239" t="inlineStr">
-        <is>
-          <t>06:30 PM</t>
-        </is>
-      </c>
-      <c r="B1239" t="inlineStr">
-        <is>
-          <t>House Price Index YoYJAN</t>
-        </is>
-      </c>
-      <c r="C1239" t="inlineStr"/>
-      <c r="D1239" t="inlineStr">
-        <is>
-          <t>4.7%</t>
-        </is>
-      </c>
-      <c r="E1239" t="inlineStr"/>
-      <c r="F1239" t="inlineStr">
-        <is>
-          <t>4.7%</t>
-        </is>
-      </c>
-      <c r="G1239" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1240">
-      <c r="A1240" t="inlineStr">
-        <is>
-          <t>06:30 PM</t>
-        </is>
-      </c>
-      <c r="B1240" t="inlineStr">
-        <is>
-          <t>S&amp;P/Case-Shiller Home Price MoMJAN</t>
-        </is>
-      </c>
-      <c r="C1240" t="inlineStr"/>
-      <c r="D1240" t="inlineStr">
-        <is>
-          <t>-0.1%</t>
-        </is>
-      </c>
-      <c r="E1240" t="inlineStr"/>
-      <c r="F1240" t="inlineStr">
-        <is>
-          <t>-0.4%</t>
-        </is>
-      </c>
-      <c r="G1240" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1241">
-      <c r="A1241" t="inlineStr">
-        <is>
-          <t>07:30 PM</t>
-        </is>
-      </c>
-      <c r="B1241" t="inlineStr">
-        <is>
-          <t>CB Consumer ConfidenceMAR</t>
-        </is>
-      </c>
-      <c r="C1241" t="inlineStr"/>
-      <c r="D1241" t="inlineStr">
-        <is>
-          <t>98.3</t>
-        </is>
-      </c>
-      <c r="E1241" t="inlineStr"/>
-      <c r="F1241" t="inlineStr">
-        <is>
-          <t>97.4</t>
-        </is>
-      </c>
-      <c r="G1241" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="1242">
-      <c r="A1242" t="inlineStr">
-        <is>
-          <t>07:30 PM</t>
-        </is>
-      </c>
-      <c r="B1242" t="inlineStr">
-        <is>
-          <t>New Home SalesFEB</t>
-        </is>
-      </c>
-      <c r="C1242" t="inlineStr"/>
-      <c r="D1242" t="inlineStr">
-        <is>
-          <t>0.657M</t>
-        </is>
-      </c>
-      <c r="E1242" t="inlineStr"/>
-      <c r="F1242" t="inlineStr">
-        <is>
-          <t>0.66M</t>
-        </is>
-      </c>
-      <c r="G1242" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="1243">
-      <c r="A1243" t="inlineStr">
-        <is>
-          <t>07:30 PM</t>
-        </is>
-      </c>
-      <c r="B1243" t="inlineStr">
-        <is>
-          <t>New Home Sales MoMFEB</t>
-        </is>
-      </c>
-      <c r="C1243" t="inlineStr"/>
-      <c r="D1243" t="inlineStr">
-        <is>
-          <t>-10.5%</t>
-        </is>
-      </c>
-      <c r="E1243" t="inlineStr"/>
-      <c r="F1243" t="inlineStr">
-        <is>
-          <t>0.5%</t>
-        </is>
-      </c>
-      <c r="G1243" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="1244">
-      <c r="A1244" t="inlineStr">
-        <is>
-          <t>07:30 PM</t>
-        </is>
-      </c>
-      <c r="B1244" t="inlineStr">
-        <is>
-          <t>Richmond Fed Manufacturing IndexMAR</t>
-        </is>
-      </c>
-      <c r="C1244" t="inlineStr"/>
-      <c r="D1244" t="inlineStr">
-        <is>
-          <t>6</t>
-        </is>
-      </c>
-      <c r="E1244" t="inlineStr"/>
-      <c r="F1244" t="inlineStr">
-        <is>
-          <t>-3</t>
-        </is>
-      </c>
-      <c r="G1244" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1245">
-      <c r="A1245" t="inlineStr">
-        <is>
-          <t>07:30 PM</t>
-        </is>
-      </c>
-      <c r="B1245" t="inlineStr">
-        <is>
-          <t>Richmond Fed Manufacturing Shipments IndexMAR</t>
-        </is>
-      </c>
-      <c r="C1245" t="inlineStr"/>
-      <c r="D1245" t="inlineStr">
-        <is>
-          <t>12</t>
-        </is>
-      </c>
-      <c r="E1245" t="inlineStr"/>
-      <c r="F1245" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="G1245" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1246">
-      <c r="A1246" t="inlineStr">
-        <is>
-          <t>07:30 PM</t>
-        </is>
-      </c>
-      <c r="B1246" t="inlineStr">
-        <is>
-          <t>Richmond Fed Services Revenues IndexMAR</t>
-        </is>
-      </c>
-      <c r="C1246" t="inlineStr"/>
-      <c r="D1246" t="inlineStr">
-        <is>
-          <t>11</t>
-        </is>
-      </c>
-      <c r="E1246" t="inlineStr"/>
-      <c r="F1246" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="G1246" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1247">
-      <c r="A1247" t="inlineStr">
-        <is>
-          <t>10:30 PM</t>
-        </is>
-      </c>
-      <c r="B1247" t="inlineStr">
-        <is>
-          <t>2-Year Note Auction</t>
-        </is>
-      </c>
-      <c r="C1247" t="inlineStr"/>
-      <c r="D1247" t="inlineStr">
-        <is>
-          <t>4.169%</t>
-        </is>
-      </c>
-      <c r="E1247" t="inlineStr"/>
-      <c r="F1247" t="inlineStr"/>
-      <c r="G1247" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1248">
-      <c r="A1248" t="inlineStr">
-        <is>
-          <t>10:30 PM</t>
-        </is>
-      </c>
-      <c r="B1248" t="inlineStr">
-        <is>
-          <t>Money SupplyFEB</t>
-        </is>
-      </c>
-      <c r="C1248" t="inlineStr"/>
-      <c r="D1248" t="inlineStr">
-        <is>
-          <t>$21.56T</t>
-        </is>
-      </c>
-      <c r="E1248" t="inlineStr"/>
-      <c r="F1248" t="inlineStr"/>
-      <c r="G1248" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1249">
-      <c r="A1249" t="inlineStr"/>
-      <c r="B1249" t="inlineStr">
-        <is>
-          <t>Building Permits FinalFEB</t>
-        </is>
-      </c>
-      <c r="C1249" t="inlineStr"/>
-      <c r="D1249" t="inlineStr">
-        <is>
-          <t>1.473M</t>
-        </is>
-      </c>
-      <c r="E1249" t="inlineStr">
-        <is>
-          <t>1.456M</t>
-        </is>
-      </c>
-      <c r="F1249" t="inlineStr">
-        <is>
-          <t>1.456M</t>
-        </is>
-      </c>
-      <c r="G1249" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1250">
-      <c r="A1250" t="inlineStr"/>
-      <c r="B1250" t="inlineStr">
-        <is>
-          <t>Building Permits MoM FinalFEB</t>
-        </is>
-      </c>
-      <c r="C1250" t="inlineStr"/>
-      <c r="D1250" t="inlineStr">
-        <is>
-          <t>-0.6%</t>
-        </is>
-      </c>
-      <c r="E1250" t="inlineStr">
-        <is>
-          <t>-1.2%</t>
-        </is>
-      </c>
-      <c r="F1250" t="inlineStr">
-        <is>
-          <t>-1.2%</t>
-        </is>
-      </c>
-      <c r="G1250" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1251">
-      <c r="A1251" t="inlineStr">
-        <is>
-          <t>Wednesday March 26 2025</t>
-        </is>
-      </c>
-      <c r="B1251" t="inlineStr"/>
-      <c r="C1251" t="inlineStr"/>
-      <c r="D1251" t="inlineStr"/>
-      <c r="E1251" t="inlineStr"/>
-      <c r="F1251" t="inlineStr"/>
-      <c r="G1251" t="inlineStr"/>
-    </row>
-    <row r="1252">
-      <c r="A1252" t="inlineStr">
-        <is>
-          <t>02:00 AM</t>
-        </is>
-      </c>
-      <c r="B1252" t="inlineStr">
-        <is>
-          <t>API Crude Oil Stock ChangeMAR/21</t>
-        </is>
-      </c>
-      <c r="C1252" t="inlineStr"/>
-      <c r="D1252" t="inlineStr">
-        <is>
-          <t>4.593M</t>
-        </is>
-      </c>
-      <c r="E1252" t="inlineStr"/>
-      <c r="F1252" t="inlineStr"/>
-      <c r="G1252" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="1253">
-      <c r="A1253" t="inlineStr">
-        <is>
-          <t>04:30 PM</t>
-        </is>
-      </c>
-      <c r="B1253" t="inlineStr">
-        <is>
-          <t>MBA 30-Year Mortgage RateMAR/21</t>
-        </is>
-      </c>
-      <c r="C1253" t="inlineStr"/>
-      <c r="D1253" t="inlineStr">
-        <is>
-          <t>6.72%</t>
-        </is>
-      </c>
-      <c r="E1253" t="inlineStr"/>
-      <c r="F1253" t="inlineStr"/>
-      <c r="G1253" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="1254">
-      <c r="A1254" t="inlineStr">
-        <is>
-          <t>04:30 PM</t>
-        </is>
-      </c>
-      <c r="B1254" t="inlineStr">
-        <is>
-          <t>MBA Mortgage ApplicationsMAR/21</t>
-        </is>
-      </c>
-      <c r="C1254" t="inlineStr"/>
-      <c r="D1254" t="inlineStr">
-        <is>
-          <t>-6.2%</t>
-        </is>
-      </c>
-      <c r="E1254" t="inlineStr"/>
-      <c r="F1254" t="inlineStr"/>
-      <c r="G1254" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1255">
-      <c r="A1255" t="inlineStr">
-        <is>
-          <t>04:30 PM</t>
-        </is>
-      </c>
-      <c r="B1255" t="inlineStr">
-        <is>
-          <t>MBA Mortgage Market IndexMAR/21</t>
-        </is>
-      </c>
-      <c r="C1255" t="inlineStr"/>
-      <c r="D1255" t="inlineStr">
-        <is>
-          <t>252.5</t>
-        </is>
-      </c>
-      <c r="E1255" t="inlineStr"/>
-      <c r="F1255" t="inlineStr"/>
-      <c r="G1255" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1256">
-      <c r="A1256" t="inlineStr">
-        <is>
-          <t>04:30 PM</t>
-        </is>
-      </c>
-      <c r="B1256" t="inlineStr">
-        <is>
-          <t>MBA Mortgage Refinance IndexMAR/21</t>
-        </is>
-      </c>
-      <c r="C1256" t="inlineStr"/>
-      <c r="D1256" t="inlineStr">
-        <is>
-          <t>794.4</t>
-        </is>
-      </c>
-      <c r="E1256" t="inlineStr"/>
-      <c r="F1256" t="inlineStr"/>
-      <c r="G1256" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1257">
-      <c r="A1257" t="inlineStr">
-        <is>
-          <t>04:30 PM</t>
-        </is>
-      </c>
-      <c r="B1257" t="inlineStr">
-        <is>
-          <t>MBA Purchase IndexMAR/21</t>
-        </is>
-      </c>
-      <c r="C1257" t="inlineStr"/>
-      <c r="D1257" t="inlineStr">
-        <is>
-          <t>154.7</t>
-        </is>
-      </c>
-      <c r="E1257" t="inlineStr"/>
-      <c r="F1257" t="inlineStr"/>
-      <c r="G1257" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1258">
-      <c r="A1258" t="inlineStr">
-        <is>
-          <t>06:00 PM</t>
-        </is>
-      </c>
-      <c r="B1258" t="inlineStr">
-        <is>
-          <t>Durable Goods Orders MoMFEB</t>
-        </is>
-      </c>
-      <c r="C1258" t="inlineStr"/>
-      <c r="D1258" t="inlineStr">
-        <is>
-          <t>3.1%</t>
-        </is>
-      </c>
-      <c r="E1258" t="inlineStr"/>
-      <c r="F1258" t="inlineStr"/>
-      <c r="G1258" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-    </row>
-    <row r="1259">
-      <c r="A1259" t="inlineStr">
-        <is>
-          <t>06:00 PM</t>
-        </is>
-      </c>
-      <c r="B1259" t="inlineStr">
-        <is>
-          <t>Durable Goods Orders Ex Transp MoMFEB</t>
-        </is>
-      </c>
-      <c r="C1259" t="inlineStr"/>
-      <c r="D1259" t="inlineStr">
-        <is>
-          <t>0%</t>
-        </is>
-      </c>
-      <c r="E1259" t="inlineStr"/>
-      <c r="F1259" t="inlineStr"/>
-      <c r="G1259" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="1260">
-      <c r="A1260" t="inlineStr">
-        <is>
-          <t>06:00 PM</t>
-        </is>
-      </c>
-      <c r="B1260" t="inlineStr">
-        <is>
-          <t>Durable Goods Orders ex Defense MoMFEB</t>
-        </is>
-      </c>
-      <c r="C1260" t="inlineStr"/>
-      <c r="D1260" t="inlineStr">
-        <is>
-          <t>3.5%</t>
-        </is>
-      </c>
-      <c r="E1260" t="inlineStr"/>
-      <c r="F1260" t="inlineStr"/>
-      <c r="G1260" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1261">
-      <c r="A1261" t="inlineStr">
-        <is>
-          <t>06:00 PM</t>
-        </is>
-      </c>
-      <c r="B1261" t="inlineStr">
-        <is>
-          <t>Non Defense Goods Orders Ex AirFEB</t>
-        </is>
-      </c>
-      <c r="C1261" t="inlineStr"/>
-      <c r="D1261" t="inlineStr">
-        <is>
-          <t>0.8%</t>
-        </is>
-      </c>
-      <c r="E1261" t="inlineStr"/>
-      <c r="F1261" t="inlineStr"/>
-      <c r="G1261" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1262">
-      <c r="A1262" t="inlineStr">
-        <is>
-          <t>08:00 PM</t>
-        </is>
-      </c>
-      <c r="B1262" t="inlineStr">
-        <is>
-          <t>EIA Crude Oil Stocks ChangeMAR/21</t>
-        </is>
-      </c>
-      <c r="C1262" t="inlineStr"/>
-      <c r="D1262" t="inlineStr">
-        <is>
-          <t>1.745M</t>
-        </is>
-      </c>
-      <c r="E1262" t="inlineStr"/>
-      <c r="F1262" t="inlineStr"/>
-      <c r="G1262" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="1263">
-      <c r="A1263" t="inlineStr">
-        <is>
-          <t>08:00 PM</t>
-        </is>
-      </c>
-      <c r="B1263" t="inlineStr">
-        <is>
-          <t>EIA Gasoline Stocks ChangeMAR/21</t>
-        </is>
-      </c>
-      <c r="C1263" t="inlineStr"/>
-      <c r="D1263" t="inlineStr">
-        <is>
-          <t>-0.527M</t>
-        </is>
-      </c>
-      <c r="E1263" t="inlineStr"/>
-      <c r="F1263" t="inlineStr"/>
-      <c r="G1263" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="1264">
-      <c r="A1264" t="inlineStr">
-        <is>
-          <t>08:00 PM</t>
-        </is>
-      </c>
-      <c r="B1264" t="inlineStr">
-        <is>
-          <t>EIA Crude Oil Imports ChangeMAR/21</t>
-        </is>
-      </c>
-      <c r="C1264" t="inlineStr"/>
-      <c r="D1264" t="inlineStr">
-        <is>
-          <t>-1.439M</t>
-        </is>
-      </c>
-      <c r="E1264" t="inlineStr"/>
-      <c r="F1264" t="inlineStr"/>
-      <c r="G1264" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1265">
-      <c r="A1265" t="inlineStr">
-        <is>
-          <t>08:00 PM</t>
-        </is>
-      </c>
-      <c r="B1265" t="inlineStr">
-        <is>
-          <t>EIA Cushing Crude Oil Stocks ChangeMAR/21</t>
-        </is>
-      </c>
-      <c r="C1265" t="inlineStr"/>
-      <c r="D1265" t="inlineStr">
-        <is>
-          <t>-1.009M</t>
-        </is>
-      </c>
-      <c r="E1265" t="inlineStr"/>
-      <c r="F1265" t="inlineStr"/>
-      <c r="G1265" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1266">
-      <c r="A1266" t="inlineStr">
-        <is>
-          <t>08:00 PM</t>
-        </is>
-      </c>
-      <c r="B1266" t="inlineStr">
-        <is>
-          <t>EIA Distillate Fuel Production ChangeMAR/21</t>
-        </is>
-      </c>
-      <c r="C1266" t="inlineStr"/>
-      <c r="D1266" t="inlineStr">
-        <is>
-          <t>0.151M</t>
-        </is>
-      </c>
-      <c r="E1266" t="inlineStr"/>
-      <c r="F1266" t="inlineStr"/>
-      <c r="G1266" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1267">
-      <c r="A1267" t="inlineStr">
-        <is>
-          <t>08:00 PM</t>
-        </is>
-      </c>
-      <c r="B1267" t="inlineStr">
-        <is>
-          <t>EIA Distillate Stocks ChangeMAR/21</t>
-        </is>
-      </c>
-      <c r="C1267" t="inlineStr"/>
-      <c r="D1267" t="inlineStr">
-        <is>
-          <t>-2.812M</t>
-        </is>
-      </c>
-      <c r="E1267" t="inlineStr"/>
-      <c r="F1267" t="inlineStr"/>
-      <c r="G1267" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1268">
-      <c r="A1268" t="inlineStr">
-        <is>
-          <t>08:00 PM</t>
-        </is>
-      </c>
-      <c r="B1268" t="inlineStr">
-        <is>
-          <t>EIA Gasoline Production ChangeMAR/21</t>
-        </is>
-      </c>
-      <c r="C1268" t="inlineStr"/>
-      <c r="D1268" t="inlineStr">
-        <is>
-          <t>0.067M</t>
-        </is>
-      </c>
-      <c r="E1268" t="inlineStr"/>
-      <c r="F1268" t="inlineStr"/>
-      <c r="G1268" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1269">
-      <c r="A1269" t="inlineStr">
-        <is>
-          <t>08:00 PM</t>
-        </is>
-      </c>
-      <c r="B1269" t="inlineStr">
-        <is>
-          <t>EIA Heating Oil Stocks ChangeMAR/21</t>
-        </is>
-      </c>
-      <c r="C1269" t="inlineStr"/>
-      <c r="D1269" t="inlineStr">
-        <is>
-          <t>0.008M</t>
-        </is>
-      </c>
-      <c r="E1269" t="inlineStr"/>
-      <c r="F1269" t="inlineStr"/>
-      <c r="G1269" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1270">
-      <c r="A1270" t="inlineStr">
-        <is>
-          <t>08:00 PM</t>
-        </is>
-      </c>
-      <c r="B1270" t="inlineStr">
-        <is>
-          <t>EIA Refinery Crude Runs ChangeMAR/21</t>
-        </is>
-      </c>
-      <c r="C1270" t="inlineStr"/>
-      <c r="D1270" t="inlineStr">
-        <is>
-          <t>-0.045M</t>
-        </is>
-      </c>
-      <c r="E1270" t="inlineStr"/>
-      <c r="F1270" t="inlineStr"/>
-      <c r="G1270" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1271">
-      <c r="A1271" t="inlineStr">
-        <is>
-          <t>10:30 PM</t>
-        </is>
-      </c>
-      <c r="B1271" t="inlineStr">
-        <is>
-          <t>2-Year FRN Auction</t>
-        </is>
-      </c>
-      <c r="C1271" t="inlineStr"/>
-      <c r="D1271" t="inlineStr">
-        <is>
-          <t>0.090%</t>
-        </is>
-      </c>
-      <c r="E1271" t="inlineStr"/>
-      <c r="F1271" t="inlineStr"/>
-      <c r="G1271" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1272">
-      <c r="A1272" t="inlineStr">
-        <is>
-          <t>10:30 PM</t>
-        </is>
-      </c>
-      <c r="B1272" t="inlineStr">
-        <is>
-          <t>5-Year Note Auction</t>
-        </is>
-      </c>
-      <c r="C1272" t="inlineStr"/>
-      <c r="D1272" t="inlineStr">
-        <is>
-          <t>4.123%</t>
-        </is>
-      </c>
-      <c r="E1272" t="inlineStr"/>
-      <c r="F1272" t="inlineStr"/>
-      <c r="G1272" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1273">
-      <c r="A1273" t="inlineStr">
-        <is>
-          <t>Thursday March 27 2025</t>
-        </is>
-      </c>
-      <c r="B1273" t="inlineStr"/>
-      <c r="C1273" t="inlineStr"/>
-      <c r="D1273" t="inlineStr"/>
-      <c r="E1273" t="inlineStr"/>
-      <c r="F1273" t="inlineStr"/>
-      <c r="G1273" t="inlineStr"/>
-    </row>
-    <row r="1274">
-      <c r="A1274" t="inlineStr">
-        <is>
-          <t>06:00 PM</t>
-        </is>
-      </c>
-      <c r="B1274" t="inlineStr">
-        <is>
-          <t>GDP Growth Rate QoQ FinalQ4</t>
-        </is>
-      </c>
-      <c r="C1274" t="inlineStr"/>
-      <c r="D1274" t="inlineStr">
-        <is>
-          <t>3.1%</t>
-        </is>
-      </c>
-      <c r="E1274" t="inlineStr">
-        <is>
-          <t>2.3%</t>
-        </is>
-      </c>
-      <c r="F1274" t="inlineStr">
-        <is>
-          <t>2.3%</t>
-        </is>
-      </c>
-      <c r="G1274" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-    </row>
-    <row r="1275">
-      <c r="A1275" t="inlineStr">
-        <is>
-          <t>06:00 PM</t>
-        </is>
-      </c>
-      <c r="B1275" t="inlineStr">
-        <is>
-          <t>Corporate Profits QoQQ4</t>
-        </is>
-      </c>
-      <c r="C1275" t="inlineStr"/>
-      <c r="D1275" t="inlineStr">
-        <is>
-          <t>-0.4%</t>
-        </is>
-      </c>
-      <c r="E1275" t="inlineStr"/>
-      <c r="F1275" t="inlineStr">
-        <is>
-          <t>-0.9%</t>
-        </is>
-      </c>
-      <c r="G1275" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="1276">
-      <c r="A1276" t="inlineStr">
-        <is>
-          <t>06:00 PM</t>
-        </is>
-      </c>
-      <c r="B1276" t="inlineStr">
-        <is>
-          <t>GDP Price Index QoQ FinalQ4</t>
-        </is>
-      </c>
-      <c r="C1276" t="inlineStr"/>
-      <c r="D1276" t="inlineStr">
-        <is>
-          <t>1.9%</t>
-        </is>
-      </c>
-      <c r="E1276" t="inlineStr">
-        <is>
-          <t>2.4%</t>
-        </is>
-      </c>
-      <c r="F1276" t="inlineStr">
-        <is>
-          <t>2.4%</t>
-        </is>
-      </c>
-      <c r="G1276" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="1277">
-      <c r="A1277" t="inlineStr">
-        <is>
-          <t>06:00 PM</t>
-        </is>
-      </c>
-      <c r="B1277" t="inlineStr">
-        <is>
-          <t>Goods Trade Balance AdvFEB</t>
-        </is>
-      </c>
-      <c r="C1277" t="inlineStr"/>
-      <c r="D1277" t="inlineStr">
-        <is>
-          <t>$-153.26B</t>
-        </is>
-      </c>
-      <c r="E1277" t="inlineStr"/>
-      <c r="F1277" t="inlineStr">
-        <is>
-          <t>$-149.0B</t>
-        </is>
-      </c>
-      <c r="G1277" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="1278">
-      <c r="A1278" t="inlineStr">
-        <is>
-          <t>06:00 PM</t>
-        </is>
-      </c>
-      <c r="B1278" t="inlineStr">
-        <is>
-          <t>Initial Jobless ClaimsMAR/22</t>
-        </is>
-      </c>
-      <c r="C1278" t="inlineStr"/>
-      <c r="D1278" t="inlineStr"/>
-      <c r="E1278" t="inlineStr"/>
-      <c r="F1278" t="inlineStr"/>
-      <c r="G1278" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="1279">
-      <c r="A1279" t="inlineStr">
-        <is>
-          <t>06:00 PM</t>
-        </is>
-      </c>
-      <c r="B1279" t="inlineStr">
-        <is>
-          <t>Retail Inventories Ex Autos MoM AdvFEB</t>
-        </is>
-      </c>
-      <c r="C1279" t="inlineStr"/>
-      <c r="D1279" t="inlineStr">
-        <is>
-          <t>0.5%</t>
-        </is>
-      </c>
-      <c r="E1279" t="inlineStr"/>
-      <c r="F1279" t="inlineStr">
-        <is>
-          <t>0.4%</t>
-        </is>
-      </c>
-      <c r="G1279" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="1280">
-      <c r="A1280" t="inlineStr">
-        <is>
-          <t>06:00 PM</t>
-        </is>
-      </c>
-      <c r="B1280" t="inlineStr">
-        <is>
-          <t>Wholesale Inventories MoM AdvFEB</t>
-        </is>
-      </c>
-      <c r="C1280" t="inlineStr"/>
-      <c r="D1280" t="inlineStr">
-        <is>
-          <t>0.8%</t>
-        </is>
-      </c>
-      <c r="E1280" t="inlineStr"/>
-      <c r="F1280" t="inlineStr">
-        <is>
-          <t>0.6%</t>
-        </is>
-      </c>
-      <c r="G1280" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="1281">
-      <c r="A1281" t="inlineStr">
-        <is>
-          <t>06:00 PM</t>
-        </is>
-      </c>
-      <c r="B1281" t="inlineStr">
-        <is>
-          <t>Continuing Jobless ClaimsMAR/15</t>
-        </is>
-      </c>
-      <c r="C1281" t="inlineStr"/>
-      <c r="D1281" t="inlineStr">
-        <is>
-          <t>1892K</t>
-        </is>
-      </c>
-      <c r="E1281" t="inlineStr"/>
-      <c r="F1281" t="inlineStr"/>
-      <c r="G1281" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1282">
-      <c r="A1282" t="inlineStr">
-        <is>
-          <t>06:00 PM</t>
-        </is>
-      </c>
-      <c r="B1282" t="inlineStr">
-        <is>
-          <t>Core PCE Prices QoQ FinalQ4</t>
-        </is>
-      </c>
-      <c r="C1282" t="inlineStr"/>
-      <c r="D1282" t="inlineStr">
-        <is>
-          <t>2.2%</t>
-        </is>
-      </c>
-      <c r="E1282" t="inlineStr">
-        <is>
-          <t>2.7%</t>
-        </is>
-      </c>
-      <c r="F1282" t="inlineStr">
-        <is>
-          <t>2.7%</t>
-        </is>
-      </c>
-      <c r="G1282" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1283">
-      <c r="A1283" t="inlineStr">
-        <is>
-          <t>06:00 PM</t>
-        </is>
-      </c>
-      <c r="B1283" t="inlineStr">
-        <is>
-          <t>GDP Sales QoQ FinalQ4</t>
-        </is>
-      </c>
-      <c r="C1283" t="inlineStr"/>
-      <c r="D1283" t="inlineStr">
-        <is>
-          <t>3.3%</t>
-        </is>
-      </c>
-      <c r="E1283" t="inlineStr">
-        <is>
-          <t>3.2%</t>
-        </is>
-      </c>
-      <c r="F1283" t="inlineStr">
-        <is>
-          <t>3.2%</t>
-        </is>
-      </c>
-      <c r="G1283" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1284">
-      <c r="A1284" t="inlineStr">
-        <is>
-          <t>06:00 PM</t>
-        </is>
-      </c>
-      <c r="B1284" t="inlineStr">
-        <is>
-          <t>Jobless Claims 4-week AverageMAR/22</t>
-        </is>
-      </c>
-      <c r="C1284" t="inlineStr"/>
-      <c r="D1284" t="inlineStr"/>
-      <c r="E1284" t="inlineStr"/>
-      <c r="F1284" t="inlineStr"/>
-      <c r="G1284" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1285">
-      <c r="A1285" t="inlineStr">
-        <is>
-          <t>06:00 PM</t>
-        </is>
-      </c>
-      <c r="B1285" t="inlineStr">
-        <is>
-          <t>PCE Prices QoQ FinalQ4</t>
-        </is>
-      </c>
-      <c r="C1285" t="inlineStr"/>
-      <c r="D1285" t="inlineStr">
-        <is>
-          <t>1.5%</t>
-        </is>
-      </c>
-      <c r="E1285" t="inlineStr">
-        <is>
-          <t>2.4%</t>
-        </is>
-      </c>
-      <c r="F1285" t="inlineStr">
-        <is>
-          <t>2.4%</t>
-        </is>
-      </c>
-      <c r="G1285" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1286">
-      <c r="A1286" t="inlineStr">
-        <is>
-          <t>06:00 PM</t>
-        </is>
-      </c>
-      <c r="B1286" t="inlineStr">
-        <is>
-          <t>Real Consumer Spending QoQ FinalQ4</t>
-        </is>
-      </c>
-      <c r="C1286" t="inlineStr"/>
-      <c r="D1286" t="inlineStr">
-        <is>
-          <t>3.7%</t>
-        </is>
-      </c>
-      <c r="E1286" t="inlineStr">
-        <is>
-          <t>4.2%</t>
-        </is>
-      </c>
-      <c r="F1286" t="inlineStr">
-        <is>
-          <t>4.2%</t>
-        </is>
-      </c>
-      <c r="G1286" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1287">
-      <c r="A1287" t="inlineStr">
-        <is>
-          <t>07:30 PM</t>
-        </is>
-      </c>
-      <c r="B1287" t="inlineStr">
-        <is>
-          <t>Pending Home Sales MoMFEB</t>
-        </is>
-      </c>
-      <c r="C1287" t="inlineStr"/>
-      <c r="D1287" t="inlineStr">
-        <is>
-          <t>-4.6%</t>
-        </is>
-      </c>
-      <c r="E1287" t="inlineStr"/>
-      <c r="F1287" t="inlineStr">
-        <is>
-          <t>2.9%</t>
-        </is>
-      </c>
-      <c r="G1287" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="1288">
-      <c r="A1288" t="inlineStr">
-        <is>
-          <t>07:30 PM</t>
-        </is>
-      </c>
-      <c r="B1288" t="inlineStr">
-        <is>
-          <t>Pending Home Sales YoYFEB</t>
-        </is>
-      </c>
-      <c r="C1288" t="inlineStr"/>
-      <c r="D1288" t="inlineStr">
-        <is>
-          <t>-5.2%</t>
-        </is>
-      </c>
-      <c r="E1288" t="inlineStr"/>
-      <c r="F1288" t="inlineStr">
-        <is>
-          <t>-3.7%</t>
-        </is>
-      </c>
-      <c r="G1288" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="1289">
-      <c r="A1289" t="inlineStr">
-        <is>
-          <t>08:00 PM</t>
-        </is>
-      </c>
-      <c r="B1289" t="inlineStr">
-        <is>
-          <t>EIA Natural Gas Stocks ChangeMAR/21</t>
-        </is>
-      </c>
-      <c r="C1289" t="inlineStr"/>
-      <c r="D1289" t="inlineStr">
-        <is>
-          <t>9Bcf</t>
-        </is>
-      </c>
-      <c r="E1289" t="inlineStr"/>
-      <c r="F1289" t="inlineStr"/>
-      <c r="G1289" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1290">
-      <c r="A1290" t="inlineStr">
-        <is>
-          <t>08:30 PM</t>
-        </is>
-      </c>
-      <c r="B1290" t="inlineStr">
-        <is>
-          <t>Kansas Fed Composite IndexMAR</t>
-        </is>
-      </c>
-      <c r="C1290" t="inlineStr"/>
-      <c r="D1290" t="inlineStr">
-        <is>
-          <t>-5</t>
-        </is>
-      </c>
-      <c r="E1290" t="inlineStr"/>
-      <c r="F1290" t="inlineStr">
-        <is>
-          <t>-6</t>
-        </is>
-      </c>
-      <c r="G1290" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1291">
-      <c r="A1291" t="inlineStr">
-        <is>
-          <t>08:30 PM</t>
-        </is>
-      </c>
-      <c r="B1291" t="inlineStr">
-        <is>
-          <t>Kansas Fed Manufacturing IndexMAR</t>
-        </is>
-      </c>
-      <c r="C1291" t="inlineStr"/>
-      <c r="D1291" t="inlineStr">
-        <is>
-          <t>-13</t>
-        </is>
-      </c>
-      <c r="E1291" t="inlineStr"/>
-      <c r="F1291" t="inlineStr">
-        <is>
-          <t>-14</t>
-        </is>
-      </c>
-      <c r="G1291" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1292">
-      <c r="A1292" t="inlineStr">
-        <is>
-          <t>09:00 PM</t>
-        </is>
-      </c>
-      <c r="B1292" t="inlineStr">
-        <is>
-          <t>4-Week Bill Auction</t>
-        </is>
-      </c>
-      <c r="C1292" t="inlineStr"/>
-      <c r="D1292" t="inlineStr"/>
-      <c r="E1292" t="inlineStr"/>
-      <c r="F1292" t="inlineStr"/>
-      <c r="G1292" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1293">
-      <c r="A1293" t="inlineStr">
-        <is>
-          <t>09:00 PM</t>
-        </is>
-      </c>
-      <c r="B1293" t="inlineStr">
-        <is>
-          <t>8-Week Bill Auction</t>
-        </is>
-      </c>
-      <c r="C1293" t="inlineStr"/>
-      <c r="D1293" t="inlineStr"/>
-      <c r="E1293" t="inlineStr"/>
-      <c r="F1293" t="inlineStr"/>
-      <c r="G1293" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1294">
-      <c r="A1294" t="inlineStr">
-        <is>
-          <t>09:30 PM</t>
-        </is>
-      </c>
-      <c r="B1294" t="inlineStr">
-        <is>
-          <t>15-Year Mortgage RateMAR/27</t>
-        </is>
-      </c>
-      <c r="C1294" t="inlineStr"/>
-      <c r="D1294" t="inlineStr">
-        <is>
-          <t>5.83%</t>
-        </is>
-      </c>
-      <c r="E1294" t="inlineStr"/>
-      <c r="F1294" t="inlineStr"/>
-      <c r="G1294" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1295">
-      <c r="A1295" t="inlineStr">
-        <is>
-          <t>09:30 PM</t>
-        </is>
-      </c>
-      <c r="B1295" t="inlineStr">
-        <is>
-          <t>30-Year Mortgage RateMAR/27</t>
-        </is>
-      </c>
-      <c r="C1295" t="inlineStr"/>
-      <c r="D1295" t="inlineStr">
-        <is>
-          <t>6.67%</t>
-        </is>
-      </c>
-      <c r="E1295" t="inlineStr"/>
-      <c r="F1295" t="inlineStr"/>
-      <c r="G1295" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1296">
-      <c r="A1296" t="inlineStr">
-        <is>
-          <t>10:30 PM</t>
-        </is>
-      </c>
-      <c r="B1296" t="inlineStr">
-        <is>
-          <t>7-Year Note Auction</t>
-        </is>
-      </c>
-      <c r="C1296" t="inlineStr"/>
-      <c r="D1296" t="inlineStr">
-        <is>
-          <t>4.194%</t>
-        </is>
-      </c>
-      <c r="E1296" t="inlineStr"/>
-      <c r="F1296" t="inlineStr"/>
-      <c r="G1296" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1297">
-      <c r="A1297" t="inlineStr">
-        <is>
-          <t>Friday March 28 2025</t>
-        </is>
-      </c>
-      <c r="B1297" t="inlineStr"/>
-      <c r="C1297" t="inlineStr"/>
-      <c r="D1297" t="inlineStr"/>
-      <c r="E1297" t="inlineStr"/>
-      <c r="F1297" t="inlineStr"/>
-      <c r="G1297" t="inlineStr"/>
-    </row>
-    <row r="1298">
-      <c r="A1298" t="inlineStr">
-        <is>
-          <t>02:00 AM</t>
-        </is>
-      </c>
-      <c r="B1298" t="inlineStr">
-        <is>
-          <t>Fed Barkin Speech</t>
-        </is>
-      </c>
-      <c r="C1298" t="inlineStr"/>
-      <c r="D1298" t="inlineStr"/>
-      <c r="E1298" t="inlineStr"/>
-      <c r="F1298" t="inlineStr"/>
-      <c r="G1298" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="1299">
-      <c r="A1299" t="inlineStr">
-        <is>
-          <t>02:00 AM</t>
-        </is>
-      </c>
-      <c r="B1299" t="inlineStr">
-        <is>
-          <t>Fed Balance SheetMAR/26</t>
-        </is>
-      </c>
-      <c r="C1299" t="inlineStr"/>
-      <c r="D1299" t="inlineStr">
-        <is>
-          <t>$6.76T</t>
-        </is>
-      </c>
-      <c r="E1299" t="inlineStr"/>
-      <c r="F1299" t="inlineStr"/>
-      <c r="G1299" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1300">
-      <c r="A1300" t="inlineStr">
-        <is>
-          <t>06:00 PM</t>
-        </is>
-      </c>
-      <c r="B1300" t="inlineStr">
-        <is>
-          <t>Core PCE Price Index MoMFEB</t>
-        </is>
-      </c>
-      <c r="C1300" t="inlineStr"/>
-      <c r="D1300" t="inlineStr">
-        <is>
-          <t>0.3%</t>
-        </is>
-      </c>
-      <c r="E1300" t="inlineStr"/>
-      <c r="F1300" t="inlineStr">
-        <is>
-          <t>0.4%</t>
-        </is>
-      </c>
-      <c r="G1300" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-    </row>
-    <row r="1301">
-      <c r="A1301" t="inlineStr">
-        <is>
-          <t>06:00 PM</t>
-        </is>
-      </c>
-      <c r="B1301" t="inlineStr">
-        <is>
-          <t>Personal Income MoMFEB</t>
-        </is>
-      </c>
-      <c r="C1301" t="inlineStr"/>
-      <c r="D1301" t="inlineStr">
-        <is>
-          <t>0.9%</t>
-        </is>
-      </c>
-      <c r="E1301" t="inlineStr"/>
-      <c r="F1301" t="inlineStr">
-        <is>
-          <t>0.3%</t>
-        </is>
-      </c>
-      <c r="G1301" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-    </row>
-    <row r="1302">
-      <c r="A1302" t="inlineStr">
-        <is>
-          <t>06:00 PM</t>
-        </is>
-      </c>
-      <c r="B1302" t="inlineStr">
-        <is>
-          <t>Personal Spending MoMFEB</t>
-        </is>
-      </c>
-      <c r="C1302" t="inlineStr"/>
-      <c r="D1302" t="inlineStr">
-        <is>
-          <t>-0.2%</t>
-        </is>
-      </c>
-      <c r="E1302" t="inlineStr"/>
-      <c r="F1302" t="inlineStr">
-        <is>
-          <t>0.1%</t>
-        </is>
-      </c>
-      <c r="G1302" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-    </row>
-    <row r="1303">
-      <c r="A1303" t="inlineStr">
-        <is>
-          <t>06:00 PM</t>
-        </is>
-      </c>
-      <c r="B1303" t="inlineStr">
-        <is>
-          <t>PCE Price Index MoMFEB</t>
-        </is>
-      </c>
-      <c r="C1303" t="inlineStr"/>
-      <c r="D1303" t="inlineStr">
-        <is>
-          <t>0.3%</t>
-        </is>
-      </c>
-      <c r="E1303" t="inlineStr"/>
-      <c r="F1303" t="inlineStr">
-        <is>
-          <t>0.5%</t>
-        </is>
-      </c>
-      <c r="G1303" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="1304">
-      <c r="A1304" t="inlineStr">
-        <is>
-          <t>06:00 PM</t>
-        </is>
-      </c>
-      <c r="B1304" t="inlineStr">
-        <is>
-          <t>PCE Price Index YoYFEB</t>
-        </is>
-      </c>
-      <c r="C1304" t="inlineStr"/>
-      <c r="D1304" t="inlineStr">
-        <is>
-          <t>2.5%</t>
-        </is>
-      </c>
-      <c r="E1304" t="inlineStr"/>
-      <c r="F1304" t="inlineStr">
-        <is>
-          <t>2.7%</t>
-        </is>
-      </c>
-      <c r="G1304" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="1305">
-      <c r="A1305" t="inlineStr">
-        <is>
-          <t>06:00 PM</t>
-        </is>
-      </c>
-      <c r="B1305" t="inlineStr">
-        <is>
-          <t>Core PCE Price Index YoYFEB</t>
-        </is>
-      </c>
-      <c r="C1305" t="inlineStr"/>
-      <c r="D1305" t="inlineStr">
-        <is>
-          <t>2.6%</t>
-        </is>
-      </c>
-      <c r="E1305" t="inlineStr"/>
-      <c r="F1305" t="inlineStr">
-        <is>
-          <t>2.8%</t>
-        </is>
-      </c>
-      <c r="G1305" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1306">
-      <c r="A1306" t="inlineStr">
-        <is>
-          <t>07:30 PM</t>
-        </is>
-      </c>
-      <c r="B1306" t="inlineStr">
-        <is>
-          <t>Michigan Consumer Sentiment FinalMAR</t>
-        </is>
-      </c>
-      <c r="C1306" t="inlineStr"/>
-      <c r="D1306" t="inlineStr">
-        <is>
-          <t>64.7</t>
-        </is>
-      </c>
-      <c r="E1306" t="inlineStr">
-        <is>
-          <t>57.9</t>
-        </is>
-      </c>
-      <c r="F1306" t="inlineStr">
-        <is>
-          <t>57.9</t>
-        </is>
-      </c>
-      <c r="G1306" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="1307">
-      <c r="A1307" t="inlineStr">
-        <is>
-          <t>07:30 PM</t>
-        </is>
-      </c>
-      <c r="B1307" t="inlineStr">
-        <is>
-          <t>Michigan 5 Year Inflation Expectations FinalMAR</t>
-        </is>
-      </c>
-      <c r="C1307" t="inlineStr"/>
-      <c r="D1307" t="inlineStr">
-        <is>
-          <t>3.5%</t>
-        </is>
-      </c>
-      <c r="E1307" t="inlineStr">
-        <is>
-          <t>3.9%</t>
-        </is>
-      </c>
-      <c r="F1307" t="inlineStr">
-        <is>
-          <t>3.9%</t>
-        </is>
-      </c>
-      <c r="G1307" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1308">
-      <c r="A1308" t="inlineStr">
-        <is>
-          <t>07:30 PM</t>
-        </is>
-      </c>
-      <c r="B1308" t="inlineStr">
-        <is>
-          <t>Michigan Consumer Expectations FinalMAR</t>
-        </is>
-      </c>
-      <c r="C1308" t="inlineStr"/>
-      <c r="D1308" t="inlineStr">
-        <is>
-          <t>64.0</t>
-        </is>
-      </c>
-      <c r="E1308" t="inlineStr">
-        <is>
-          <t>54.2</t>
-        </is>
-      </c>
-      <c r="F1308" t="inlineStr">
-        <is>
-          <t>54.2</t>
-        </is>
-      </c>
-      <c r="G1308" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1309">
-      <c r="A1309" t="inlineStr">
-        <is>
-          <t>07:30 PM</t>
-        </is>
-      </c>
-      <c r="B1309" t="inlineStr">
-        <is>
-          <t>Michigan Current Conditions FinalMAR</t>
-        </is>
-      </c>
-      <c r="C1309" t="inlineStr"/>
-      <c r="D1309" t="inlineStr">
-        <is>
-          <t>65.7</t>
-        </is>
-      </c>
-      <c r="E1309" t="inlineStr">
-        <is>
-          <t>63.5</t>
-        </is>
-      </c>
-      <c r="F1309" t="inlineStr">
-        <is>
-          <t>63.5</t>
-        </is>
-      </c>
-      <c r="G1309" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1310">
-      <c r="A1310" t="inlineStr">
-        <is>
-          <t>07:30 PM</t>
-        </is>
-      </c>
-      <c r="B1310" t="inlineStr">
-        <is>
-          <t>Michigan Inflation Expectations FinalMAR</t>
-        </is>
-      </c>
-      <c r="C1310" t="inlineStr"/>
-      <c r="D1310" t="inlineStr">
-        <is>
-          <t>4.3%</t>
-        </is>
-      </c>
-      <c r="E1310" t="inlineStr">
-        <is>
-          <t>4.9%</t>
-        </is>
-      </c>
-      <c r="F1310" t="inlineStr">
-        <is>
-          <t>4.9%</t>
-        </is>
-      </c>
-      <c r="G1310" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1311">
-      <c r="A1311" t="inlineStr">
-        <is>
-          <t>10:30 PM</t>
-        </is>
-      </c>
-      <c r="B1311" t="inlineStr">
-        <is>
-          <t>Baker Hughes Oil Rig CountMAR/28</t>
-        </is>
-      </c>
-      <c r="C1311" t="inlineStr"/>
-      <c r="D1311" t="inlineStr"/>
-      <c r="E1311" t="inlineStr"/>
-      <c r="F1311" t="inlineStr"/>
-      <c r="G1311" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1312">
-      <c r="A1312" t="inlineStr">
-        <is>
-          <t>10:30 PM</t>
-        </is>
-      </c>
-      <c r="B1312" t="inlineStr">
-        <is>
-          <t>Baker Hughes Total Rigs CountMAR/28</t>
-        </is>
-      </c>
-      <c r="C1312" t="inlineStr"/>
-      <c r="D1312" t="inlineStr"/>
-      <c r="E1312" t="inlineStr"/>
-      <c r="F1312" t="inlineStr"/>
-      <c r="G1312" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1313">
-      <c r="A1313" t="inlineStr">
-        <is>
-          <t>Saturday March 29 2025</t>
-        </is>
-      </c>
-      <c r="B1313" t="inlineStr"/>
-      <c r="C1313" t="inlineStr"/>
-      <c r="D1313" t="inlineStr"/>
-      <c r="E1313" t="inlineStr"/>
-      <c r="F1313" t="inlineStr"/>
-      <c r="G1313" t="inlineStr"/>
-    </row>
-    <row r="1314">
-      <c r="A1314" t="inlineStr">
-        <is>
-          <t>Monday March 31 2025</t>
-        </is>
-      </c>
-      <c r="B1314" t="inlineStr"/>
-      <c r="C1314" t="inlineStr"/>
-      <c r="D1314" t="inlineStr"/>
-      <c r="E1314" t="inlineStr"/>
-      <c r="F1314" t="inlineStr"/>
-      <c r="G1314" t="inlineStr"/>
-    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Input_data/IST_US_trad_eco_cal_2024-12-28_to_2025-03-31.xlsx
+++ b/Input_data/IST_US_trad_eco_cal_2024-12-28_to_2025-03-31.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G1326"/>
+  <dimension ref="A1:G1334"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -34118,12 +34118,12 @@
     <row r="1235">
       <c r="A1235" t="inlineStr">
         <is>
-          <t>06:35 PM</t>
+          <t>06:00 PM</t>
         </is>
       </c>
       <c r="B1235" t="inlineStr">
         <is>
-          <t>Fed Williams Speech</t>
+          <t>Fed Golsbee Speech</t>
         </is>
       </c>
       <c r="C1235" t="inlineStr"/>
@@ -34139,25 +34139,21 @@
     <row r="1236">
       <c r="A1236" t="inlineStr">
         <is>
-          <t>10:30 PM</t>
+          <t>06:35 PM</t>
         </is>
       </c>
       <c r="B1236" t="inlineStr">
         <is>
-          <t>Baker Hughes Oil Rig CountMAR/21</t>
+          <t>Fed Williams Speech</t>
         </is>
       </c>
       <c r="C1236" t="inlineStr"/>
-      <c r="D1236" t="inlineStr">
-        <is>
-          <t>487</t>
-        </is>
-      </c>
+      <c r="D1236" t="inlineStr"/>
       <c r="E1236" t="inlineStr"/>
       <c r="F1236" t="inlineStr"/>
       <c r="G1236" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
@@ -34169,13 +34165,13 @@
       </c>
       <c r="B1237" t="inlineStr">
         <is>
-          <t>Baker Hughes Total Rigs CountMAR/21</t>
+          <t>Baker Hughes Oil Rig CountMAR/21</t>
         </is>
       </c>
       <c r="C1237" t="inlineStr"/>
       <c r="D1237" t="inlineStr">
         <is>
-          <t>592</t>
+          <t>487</t>
         </is>
       </c>
       <c r="E1237" t="inlineStr"/>
@@ -34189,20 +34185,32 @@
     <row r="1238">
       <c r="A1238" t="inlineStr">
         <is>
-          <t>Saturday March 22 2025</t>
-        </is>
-      </c>
-      <c r="B1238" t="inlineStr"/>
+          <t>10:30 PM</t>
+        </is>
+      </c>
+      <c r="B1238" t="inlineStr">
+        <is>
+          <t>Baker Hughes Total Rigs CountMAR/21</t>
+        </is>
+      </c>
       <c r="C1238" t="inlineStr"/>
-      <c r="D1238" t="inlineStr"/>
+      <c r="D1238" t="inlineStr">
+        <is>
+          <t>592</t>
+        </is>
+      </c>
       <c r="E1238" t="inlineStr"/>
       <c r="F1238" t="inlineStr"/>
-      <c r="G1238" t="inlineStr"/>
+      <c r="G1238" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
     </row>
     <row r="1239">
       <c r="A1239" t="inlineStr">
         <is>
-          <t>Monday March 24 2025</t>
+          <t>Saturday March 22 2025</t>
         </is>
       </c>
       <c r="B1239" t="inlineStr"/>
@@ -34215,53 +34223,37 @@
     <row r="1240">
       <c r="A1240" t="inlineStr">
         <is>
-          <t>06:00 PM</t>
-        </is>
-      </c>
-      <c r="B1240" t="inlineStr">
-        <is>
-          <t>Chicago Fed National Activity IndexFEB</t>
-        </is>
-      </c>
+          <t>Monday March 24 2025</t>
+        </is>
+      </c>
+      <c r="B1240" t="inlineStr"/>
       <c r="C1240" t="inlineStr"/>
-      <c r="D1240" t="inlineStr">
-        <is>
-          <t>-0.03</t>
-        </is>
-      </c>
+      <c r="D1240" t="inlineStr"/>
       <c r="E1240" t="inlineStr"/>
-      <c r="F1240" t="inlineStr">
-        <is>
-          <t>0.08</t>
-        </is>
-      </c>
-      <c r="G1240" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
+      <c r="F1240" t="inlineStr"/>
+      <c r="G1240" t="inlineStr"/>
     </row>
     <row r="1241">
       <c r="A1241" t="inlineStr">
         <is>
-          <t>07:15 PM</t>
+          <t>06:00 PM</t>
         </is>
       </c>
       <c r="B1241" t="inlineStr">
         <is>
-          <t>S&amp;P Global Composite PMI FlashMAR</t>
+          <t>Chicago Fed National Activity IndexFEB</t>
         </is>
       </c>
       <c r="C1241" t="inlineStr"/>
       <c r="D1241" t="inlineStr">
         <is>
-          <t>51.6</t>
+          <t>-0.03</t>
         </is>
       </c>
       <c r="E1241" t="inlineStr"/>
       <c r="F1241" t="inlineStr">
         <is>
-          <t>50.2</t>
+          <t>0.08</t>
         </is>
       </c>
       <c r="G1241" t="inlineStr">
@@ -34278,19 +34270,19 @@
       </c>
       <c r="B1242" t="inlineStr">
         <is>
-          <t>S&amp;P Global Manufacturing PMI FlashMAR</t>
+          <t>S&amp;P Global Composite PMI FlashMAR</t>
         </is>
       </c>
       <c r="C1242" t="inlineStr"/>
       <c r="D1242" t="inlineStr">
         <is>
-          <t>52.7</t>
+          <t>51.6</t>
         </is>
       </c>
       <c r="E1242" t="inlineStr"/>
       <c r="F1242" t="inlineStr">
         <is>
-          <t>51</t>
+          <t>50.2</t>
         </is>
       </c>
       <c r="G1242" t="inlineStr">
@@ -34307,19 +34299,19 @@
       </c>
       <c r="B1243" t="inlineStr">
         <is>
-          <t>S&amp;P Global Services PMI FlashMAR</t>
+          <t>S&amp;P Global Manufacturing PMI FlashMAR</t>
         </is>
       </c>
       <c r="C1243" t="inlineStr"/>
       <c r="D1243" t="inlineStr">
         <is>
-          <t>51</t>
+          <t>52.7</t>
         </is>
       </c>
       <c r="E1243" t="inlineStr"/>
       <c r="F1243" t="inlineStr">
         <is>
-          <t>49.5</t>
+          <t>51</t>
         </is>
       </c>
       <c r="G1243" t="inlineStr">
@@ -34331,25 +34323,29 @@
     <row r="1244">
       <c r="A1244" t="inlineStr">
         <is>
-          <t>09:00 PM</t>
+          <t>07:15 PM</t>
         </is>
       </c>
       <c r="B1244" t="inlineStr">
         <is>
-          <t>3-Month Bill Auction</t>
+          <t>S&amp;P Global Services PMI FlashMAR</t>
         </is>
       </c>
       <c r="C1244" t="inlineStr"/>
       <c r="D1244" t="inlineStr">
         <is>
-          <t>4.205%</t>
+          <t>51</t>
         </is>
       </c>
       <c r="E1244" t="inlineStr"/>
-      <c r="F1244" t="inlineStr"/>
+      <c r="F1244" t="inlineStr">
+        <is>
+          <t>49.5</t>
+        </is>
+      </c>
       <c r="G1244" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
@@ -34361,13 +34357,13 @@
       </c>
       <c r="B1245" t="inlineStr">
         <is>
-          <t>6-Month Bill Auction</t>
+          <t>3-Month Bill Auction</t>
         </is>
       </c>
       <c r="C1245" t="inlineStr"/>
       <c r="D1245" t="inlineStr">
         <is>
-          <t>4.100%</t>
+          <t>4.205%</t>
         </is>
       </c>
       <c r="E1245" t="inlineStr"/>
@@ -34381,151 +34377,123 @@
     <row r="1246">
       <c r="A1246" t="inlineStr">
         <is>
-          <t>Tuesday March 25 2025</t>
-        </is>
-      </c>
-      <c r="B1246" t="inlineStr"/>
+          <t>09:00 PM</t>
+        </is>
+      </c>
+      <c r="B1246" t="inlineStr">
+        <is>
+          <t>6-Month Bill Auction</t>
+        </is>
+      </c>
       <c r="C1246" t="inlineStr"/>
-      <c r="D1246" t="inlineStr"/>
+      <c r="D1246" t="inlineStr">
+        <is>
+          <t>4.100%</t>
+        </is>
+      </c>
       <c r="E1246" t="inlineStr"/>
       <c r="F1246" t="inlineStr"/>
-      <c r="G1246" t="inlineStr"/>
+      <c r="G1246" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
     </row>
     <row r="1247">
       <c r="A1247" t="inlineStr">
         <is>
-          <t>06:25 PM</t>
+          <t>11:15 PM</t>
         </is>
       </c>
       <c r="B1247" t="inlineStr">
         <is>
-          <t>Redbook YoYMAR/22</t>
+          <t>Fed Bostic Speech</t>
         </is>
       </c>
       <c r="C1247" t="inlineStr"/>
-      <c r="D1247" t="inlineStr">
-        <is>
-          <t>5.2%</t>
-        </is>
-      </c>
+      <c r="D1247" t="inlineStr"/>
       <c r="E1247" t="inlineStr"/>
       <c r="F1247" t="inlineStr"/>
       <c r="G1247" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="1248">
       <c r="A1248" t="inlineStr">
         <is>
-          <t>06:30 PM</t>
-        </is>
-      </c>
-      <c r="B1248" t="inlineStr">
-        <is>
-          <t>S&amp;P/Case-Shiller Home Price YoYJAN</t>
-        </is>
-      </c>
+          <t>Tuesday March 25 2025</t>
+        </is>
+      </c>
+      <c r="B1248" t="inlineStr"/>
       <c r="C1248" t="inlineStr"/>
-      <c r="D1248" t="inlineStr">
-        <is>
-          <t>4.5%</t>
-        </is>
-      </c>
+      <c r="D1248" t="inlineStr"/>
       <c r="E1248" t="inlineStr"/>
-      <c r="F1248" t="inlineStr">
-        <is>
-          <t>4.2%</t>
-        </is>
-      </c>
-      <c r="G1248" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
+      <c r="F1248" t="inlineStr"/>
+      <c r="G1248" t="inlineStr"/>
     </row>
     <row r="1249">
       <c r="A1249" t="inlineStr">
         <is>
-          <t>06:30 PM</t>
+          <t>12:40 AM</t>
         </is>
       </c>
       <c r="B1249" t="inlineStr">
         <is>
-          <t>House Price IndexJAN</t>
+          <t>Fed Barr Speech</t>
         </is>
       </c>
       <c r="C1249" t="inlineStr"/>
-      <c r="D1249" t="inlineStr">
-        <is>
-          <t>436.1</t>
-        </is>
-      </c>
+      <c r="D1249" t="inlineStr"/>
       <c r="E1249" t="inlineStr"/>
-      <c r="F1249" t="inlineStr">
-        <is>
-          <t>437.4</t>
-        </is>
-      </c>
+      <c r="F1249" t="inlineStr"/>
       <c r="G1249" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="1250">
       <c r="A1250" t="inlineStr">
         <is>
-          <t>06:30 PM</t>
+          <t>06:10 PM</t>
         </is>
       </c>
       <c r="B1250" t="inlineStr">
         <is>
-          <t>House Price Index MoMJAN</t>
+          <t>Fed Kugler Speech</t>
         </is>
       </c>
       <c r="C1250" t="inlineStr"/>
-      <c r="D1250" t="inlineStr">
-        <is>
-          <t>0.4%</t>
-        </is>
-      </c>
+      <c r="D1250" t="inlineStr"/>
       <c r="E1250" t="inlineStr"/>
-      <c r="F1250" t="inlineStr">
-        <is>
-          <t>0.3%</t>
-        </is>
-      </c>
+      <c r="F1250" t="inlineStr"/>
       <c r="G1250" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="1251">
       <c r="A1251" t="inlineStr">
         <is>
-          <t>06:30 PM</t>
+          <t>06:25 PM</t>
         </is>
       </c>
       <c r="B1251" t="inlineStr">
         <is>
-          <t>House Price Index YoYJAN</t>
+          <t>Redbook YoYMAR/22</t>
         </is>
       </c>
       <c r="C1251" t="inlineStr"/>
       <c r="D1251" t="inlineStr">
         <is>
-          <t>4.7%</t>
+          <t>5.2%</t>
         </is>
       </c>
       <c r="E1251" t="inlineStr"/>
-      <c r="F1251" t="inlineStr">
-        <is>
-          <t>4.7%</t>
-        </is>
-      </c>
+      <c r="F1251" t="inlineStr"/>
       <c r="G1251" t="inlineStr">
         <is>
           <t>3</t>
@@ -34540,135 +34508,135 @@
       </c>
       <c r="B1252" t="inlineStr">
         <is>
-          <t>S&amp;P/Case-Shiller Home Price MoMJAN</t>
+          <t>S&amp;P/Case-Shiller Home Price YoYJAN</t>
         </is>
       </c>
       <c r="C1252" t="inlineStr"/>
       <c r="D1252" t="inlineStr">
         <is>
-          <t>-0.1%</t>
+          <t>4.5%</t>
         </is>
       </c>
       <c r="E1252" t="inlineStr"/>
       <c r="F1252" t="inlineStr">
         <is>
-          <t>-0.4%</t>
+          <t>4.2%</t>
         </is>
       </c>
       <c r="G1252" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="1253">
       <c r="A1253" t="inlineStr">
         <is>
-          <t>07:30 PM</t>
+          <t>06:30 PM</t>
         </is>
       </c>
       <c r="B1253" t="inlineStr">
         <is>
-          <t>CB Consumer ConfidenceMAR</t>
+          <t>House Price IndexJAN</t>
         </is>
       </c>
       <c r="C1253" t="inlineStr"/>
       <c r="D1253" t="inlineStr">
         <is>
-          <t>98.3</t>
+          <t>436.1</t>
         </is>
       </c>
       <c r="E1253" t="inlineStr"/>
       <c r="F1253" t="inlineStr">
         <is>
-          <t>97.4</t>
+          <t>437.4</t>
         </is>
       </c>
       <c r="G1253" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1254">
       <c r="A1254" t="inlineStr">
         <is>
-          <t>07:30 PM</t>
+          <t>06:30 PM</t>
         </is>
       </c>
       <c r="B1254" t="inlineStr">
         <is>
-          <t>New Home SalesFEB</t>
+          <t>House Price Index MoMJAN</t>
         </is>
       </c>
       <c r="C1254" t="inlineStr"/>
       <c r="D1254" t="inlineStr">
         <is>
-          <t>0.657M</t>
+          <t>0.4%</t>
         </is>
       </c>
       <c r="E1254" t="inlineStr"/>
       <c r="F1254" t="inlineStr">
         <is>
-          <t>0.66M</t>
+          <t>0.3%</t>
         </is>
       </c>
       <c r="G1254" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1255">
       <c r="A1255" t="inlineStr">
         <is>
-          <t>07:30 PM</t>
+          <t>06:30 PM</t>
         </is>
       </c>
       <c r="B1255" t="inlineStr">
         <is>
-          <t>New Home Sales MoMFEB</t>
+          <t>House Price Index YoYJAN</t>
         </is>
       </c>
       <c r="C1255" t="inlineStr"/>
       <c r="D1255" t="inlineStr">
         <is>
-          <t>-10.5%</t>
+          <t>4.7%</t>
         </is>
       </c>
       <c r="E1255" t="inlineStr"/>
       <c r="F1255" t="inlineStr">
         <is>
-          <t>0.5%</t>
+          <t>4.7%</t>
         </is>
       </c>
       <c r="G1255" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1256">
       <c r="A1256" t="inlineStr">
         <is>
-          <t>07:30 PM</t>
+          <t>06:30 PM</t>
         </is>
       </c>
       <c r="B1256" t="inlineStr">
         <is>
-          <t>Richmond Fed Manufacturing IndexMAR</t>
+          <t>S&amp;P/Case-Shiller Home Price MoMJAN</t>
         </is>
       </c>
       <c r="C1256" t="inlineStr"/>
       <c r="D1256" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>-0.1%</t>
         </is>
       </c>
       <c r="E1256" t="inlineStr"/>
       <c r="F1256" t="inlineStr">
         <is>
-          <t>-3</t>
+          <t>-0.4%</t>
         </is>
       </c>
       <c r="G1256" t="inlineStr">
@@ -34685,24 +34653,24 @@
       </c>
       <c r="B1257" t="inlineStr">
         <is>
-          <t>Richmond Fed Manufacturing Shipments IndexMAR</t>
+          <t>CB Consumer ConfidenceMAR</t>
         </is>
       </c>
       <c r="C1257" t="inlineStr"/>
       <c r="D1257" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>98.3</t>
         </is>
       </c>
       <c r="E1257" t="inlineStr"/>
       <c r="F1257" t="inlineStr">
         <is>
+          <t>97.4</t>
+        </is>
+      </c>
+      <c r="G1257" t="inlineStr">
+        <is>
           <t>2</t>
-        </is>
-      </c>
-      <c r="G1257" t="inlineStr">
-        <is>
-          <t>3</t>
         </is>
       </c>
     </row>
@@ -34714,71 +34682,79 @@
       </c>
       <c r="B1258" t="inlineStr">
         <is>
-          <t>Richmond Fed Services Revenues IndexMAR</t>
+          <t>New Home SalesFEB</t>
         </is>
       </c>
       <c r="C1258" t="inlineStr"/>
       <c r="D1258" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>0.657M</t>
         </is>
       </c>
       <c r="E1258" t="inlineStr"/>
       <c r="F1258" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>0.66M</t>
         </is>
       </c>
       <c r="G1258" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="1259">
       <c r="A1259" t="inlineStr">
         <is>
-          <t>10:30 PM</t>
+          <t>07:30 PM</t>
         </is>
       </c>
       <c r="B1259" t="inlineStr">
         <is>
-          <t>2-Year Note Auction</t>
+          <t>New Home Sales MoMFEB</t>
         </is>
       </c>
       <c r="C1259" t="inlineStr"/>
       <c r="D1259" t="inlineStr">
         <is>
-          <t>4.169%</t>
+          <t>-10.5%</t>
         </is>
       </c>
       <c r="E1259" t="inlineStr"/>
-      <c r="F1259" t="inlineStr"/>
+      <c r="F1259" t="inlineStr">
+        <is>
+          <t>0.5%</t>
+        </is>
+      </c>
       <c r="G1259" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="1260">
       <c r="A1260" t="inlineStr">
         <is>
-          <t>10:30 PM</t>
+          <t>07:30 PM</t>
         </is>
       </c>
       <c r="B1260" t="inlineStr">
         <is>
-          <t>Money SupplyFEB</t>
+          <t>Richmond Fed Manufacturing IndexMAR</t>
         </is>
       </c>
       <c r="C1260" t="inlineStr"/>
       <c r="D1260" t="inlineStr">
         <is>
-          <t>$21.56T</t>
+          <t>6</t>
         </is>
       </c>
       <c r="E1260" t="inlineStr"/>
-      <c r="F1260" t="inlineStr"/>
+      <c r="F1260" t="inlineStr">
+        <is>
+          <t>-3</t>
+        </is>
+      </c>
       <c r="G1260" t="inlineStr">
         <is>
           <t>3</t>
@@ -34786,26 +34762,26 @@
       </c>
     </row>
     <row r="1261">
-      <c r="A1261" t="inlineStr"/>
+      <c r="A1261" t="inlineStr">
+        <is>
+          <t>07:30 PM</t>
+        </is>
+      </c>
       <c r="B1261" t="inlineStr">
         <is>
-          <t>Building Permits FinalFEB</t>
+          <t>Richmond Fed Manufacturing Shipments IndexMAR</t>
         </is>
       </c>
       <c r="C1261" t="inlineStr"/>
       <c r="D1261" t="inlineStr">
         <is>
-          <t>1.473M</t>
-        </is>
-      </c>
-      <c r="E1261" t="inlineStr">
-        <is>
-          <t>1.456M</t>
-        </is>
-      </c>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="E1261" t="inlineStr"/>
       <c r="F1261" t="inlineStr">
         <is>
-          <t>1.456M</t>
+          <t>2</t>
         </is>
       </c>
       <c r="G1261" t="inlineStr">
@@ -34815,26 +34791,26 @@
       </c>
     </row>
     <row r="1262">
-      <c r="A1262" t="inlineStr"/>
+      <c r="A1262" t="inlineStr">
+        <is>
+          <t>07:30 PM</t>
+        </is>
+      </c>
       <c r="B1262" t="inlineStr">
         <is>
-          <t>Building Permits MoM FinalFEB</t>
+          <t>Richmond Fed Services Revenues IndexMAR</t>
         </is>
       </c>
       <c r="C1262" t="inlineStr"/>
       <c r="D1262" t="inlineStr">
         <is>
-          <t>-0.6%</t>
-        </is>
-      </c>
-      <c r="E1262" t="inlineStr">
-        <is>
-          <t>-1.2%</t>
-        </is>
-      </c>
+          <t>11</t>
+        </is>
+      </c>
+      <c r="E1262" t="inlineStr"/>
       <c r="F1262" t="inlineStr">
         <is>
-          <t>-1.2%</t>
+          <t>3</t>
         </is>
       </c>
       <c r="G1262" t="inlineStr">
@@ -34846,85 +34822,105 @@
     <row r="1263">
       <c r="A1263" t="inlineStr">
         <is>
-          <t>Wednesday March 26 2025</t>
-        </is>
-      </c>
-      <c r="B1263" t="inlineStr"/>
+          <t>10:30 PM</t>
+        </is>
+      </c>
+      <c r="B1263" t="inlineStr">
+        <is>
+          <t>2-Year Note Auction</t>
+        </is>
+      </c>
       <c r="C1263" t="inlineStr"/>
-      <c r="D1263" t="inlineStr"/>
+      <c r="D1263" t="inlineStr">
+        <is>
+          <t>4.169%</t>
+        </is>
+      </c>
       <c r="E1263" t="inlineStr"/>
       <c r="F1263" t="inlineStr"/>
-      <c r="G1263" t="inlineStr"/>
+      <c r="G1263" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
     </row>
     <row r="1264">
       <c r="A1264" t="inlineStr">
         <is>
-          <t>02:00 AM</t>
+          <t>10:30 PM</t>
         </is>
       </c>
       <c r="B1264" t="inlineStr">
         <is>
-          <t>API Crude Oil Stock ChangeMAR/21</t>
+          <t>Money SupplyFEB</t>
         </is>
       </c>
       <c r="C1264" t="inlineStr"/>
       <c r="D1264" t="inlineStr">
         <is>
-          <t>4.593M</t>
+          <t>$21.56T</t>
         </is>
       </c>
       <c r="E1264" t="inlineStr"/>
       <c r="F1264" t="inlineStr"/>
       <c r="G1264" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1265">
-      <c r="A1265" t="inlineStr">
-        <is>
-          <t>04:30 PM</t>
-        </is>
-      </c>
+      <c r="A1265" t="inlineStr"/>
       <c r="B1265" t="inlineStr">
         <is>
-          <t>MBA 30-Year Mortgage RateMAR/21</t>
+          <t>Building Permits FinalFEB</t>
         </is>
       </c>
       <c r="C1265" t="inlineStr"/>
       <c r="D1265" t="inlineStr">
         <is>
-          <t>6.72%</t>
-        </is>
-      </c>
-      <c r="E1265" t="inlineStr"/>
-      <c r="F1265" t="inlineStr"/>
+          <t>1.473M</t>
+        </is>
+      </c>
+      <c r="E1265" t="inlineStr">
+        <is>
+          <t>1.456M</t>
+        </is>
+      </c>
+      <c r="F1265" t="inlineStr">
+        <is>
+          <t>1.456M</t>
+        </is>
+      </c>
       <c r="G1265" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1266">
-      <c r="A1266" t="inlineStr">
-        <is>
-          <t>04:30 PM</t>
-        </is>
-      </c>
+      <c r="A1266" t="inlineStr"/>
       <c r="B1266" t="inlineStr">
         <is>
-          <t>MBA Mortgage ApplicationsMAR/21</t>
+          <t>Building Permits MoM FinalFEB</t>
         </is>
       </c>
       <c r="C1266" t="inlineStr"/>
       <c r="D1266" t="inlineStr">
         <is>
-          <t>-6.2%</t>
-        </is>
-      </c>
-      <c r="E1266" t="inlineStr"/>
-      <c r="F1266" t="inlineStr"/>
+          <t>-0.6%</t>
+        </is>
+      </c>
+      <c r="E1266" t="inlineStr">
+        <is>
+          <t>-1.2%</t>
+        </is>
+      </c>
+      <c r="F1266" t="inlineStr">
+        <is>
+          <t>-1.2%</t>
+        </is>
+      </c>
       <c r="G1266" t="inlineStr">
         <is>
           <t>3</t>
@@ -34934,50 +34930,38 @@
     <row r="1267">
       <c r="A1267" t="inlineStr">
         <is>
-          <t>04:30 PM</t>
-        </is>
-      </c>
-      <c r="B1267" t="inlineStr">
-        <is>
-          <t>MBA Mortgage Market IndexMAR/21</t>
-        </is>
-      </c>
+          <t>Wednesday March 26 2025</t>
+        </is>
+      </c>
+      <c r="B1267" t="inlineStr"/>
       <c r="C1267" t="inlineStr"/>
-      <c r="D1267" t="inlineStr">
-        <is>
-          <t>252.5</t>
-        </is>
-      </c>
+      <c r="D1267" t="inlineStr"/>
       <c r="E1267" t="inlineStr"/>
       <c r="F1267" t="inlineStr"/>
-      <c r="G1267" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
+      <c r="G1267" t="inlineStr"/>
     </row>
     <row r="1268">
       <c r="A1268" t="inlineStr">
         <is>
-          <t>04:30 PM</t>
+          <t>02:00 AM</t>
         </is>
       </c>
       <c r="B1268" t="inlineStr">
         <is>
-          <t>MBA Mortgage Refinance IndexMAR/21</t>
+          <t>API Crude Oil Stock ChangeMAR/21</t>
         </is>
       </c>
       <c r="C1268" t="inlineStr"/>
       <c r="D1268" t="inlineStr">
         <is>
-          <t>794.4</t>
+          <t>4.593M</t>
         </is>
       </c>
       <c r="E1268" t="inlineStr"/>
       <c r="F1268" t="inlineStr"/>
       <c r="G1268" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
@@ -34989,88 +34973,88 @@
       </c>
       <c r="B1269" t="inlineStr">
         <is>
-          <t>MBA Purchase IndexMAR/21</t>
+          <t>MBA 30-Year Mortgage RateMAR/21</t>
         </is>
       </c>
       <c r="C1269" t="inlineStr"/>
       <c r="D1269" t="inlineStr">
         <is>
-          <t>154.7</t>
+          <t>6.72%</t>
         </is>
       </c>
       <c r="E1269" t="inlineStr"/>
       <c r="F1269" t="inlineStr"/>
       <c r="G1269" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="1270">
       <c r="A1270" t="inlineStr">
         <is>
-          <t>06:00 PM</t>
+          <t>04:30 PM</t>
         </is>
       </c>
       <c r="B1270" t="inlineStr">
         <is>
-          <t>Durable Goods Orders MoMFEB</t>
+          <t>MBA Mortgage ApplicationsMAR/21</t>
         </is>
       </c>
       <c r="C1270" t="inlineStr"/>
       <c r="D1270" t="inlineStr">
         <is>
-          <t>3.1%</t>
+          <t>-6.2%</t>
         </is>
       </c>
       <c r="E1270" t="inlineStr"/>
       <c r="F1270" t="inlineStr"/>
       <c r="G1270" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1271">
       <c r="A1271" t="inlineStr">
         <is>
-          <t>06:00 PM</t>
+          <t>04:30 PM</t>
         </is>
       </c>
       <c r="B1271" t="inlineStr">
         <is>
-          <t>Durable Goods Orders Ex Transp MoMFEB</t>
+          <t>MBA Mortgage Market IndexMAR/21</t>
         </is>
       </c>
       <c r="C1271" t="inlineStr"/>
       <c r="D1271" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>252.5</t>
         </is>
       </c>
       <c r="E1271" t="inlineStr"/>
       <c r="F1271" t="inlineStr"/>
       <c r="G1271" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1272">
       <c r="A1272" t="inlineStr">
         <is>
-          <t>06:00 PM</t>
+          <t>04:30 PM</t>
         </is>
       </c>
       <c r="B1272" t="inlineStr">
         <is>
-          <t>Durable Goods Orders ex Defense MoMFEB</t>
+          <t>MBA Mortgage Refinance IndexMAR/21</t>
         </is>
       </c>
       <c r="C1272" t="inlineStr"/>
       <c r="D1272" t="inlineStr">
         <is>
-          <t>3.5%</t>
+          <t>794.4</t>
         </is>
       </c>
       <c r="E1272" t="inlineStr"/>
@@ -35084,18 +35068,18 @@
     <row r="1273">
       <c r="A1273" t="inlineStr">
         <is>
-          <t>06:00 PM</t>
+          <t>04:30 PM</t>
         </is>
       </c>
       <c r="B1273" t="inlineStr">
         <is>
-          <t>Non Defense Goods Orders Ex AirFEB</t>
+          <t>MBA Purchase IndexMAR/21</t>
         </is>
       </c>
       <c r="C1273" t="inlineStr"/>
       <c r="D1273" t="inlineStr">
         <is>
-          <t>0.8%</t>
+          <t>154.7</t>
         </is>
       </c>
       <c r="E1273" t="inlineStr"/>
@@ -35109,43 +35093,43 @@
     <row r="1274">
       <c r="A1274" t="inlineStr">
         <is>
-          <t>08:00 PM</t>
+          <t>06:00 PM</t>
         </is>
       </c>
       <c r="B1274" t="inlineStr">
         <is>
-          <t>EIA Crude Oil Stocks ChangeMAR/21</t>
+          <t>Durable Goods Orders MoMFEB</t>
         </is>
       </c>
       <c r="C1274" t="inlineStr"/>
       <c r="D1274" t="inlineStr">
         <is>
-          <t>1.745M</t>
+          <t>3.1%</t>
         </is>
       </c>
       <c r="E1274" t="inlineStr"/>
       <c r="F1274" t="inlineStr"/>
       <c r="G1274" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="1275">
       <c r="A1275" t="inlineStr">
         <is>
-          <t>08:00 PM</t>
+          <t>06:00 PM</t>
         </is>
       </c>
       <c r="B1275" t="inlineStr">
         <is>
-          <t>EIA Gasoline Stocks ChangeMAR/21</t>
+          <t>Durable Goods Orders Ex Transp MoMFEB</t>
         </is>
       </c>
       <c r="C1275" t="inlineStr"/>
       <c r="D1275" t="inlineStr">
         <is>
-          <t>-0.527M</t>
+          <t>0%</t>
         </is>
       </c>
       <c r="E1275" t="inlineStr"/>
@@ -35159,18 +35143,18 @@
     <row r="1276">
       <c r="A1276" t="inlineStr">
         <is>
-          <t>08:00 PM</t>
+          <t>06:00 PM</t>
         </is>
       </c>
       <c r="B1276" t="inlineStr">
         <is>
-          <t>EIA Crude Oil Imports ChangeMAR/21</t>
+          <t>Durable Goods Orders ex Defense MoMFEB</t>
         </is>
       </c>
       <c r="C1276" t="inlineStr"/>
       <c r="D1276" t="inlineStr">
         <is>
-          <t>-1.439M</t>
+          <t>3.5%</t>
         </is>
       </c>
       <c r="E1276" t="inlineStr"/>
@@ -35184,18 +35168,18 @@
     <row r="1277">
       <c r="A1277" t="inlineStr">
         <is>
-          <t>08:00 PM</t>
+          <t>06:00 PM</t>
         </is>
       </c>
       <c r="B1277" t="inlineStr">
         <is>
-          <t>EIA Cushing Crude Oil Stocks ChangeMAR/21</t>
+          <t>Non Defense Goods Orders Ex AirFEB</t>
         </is>
       </c>
       <c r="C1277" t="inlineStr"/>
       <c r="D1277" t="inlineStr">
         <is>
-          <t>-1.009M</t>
+          <t>0.8%</t>
         </is>
       </c>
       <c r="E1277" t="inlineStr"/>
@@ -35209,25 +35193,21 @@
     <row r="1278">
       <c r="A1278" t="inlineStr">
         <is>
-          <t>08:00 PM</t>
+          <t>07:30 PM</t>
         </is>
       </c>
       <c r="B1278" t="inlineStr">
         <is>
-          <t>EIA Distillate Fuel Production ChangeMAR/21</t>
+          <t>Fed Kashkari Speech</t>
         </is>
       </c>
       <c r="C1278" t="inlineStr"/>
-      <c r="D1278" t="inlineStr">
-        <is>
-          <t>0.151M</t>
-        </is>
-      </c>
+      <c r="D1278" t="inlineStr"/>
       <c r="E1278" t="inlineStr"/>
       <c r="F1278" t="inlineStr"/>
       <c r="G1278" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
@@ -35239,20 +35219,20 @@
       </c>
       <c r="B1279" t="inlineStr">
         <is>
-          <t>EIA Distillate Stocks ChangeMAR/21</t>
+          <t>EIA Crude Oil Stocks ChangeMAR/21</t>
         </is>
       </c>
       <c r="C1279" t="inlineStr"/>
       <c r="D1279" t="inlineStr">
         <is>
-          <t>-2.812M</t>
+          <t>1.745M</t>
         </is>
       </c>
       <c r="E1279" t="inlineStr"/>
       <c r="F1279" t="inlineStr"/>
       <c r="G1279" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
@@ -35264,20 +35244,20 @@
       </c>
       <c r="B1280" t="inlineStr">
         <is>
-          <t>EIA Gasoline Production ChangeMAR/21</t>
+          <t>EIA Gasoline Stocks ChangeMAR/21</t>
         </is>
       </c>
       <c r="C1280" t="inlineStr"/>
       <c r="D1280" t="inlineStr">
         <is>
-          <t>0.067M</t>
+          <t>-0.527M</t>
         </is>
       </c>
       <c r="E1280" t="inlineStr"/>
       <c r="F1280" t="inlineStr"/>
       <c r="G1280" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
@@ -35289,13 +35269,13 @@
       </c>
       <c r="B1281" t="inlineStr">
         <is>
-          <t>EIA Heating Oil Stocks ChangeMAR/21</t>
+          <t>EIA Crude Oil Imports ChangeMAR/21</t>
         </is>
       </c>
       <c r="C1281" t="inlineStr"/>
       <c r="D1281" t="inlineStr">
         <is>
-          <t>0.008M</t>
+          <t>-1.439M</t>
         </is>
       </c>
       <c r="E1281" t="inlineStr"/>
@@ -35314,13 +35294,13 @@
       </c>
       <c r="B1282" t="inlineStr">
         <is>
-          <t>EIA Refinery Crude Runs ChangeMAR/21</t>
+          <t>EIA Cushing Crude Oil Stocks ChangeMAR/21</t>
         </is>
       </c>
       <c r="C1282" t="inlineStr"/>
       <c r="D1282" t="inlineStr">
         <is>
-          <t>-0.045M</t>
+          <t>-1.009M</t>
         </is>
       </c>
       <c r="E1282" t="inlineStr"/>
@@ -35334,18 +35314,18 @@
     <row r="1283">
       <c r="A1283" t="inlineStr">
         <is>
-          <t>10:30 PM</t>
+          <t>08:00 PM</t>
         </is>
       </c>
       <c r="B1283" t="inlineStr">
         <is>
-          <t>2-Year FRN Auction</t>
+          <t>EIA Distillate Fuel Production ChangeMAR/21</t>
         </is>
       </c>
       <c r="C1283" t="inlineStr"/>
       <c r="D1283" t="inlineStr">
         <is>
-          <t>0.090%</t>
+          <t>0.151M</t>
         </is>
       </c>
       <c r="E1283" t="inlineStr"/>
@@ -35359,18 +35339,18 @@
     <row r="1284">
       <c r="A1284" t="inlineStr">
         <is>
-          <t>10:30 PM</t>
+          <t>08:00 PM</t>
         </is>
       </c>
       <c r="B1284" t="inlineStr">
         <is>
-          <t>5-Year Note Auction</t>
+          <t>EIA Distillate Stocks ChangeMAR/21</t>
         </is>
       </c>
       <c r="C1284" t="inlineStr"/>
       <c r="D1284" t="inlineStr">
         <is>
-          <t>4.123%</t>
+          <t>-2.812M</t>
         </is>
       </c>
       <c r="E1284" t="inlineStr"/>
@@ -35384,163 +35364,143 @@
     <row r="1285">
       <c r="A1285" t="inlineStr">
         <is>
-          <t>Thursday March 27 2025</t>
-        </is>
-      </c>
-      <c r="B1285" t="inlineStr"/>
+          <t>08:00 PM</t>
+        </is>
+      </c>
+      <c r="B1285" t="inlineStr">
+        <is>
+          <t>EIA Gasoline Production ChangeMAR/21</t>
+        </is>
+      </c>
       <c r="C1285" t="inlineStr"/>
-      <c r="D1285" t="inlineStr"/>
+      <c r="D1285" t="inlineStr">
+        <is>
+          <t>0.067M</t>
+        </is>
+      </c>
       <c r="E1285" t="inlineStr"/>
       <c r="F1285" t="inlineStr"/>
-      <c r="G1285" t="inlineStr"/>
+      <c r="G1285" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
     </row>
     <row r="1286">
       <c r="A1286" t="inlineStr">
         <is>
-          <t>06:00 PM</t>
+          <t>08:00 PM</t>
         </is>
       </c>
       <c r="B1286" t="inlineStr">
         <is>
-          <t>GDP Growth Rate QoQ FinalQ4</t>
+          <t>EIA Heating Oil Stocks ChangeMAR/21</t>
         </is>
       </c>
       <c r="C1286" t="inlineStr"/>
       <c r="D1286" t="inlineStr">
         <is>
-          <t>3.1%</t>
-        </is>
-      </c>
-      <c r="E1286" t="inlineStr">
-        <is>
-          <t>2.3%</t>
-        </is>
-      </c>
-      <c r="F1286" t="inlineStr">
-        <is>
-          <t>2.3%</t>
-        </is>
-      </c>
+          <t>0.008M</t>
+        </is>
+      </c>
+      <c r="E1286" t="inlineStr"/>
+      <c r="F1286" t="inlineStr"/>
       <c r="G1286" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1287">
       <c r="A1287" t="inlineStr">
         <is>
-          <t>06:00 PM</t>
+          <t>08:00 PM</t>
         </is>
       </c>
       <c r="B1287" t="inlineStr">
         <is>
-          <t>Corporate Profits QoQQ4</t>
+          <t>EIA Refinery Crude Runs ChangeMAR/21</t>
         </is>
       </c>
       <c r="C1287" t="inlineStr"/>
       <c r="D1287" t="inlineStr">
         <is>
-          <t>-0.4%</t>
+          <t>-0.045M</t>
         </is>
       </c>
       <c r="E1287" t="inlineStr"/>
-      <c r="F1287" t="inlineStr">
-        <is>
-          <t>-0.9%</t>
-        </is>
-      </c>
+      <c r="F1287" t="inlineStr"/>
       <c r="G1287" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1288">
       <c r="A1288" t="inlineStr">
         <is>
-          <t>06:00 PM</t>
+          <t>10:30 PM</t>
         </is>
       </c>
       <c r="B1288" t="inlineStr">
         <is>
-          <t>GDP Price Index QoQ FinalQ4</t>
+          <t>2-Year FRN Auction</t>
         </is>
       </c>
       <c r="C1288" t="inlineStr"/>
       <c r="D1288" t="inlineStr">
         <is>
-          <t>1.9%</t>
-        </is>
-      </c>
-      <c r="E1288" t="inlineStr">
-        <is>
-          <t>2.4%</t>
-        </is>
-      </c>
-      <c r="F1288" t="inlineStr">
-        <is>
-          <t>2.4%</t>
-        </is>
-      </c>
+          <t>0.090%</t>
+        </is>
+      </c>
+      <c r="E1288" t="inlineStr"/>
+      <c r="F1288" t="inlineStr"/>
       <c r="G1288" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1289">
       <c r="A1289" t="inlineStr">
         <is>
-          <t>06:00 PM</t>
+          <t>10:30 PM</t>
         </is>
       </c>
       <c r="B1289" t="inlineStr">
         <is>
-          <t>Goods Trade Balance AdvFEB</t>
+          <t>5-Year Note Auction</t>
         </is>
       </c>
       <c r="C1289" t="inlineStr"/>
       <c r="D1289" t="inlineStr">
         <is>
-          <t>$-153.26B</t>
+          <t>4.123%</t>
         </is>
       </c>
       <c r="E1289" t="inlineStr"/>
-      <c r="F1289" t="inlineStr">
-        <is>
-          <t>$-149.0B</t>
-        </is>
-      </c>
+      <c r="F1289" t="inlineStr"/>
       <c r="G1289" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1290">
       <c r="A1290" t="inlineStr">
         <is>
-          <t>06:00 PM</t>
+          <t>10:40 PM</t>
         </is>
       </c>
       <c r="B1290" t="inlineStr">
         <is>
-          <t>Initial Jobless ClaimsMAR/22</t>
+          <t>Fed Musalem Speech</t>
         </is>
       </c>
       <c r="C1290" t="inlineStr"/>
-      <c r="D1290" t="inlineStr">
-        <is>
-          <t>223K</t>
-        </is>
-      </c>
+      <c r="D1290" t="inlineStr"/>
       <c r="E1290" t="inlineStr"/>
-      <c r="F1290" t="inlineStr">
-        <is>
-          <t>225.0K</t>
-        </is>
-      </c>
+      <c r="F1290" t="inlineStr"/>
       <c r="G1290" t="inlineStr">
         <is>
           <t>2</t>
@@ -35550,31 +35510,15 @@
     <row r="1291">
       <c r="A1291" t="inlineStr">
         <is>
-          <t>06:00 PM</t>
-        </is>
-      </c>
-      <c r="B1291" t="inlineStr">
-        <is>
-          <t>Retail Inventories Ex Autos MoM AdvFEB</t>
-        </is>
-      </c>
+          <t>Thursday March 27 2025</t>
+        </is>
+      </c>
+      <c r="B1291" t="inlineStr"/>
       <c r="C1291" t="inlineStr"/>
-      <c r="D1291" t="inlineStr">
-        <is>
-          <t>0.5%</t>
-        </is>
-      </c>
+      <c r="D1291" t="inlineStr"/>
       <c r="E1291" t="inlineStr"/>
-      <c r="F1291" t="inlineStr">
-        <is>
-          <t>0.4%</t>
-        </is>
-      </c>
-      <c r="G1291" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
+      <c r="F1291" t="inlineStr"/>
+      <c r="G1291" t="inlineStr"/>
     </row>
     <row r="1292">
       <c r="A1292" t="inlineStr">
@@ -35584,24 +35528,28 @@
       </c>
       <c r="B1292" t="inlineStr">
         <is>
-          <t>Wholesale Inventories MoM AdvFEB</t>
+          <t>GDP Growth Rate QoQ FinalQ4</t>
         </is>
       </c>
       <c r="C1292" t="inlineStr"/>
       <c r="D1292" t="inlineStr">
         <is>
-          <t>0.8%</t>
-        </is>
-      </c>
-      <c r="E1292" t="inlineStr"/>
+          <t>3.1%</t>
+        </is>
+      </c>
+      <c r="E1292" t="inlineStr">
+        <is>
+          <t>2.3%</t>
+        </is>
+      </c>
       <c r="F1292" t="inlineStr">
         <is>
-          <t>0.6%</t>
+          <t>2.3%</t>
         </is>
       </c>
       <c r="G1292" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
     </row>
@@ -35613,24 +35561,24 @@
       </c>
       <c r="B1293" t="inlineStr">
         <is>
-          <t>Continuing Jobless ClaimsMAR/15</t>
+          <t>Corporate Profits QoQQ4</t>
         </is>
       </c>
       <c r="C1293" t="inlineStr"/>
       <c r="D1293" t="inlineStr">
         <is>
-          <t>1892K</t>
+          <t>-0.4%</t>
         </is>
       </c>
       <c r="E1293" t="inlineStr"/>
       <c r="F1293" t="inlineStr">
         <is>
-          <t>1893.0K</t>
+          <t>-0.9%</t>
         </is>
       </c>
       <c r="G1293" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
@@ -35642,28 +35590,28 @@
       </c>
       <c r="B1294" t="inlineStr">
         <is>
-          <t>Core PCE Prices QoQ FinalQ4</t>
+          <t>GDP Price Index QoQ FinalQ4</t>
         </is>
       </c>
       <c r="C1294" t="inlineStr"/>
       <c r="D1294" t="inlineStr">
         <is>
-          <t>2.2%</t>
+          <t>1.9%</t>
         </is>
       </c>
       <c r="E1294" t="inlineStr">
         <is>
-          <t>2.7%</t>
+          <t>2.4%</t>
         </is>
       </c>
       <c r="F1294" t="inlineStr">
         <is>
-          <t>2.7%</t>
+          <t>2.4%</t>
         </is>
       </c>
       <c r="G1294" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
@@ -35675,28 +35623,24 @@
       </c>
       <c r="B1295" t="inlineStr">
         <is>
-          <t>GDP Sales QoQ FinalQ4</t>
+          <t>Goods Trade Balance AdvFEB</t>
         </is>
       </c>
       <c r="C1295" t="inlineStr"/>
       <c r="D1295" t="inlineStr">
         <is>
-          <t>3.3%</t>
-        </is>
-      </c>
-      <c r="E1295" t="inlineStr">
-        <is>
-          <t>3.2%</t>
-        </is>
-      </c>
+          <t>$-153.26B</t>
+        </is>
+      </c>
+      <c r="E1295" t="inlineStr"/>
       <c r="F1295" t="inlineStr">
         <is>
-          <t>3.2%</t>
+          <t>$-149.0B</t>
         </is>
       </c>
       <c r="G1295" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
@@ -35708,24 +35652,24 @@
       </c>
       <c r="B1296" t="inlineStr">
         <is>
-          <t>Jobless Claims 4-week AverageMAR/22</t>
+          <t>Initial Jobless ClaimsMAR/22</t>
         </is>
       </c>
       <c r="C1296" t="inlineStr"/>
       <c r="D1296" t="inlineStr">
         <is>
-          <t>227K</t>
+          <t>223K</t>
         </is>
       </c>
       <c r="E1296" t="inlineStr"/>
       <c r="F1296" t="inlineStr">
         <is>
-          <t>228.0K</t>
+          <t>225.0K</t>
         </is>
       </c>
       <c r="G1296" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
@@ -35737,28 +35681,24 @@
       </c>
       <c r="B1297" t="inlineStr">
         <is>
-          <t>PCE Prices QoQ FinalQ4</t>
+          <t>Retail Inventories Ex Autos MoM AdvFEB</t>
         </is>
       </c>
       <c r="C1297" t="inlineStr"/>
       <c r="D1297" t="inlineStr">
         <is>
-          <t>1.5%</t>
-        </is>
-      </c>
-      <c r="E1297" t="inlineStr">
-        <is>
-          <t>2.4%</t>
-        </is>
-      </c>
+          <t>0.5%</t>
+        </is>
+      </c>
+      <c r="E1297" t="inlineStr"/>
       <c r="F1297" t="inlineStr">
         <is>
-          <t>2.4%</t>
+          <t>0.4%</t>
         </is>
       </c>
       <c r="G1297" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
@@ -35770,108 +35710,116 @@
       </c>
       <c r="B1298" t="inlineStr">
         <is>
-          <t>Real Consumer Spending QoQ FinalQ4</t>
+          <t>Wholesale Inventories MoM AdvFEB</t>
         </is>
       </c>
       <c r="C1298" t="inlineStr"/>
       <c r="D1298" t="inlineStr">
         <is>
-          <t>3.7%</t>
-        </is>
-      </c>
-      <c r="E1298" t="inlineStr">
-        <is>
-          <t>4.2%</t>
-        </is>
-      </c>
+          <t>0.8%</t>
+        </is>
+      </c>
+      <c r="E1298" t="inlineStr"/>
       <c r="F1298" t="inlineStr">
         <is>
-          <t>4.2%</t>
+          <t>0.6%</t>
         </is>
       </c>
       <c r="G1298" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="1299">
       <c r="A1299" t="inlineStr">
         <is>
-          <t>07:30 PM</t>
+          <t>06:00 PM</t>
         </is>
       </c>
       <c r="B1299" t="inlineStr">
         <is>
-          <t>Pending Home Sales MoMFEB</t>
+          <t>Continuing Jobless ClaimsMAR/15</t>
         </is>
       </c>
       <c r="C1299" t="inlineStr"/>
       <c r="D1299" t="inlineStr">
         <is>
-          <t>-4.6%</t>
+          <t>1892K</t>
         </is>
       </c>
       <c r="E1299" t="inlineStr"/>
       <c r="F1299" t="inlineStr">
         <is>
-          <t>2.9%</t>
+          <t>1893.0K</t>
         </is>
       </c>
       <c r="G1299" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1300">
       <c r="A1300" t="inlineStr">
         <is>
-          <t>07:30 PM</t>
+          <t>06:00 PM</t>
         </is>
       </c>
       <c r="B1300" t="inlineStr">
         <is>
-          <t>Pending Home Sales YoYFEB</t>
+          <t>Core PCE Prices QoQ FinalQ4</t>
         </is>
       </c>
       <c r="C1300" t="inlineStr"/>
       <c r="D1300" t="inlineStr">
         <is>
-          <t>-5.2%</t>
-        </is>
-      </c>
-      <c r="E1300" t="inlineStr"/>
+          <t>2.2%</t>
+        </is>
+      </c>
+      <c r="E1300" t="inlineStr">
+        <is>
+          <t>2.7%</t>
+        </is>
+      </c>
       <c r="F1300" t="inlineStr">
         <is>
-          <t>-3.7%</t>
+          <t>2.7%</t>
         </is>
       </c>
       <c r="G1300" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1301">
       <c r="A1301" t="inlineStr">
         <is>
-          <t>08:00 PM</t>
+          <t>06:00 PM</t>
         </is>
       </c>
       <c r="B1301" t="inlineStr">
         <is>
-          <t>EIA Natural Gas Stocks ChangeMAR/21</t>
+          <t>GDP Sales QoQ FinalQ4</t>
         </is>
       </c>
       <c r="C1301" t="inlineStr"/>
       <c r="D1301" t="inlineStr">
         <is>
-          <t>9Bcf</t>
-        </is>
-      </c>
-      <c r="E1301" t="inlineStr"/>
-      <c r="F1301" t="inlineStr"/>
+          <t>3.3%</t>
+        </is>
+      </c>
+      <c r="E1301" t="inlineStr">
+        <is>
+          <t>3.2%</t>
+        </is>
+      </c>
+      <c r="F1301" t="inlineStr">
+        <is>
+          <t>3.2%</t>
+        </is>
+      </c>
       <c r="G1301" t="inlineStr">
         <is>
           <t>3</t>
@@ -35881,24 +35829,24 @@
     <row r="1302">
       <c r="A1302" t="inlineStr">
         <is>
-          <t>08:30 PM</t>
+          <t>06:00 PM</t>
         </is>
       </c>
       <c r="B1302" t="inlineStr">
         <is>
-          <t>Kansas Fed Composite IndexMAR</t>
+          <t>Jobless Claims 4-week AverageMAR/22</t>
         </is>
       </c>
       <c r="C1302" t="inlineStr"/>
       <c r="D1302" t="inlineStr">
         <is>
-          <t>-5</t>
+          <t>227K</t>
         </is>
       </c>
       <c r="E1302" t="inlineStr"/>
       <c r="F1302" t="inlineStr">
         <is>
-          <t>-6</t>
+          <t>228.0K</t>
         </is>
       </c>
       <c r="G1302" t="inlineStr">
@@ -35910,24 +35858,28 @@
     <row r="1303">
       <c r="A1303" t="inlineStr">
         <is>
-          <t>08:30 PM</t>
+          <t>06:00 PM</t>
         </is>
       </c>
       <c r="B1303" t="inlineStr">
         <is>
-          <t>Kansas Fed Manufacturing IndexMAR</t>
+          <t>PCE Prices QoQ FinalQ4</t>
         </is>
       </c>
       <c r="C1303" t="inlineStr"/>
       <c r="D1303" t="inlineStr">
         <is>
-          <t>-13</t>
-        </is>
-      </c>
-      <c r="E1303" t="inlineStr"/>
+          <t>1.5%</t>
+        </is>
+      </c>
+      <c r="E1303" t="inlineStr">
+        <is>
+          <t>2.4%</t>
+        </is>
+      </c>
       <c r="F1303" t="inlineStr">
         <is>
-          <t>-14</t>
+          <t>2.4%</t>
         </is>
       </c>
       <c r="G1303" t="inlineStr">
@@ -35939,22 +35891,30 @@
     <row r="1304">
       <c r="A1304" t="inlineStr">
         <is>
-          <t>09:00 PM</t>
+          <t>06:00 PM</t>
         </is>
       </c>
       <c r="B1304" t="inlineStr">
         <is>
-          <t>4-Week Bill Auction</t>
+          <t>Real Consumer Spending QoQ FinalQ4</t>
         </is>
       </c>
       <c r="C1304" t="inlineStr"/>
       <c r="D1304" t="inlineStr">
         <is>
-          <t>4.215%</t>
-        </is>
-      </c>
-      <c r="E1304" t="inlineStr"/>
-      <c r="F1304" t="inlineStr"/>
+          <t>3.7%</t>
+        </is>
+      </c>
+      <c r="E1304" t="inlineStr">
+        <is>
+          <t>4.2%</t>
+        </is>
+      </c>
+      <c r="F1304" t="inlineStr">
+        <is>
+          <t>4.2%</t>
+        </is>
+      </c>
       <c r="G1304" t="inlineStr">
         <is>
           <t>3</t>
@@ -35964,68 +35924,76 @@
     <row r="1305">
       <c r="A1305" t="inlineStr">
         <is>
-          <t>09:00 PM</t>
+          <t>07:30 PM</t>
         </is>
       </c>
       <c r="B1305" t="inlineStr">
         <is>
-          <t>8-Week Bill Auction</t>
+          <t>Pending Home Sales MoMFEB</t>
         </is>
       </c>
       <c r="C1305" t="inlineStr"/>
       <c r="D1305" t="inlineStr">
         <is>
-          <t>4.215%</t>
+          <t>-4.6%</t>
         </is>
       </c>
       <c r="E1305" t="inlineStr"/>
-      <c r="F1305" t="inlineStr"/>
+      <c r="F1305" t="inlineStr">
+        <is>
+          <t>2.9%</t>
+        </is>
+      </c>
       <c r="G1305" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="1306">
       <c r="A1306" t="inlineStr">
         <is>
-          <t>09:30 PM</t>
+          <t>07:30 PM</t>
         </is>
       </c>
       <c r="B1306" t="inlineStr">
         <is>
-          <t>15-Year Mortgage RateMAR/27</t>
+          <t>Pending Home Sales YoYFEB</t>
         </is>
       </c>
       <c r="C1306" t="inlineStr"/>
       <c r="D1306" t="inlineStr">
         <is>
-          <t>5.83%</t>
+          <t>-5.2%</t>
         </is>
       </c>
       <c r="E1306" t="inlineStr"/>
-      <c r="F1306" t="inlineStr"/>
+      <c r="F1306" t="inlineStr">
+        <is>
+          <t>-3.7%</t>
+        </is>
+      </c>
       <c r="G1306" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="1307">
       <c r="A1307" t="inlineStr">
         <is>
-          <t>09:30 PM</t>
+          <t>08:00 PM</t>
         </is>
       </c>
       <c r="B1307" t="inlineStr">
         <is>
-          <t>30-Year Mortgage RateMAR/27</t>
+          <t>EIA Natural Gas Stocks ChangeMAR/21</t>
         </is>
       </c>
       <c r="C1307" t="inlineStr"/>
       <c r="D1307" t="inlineStr">
         <is>
-          <t>6.67%</t>
+          <t>9Bcf</t>
         </is>
       </c>
       <c r="E1307" t="inlineStr"/>
@@ -36039,22 +36007,26 @@
     <row r="1308">
       <c r="A1308" t="inlineStr">
         <is>
-          <t>10:30 PM</t>
+          <t>08:30 PM</t>
         </is>
       </c>
       <c r="B1308" t="inlineStr">
         <is>
-          <t>7-Year Note Auction</t>
+          <t>Kansas Fed Composite IndexMAR</t>
         </is>
       </c>
       <c r="C1308" t="inlineStr"/>
       <c r="D1308" t="inlineStr">
         <is>
-          <t>4.194%</t>
+          <t>-5</t>
         </is>
       </c>
       <c r="E1308" t="inlineStr"/>
-      <c r="F1308" t="inlineStr"/>
+      <c r="F1308" t="inlineStr">
+        <is>
+          <t>-6</t>
+        </is>
+      </c>
       <c r="G1308" t="inlineStr">
         <is>
           <t>3</t>
@@ -36064,52 +36036,72 @@
     <row r="1309">
       <c r="A1309" t="inlineStr">
         <is>
-          <t>Friday March 28 2025</t>
-        </is>
-      </c>
-      <c r="B1309" t="inlineStr"/>
+          <t>08:30 PM</t>
+        </is>
+      </c>
+      <c r="B1309" t="inlineStr">
+        <is>
+          <t>Kansas Fed Manufacturing IndexMAR</t>
+        </is>
+      </c>
       <c r="C1309" t="inlineStr"/>
-      <c r="D1309" t="inlineStr"/>
+      <c r="D1309" t="inlineStr">
+        <is>
+          <t>-13</t>
+        </is>
+      </c>
       <c r="E1309" t="inlineStr"/>
-      <c r="F1309" t="inlineStr"/>
-      <c r="G1309" t="inlineStr"/>
+      <c r="F1309" t="inlineStr">
+        <is>
+          <t>-14</t>
+        </is>
+      </c>
+      <c r="G1309" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
     </row>
     <row r="1310">
       <c r="A1310" t="inlineStr">
         <is>
-          <t>02:00 AM</t>
+          <t>09:00 PM</t>
         </is>
       </c>
       <c r="B1310" t="inlineStr">
         <is>
-          <t>Fed Barkin Speech</t>
+          <t>4-Week Bill Auction</t>
         </is>
       </c>
       <c r="C1310" t="inlineStr"/>
-      <c r="D1310" t="inlineStr"/>
+      <c r="D1310" t="inlineStr">
+        <is>
+          <t>4.215%</t>
+        </is>
+      </c>
       <c r="E1310" t="inlineStr"/>
       <c r="F1310" t="inlineStr"/>
       <c r="G1310" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1311">
       <c r="A1311" t="inlineStr">
         <is>
-          <t>02:00 AM</t>
+          <t>09:00 PM</t>
         </is>
       </c>
       <c r="B1311" t="inlineStr">
         <is>
-          <t>Fed Balance SheetMAR/26</t>
+          <t>8-Week Bill Auction</t>
         </is>
       </c>
       <c r="C1311" t="inlineStr"/>
       <c r="D1311" t="inlineStr">
         <is>
-          <t>$6.76T</t>
+          <t>4.215%</t>
         </is>
       </c>
       <c r="E1311" t="inlineStr"/>
@@ -36123,142 +36115,106 @@
     <row r="1312">
       <c r="A1312" t="inlineStr">
         <is>
-          <t>06:00 PM</t>
+          <t>09:30 PM</t>
         </is>
       </c>
       <c r="B1312" t="inlineStr">
         <is>
-          <t>Core PCE Price Index MoMFEB</t>
+          <t>15-Year Mortgage RateMAR/27</t>
         </is>
       </c>
       <c r="C1312" t="inlineStr"/>
       <c r="D1312" t="inlineStr">
         <is>
-          <t>0.3%</t>
+          <t>5.83%</t>
         </is>
       </c>
       <c r="E1312" t="inlineStr"/>
-      <c r="F1312" t="inlineStr">
-        <is>
-          <t>0.4%</t>
-        </is>
-      </c>
+      <c r="F1312" t="inlineStr"/>
       <c r="G1312" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1313">
       <c r="A1313" t="inlineStr">
         <is>
-          <t>06:00 PM</t>
+          <t>09:30 PM</t>
         </is>
       </c>
       <c r="B1313" t="inlineStr">
         <is>
-          <t>Personal Income MoMFEB</t>
+          <t>30-Year Mortgage RateMAR/27</t>
         </is>
       </c>
       <c r="C1313" t="inlineStr"/>
       <c r="D1313" t="inlineStr">
         <is>
-          <t>0.9%</t>
+          <t>6.67%</t>
         </is>
       </c>
       <c r="E1313" t="inlineStr"/>
-      <c r="F1313" t="inlineStr">
-        <is>
-          <t>0.3%</t>
-        </is>
-      </c>
+      <c r="F1313" t="inlineStr"/>
       <c r="G1313" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1314">
       <c r="A1314" t="inlineStr">
         <is>
-          <t>06:00 PM</t>
+          <t>10:30 PM</t>
         </is>
       </c>
       <c r="B1314" t="inlineStr">
         <is>
-          <t>Personal Spending MoMFEB</t>
+          <t>7-Year Note Auction</t>
         </is>
       </c>
       <c r="C1314" t="inlineStr"/>
       <c r="D1314" t="inlineStr">
         <is>
-          <t>-0.2%</t>
+          <t>4.194%</t>
         </is>
       </c>
       <c r="E1314" t="inlineStr"/>
-      <c r="F1314" t="inlineStr">
-        <is>
-          <t>0.1%</t>
-        </is>
-      </c>
+      <c r="F1314" t="inlineStr"/>
       <c r="G1314" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1315">
       <c r="A1315" t="inlineStr">
         <is>
-          <t>06:00 PM</t>
-        </is>
-      </c>
-      <c r="B1315" t="inlineStr">
-        <is>
-          <t>PCE Price Index MoMFEB</t>
-        </is>
-      </c>
+          <t>Friday March 28 2025</t>
+        </is>
+      </c>
+      <c r="B1315" t="inlineStr"/>
       <c r="C1315" t="inlineStr"/>
-      <c r="D1315" t="inlineStr">
-        <is>
-          <t>0.3%</t>
-        </is>
-      </c>
+      <c r="D1315" t="inlineStr"/>
       <c r="E1315" t="inlineStr"/>
-      <c r="F1315" t="inlineStr">
-        <is>
-          <t>0.5%</t>
-        </is>
-      </c>
-      <c r="G1315" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
+      <c r="F1315" t="inlineStr"/>
+      <c r="G1315" t="inlineStr"/>
     </row>
     <row r="1316">
       <c r="A1316" t="inlineStr">
         <is>
-          <t>06:00 PM</t>
+          <t>02:00 AM</t>
         </is>
       </c>
       <c r="B1316" t="inlineStr">
         <is>
-          <t>PCE Price Index YoYFEB</t>
+          <t>Fed Barkin Speech</t>
         </is>
       </c>
       <c r="C1316" t="inlineStr"/>
-      <c r="D1316" t="inlineStr">
-        <is>
-          <t>2.5%</t>
-        </is>
-      </c>
+      <c r="D1316" t="inlineStr"/>
       <c r="E1316" t="inlineStr"/>
-      <c r="F1316" t="inlineStr">
-        <is>
-          <t>2.7%</t>
-        </is>
-      </c>
+      <c r="F1316" t="inlineStr"/>
       <c r="G1316" t="inlineStr">
         <is>
           <t>2</t>
@@ -36268,26 +36224,22 @@
     <row r="1317">
       <c r="A1317" t="inlineStr">
         <is>
-          <t>06:00 PM</t>
+          <t>02:00 AM</t>
         </is>
       </c>
       <c r="B1317" t="inlineStr">
         <is>
-          <t>Core PCE Price Index YoYFEB</t>
+          <t>Fed Balance SheetMAR/26</t>
         </is>
       </c>
       <c r="C1317" t="inlineStr"/>
       <c r="D1317" t="inlineStr">
         <is>
-          <t>2.6%</t>
+          <t>$6.76T</t>
         </is>
       </c>
       <c r="E1317" t="inlineStr"/>
-      <c r="F1317" t="inlineStr">
-        <is>
-          <t>2.8%</t>
-        </is>
-      </c>
+      <c r="F1317" t="inlineStr"/>
       <c r="G1317" t="inlineStr">
         <is>
           <t>3</t>
@@ -36297,183 +36249,171 @@
     <row r="1318">
       <c r="A1318" t="inlineStr">
         <is>
-          <t>07:30 PM</t>
+          <t>06:00 PM</t>
         </is>
       </c>
       <c r="B1318" t="inlineStr">
         <is>
-          <t>Michigan Consumer Sentiment FinalMAR</t>
+          <t>Core PCE Price Index MoMFEB</t>
         </is>
       </c>
       <c r="C1318" t="inlineStr"/>
       <c r="D1318" t="inlineStr">
         <is>
-          <t>64.7</t>
-        </is>
-      </c>
-      <c r="E1318" t="inlineStr">
-        <is>
-          <t>57.9</t>
-        </is>
-      </c>
+          <t>0.3%</t>
+        </is>
+      </c>
+      <c r="E1318" t="inlineStr"/>
       <c r="F1318" t="inlineStr">
         <is>
-          <t>57.9</t>
+          <t>0.4%</t>
         </is>
       </c>
       <c r="G1318" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="1319">
       <c r="A1319" t="inlineStr">
         <is>
-          <t>07:30 PM</t>
+          <t>06:00 PM</t>
         </is>
       </c>
       <c r="B1319" t="inlineStr">
         <is>
-          <t>Michigan 5 Year Inflation Expectations FinalMAR</t>
+          <t>Personal Income MoMFEB</t>
         </is>
       </c>
       <c r="C1319" t="inlineStr"/>
       <c r="D1319" t="inlineStr">
         <is>
-          <t>3.5%</t>
-        </is>
-      </c>
-      <c r="E1319" t="inlineStr">
-        <is>
-          <t>3.9%</t>
-        </is>
-      </c>
+          <t>0.9%</t>
+        </is>
+      </c>
+      <c r="E1319" t="inlineStr"/>
       <c r="F1319" t="inlineStr">
         <is>
-          <t>3.9%</t>
+          <t>0.3%</t>
         </is>
       </c>
       <c r="G1319" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="1320">
       <c r="A1320" t="inlineStr">
         <is>
-          <t>07:30 PM</t>
+          <t>06:00 PM</t>
         </is>
       </c>
       <c r="B1320" t="inlineStr">
         <is>
-          <t>Michigan Consumer Expectations FinalMAR</t>
+          <t>Personal Spending MoMFEB</t>
         </is>
       </c>
       <c r="C1320" t="inlineStr"/>
       <c r="D1320" t="inlineStr">
         <is>
-          <t>64.0</t>
-        </is>
-      </c>
-      <c r="E1320" t="inlineStr">
-        <is>
-          <t>54.2</t>
-        </is>
-      </c>
+          <t>-0.2%</t>
+        </is>
+      </c>
+      <c r="E1320" t="inlineStr"/>
       <c r="F1320" t="inlineStr">
         <is>
-          <t>54.2</t>
+          <t>0.1%</t>
         </is>
       </c>
       <c r="G1320" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="1321">
       <c r="A1321" t="inlineStr">
         <is>
-          <t>07:30 PM</t>
+          <t>06:00 PM</t>
         </is>
       </c>
       <c r="B1321" t="inlineStr">
         <is>
-          <t>Michigan Current Conditions FinalMAR</t>
+          <t>PCE Price Index MoMFEB</t>
         </is>
       </c>
       <c r="C1321" t="inlineStr"/>
       <c r="D1321" t="inlineStr">
         <is>
-          <t>65.7</t>
-        </is>
-      </c>
-      <c r="E1321" t="inlineStr">
-        <is>
-          <t>63.5</t>
-        </is>
-      </c>
+          <t>0.3%</t>
+        </is>
+      </c>
+      <c r="E1321" t="inlineStr"/>
       <c r="F1321" t="inlineStr">
         <is>
-          <t>63.5</t>
+          <t>0.5%</t>
         </is>
       </c>
       <c r="G1321" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="1322">
       <c r="A1322" t="inlineStr">
         <is>
-          <t>07:30 PM</t>
+          <t>06:00 PM</t>
         </is>
       </c>
       <c r="B1322" t="inlineStr">
         <is>
-          <t>Michigan Inflation Expectations FinalMAR</t>
+          <t>PCE Price Index YoYFEB</t>
         </is>
       </c>
       <c r="C1322" t="inlineStr"/>
       <c r="D1322" t="inlineStr">
         <is>
-          <t>4.3%</t>
-        </is>
-      </c>
-      <c r="E1322" t="inlineStr">
-        <is>
-          <t>4.9%</t>
-        </is>
-      </c>
+          <t>2.5%</t>
+        </is>
+      </c>
+      <c r="E1322" t="inlineStr"/>
       <c r="F1322" t="inlineStr">
         <is>
-          <t>4.9%</t>
+          <t>2.7%</t>
         </is>
       </c>
       <c r="G1322" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="1323">
       <c r="A1323" t="inlineStr">
         <is>
-          <t>10:30 PM</t>
+          <t>06:00 PM</t>
         </is>
       </c>
       <c r="B1323" t="inlineStr">
         <is>
-          <t>Baker Hughes Oil Rig CountMAR/28</t>
+          <t>Core PCE Price Index YoYFEB</t>
         </is>
       </c>
       <c r="C1323" t="inlineStr"/>
-      <c r="D1323" t="inlineStr"/>
+      <c r="D1323" t="inlineStr">
+        <is>
+          <t>2.6%</t>
+        </is>
+      </c>
       <c r="E1323" t="inlineStr"/>
-      <c r="F1323" t="inlineStr"/>
+      <c r="F1323" t="inlineStr">
+        <is>
+          <t>2.8%</t>
+        </is>
+      </c>
       <c r="G1323" t="inlineStr">
         <is>
           <t>3</t>
@@ -36483,49 +36423,277 @@
     <row r="1324">
       <c r="A1324" t="inlineStr">
         <is>
-          <t>10:30 PM</t>
+          <t>07:30 PM</t>
         </is>
       </c>
       <c r="B1324" t="inlineStr">
         <is>
-          <t>Baker Hughes Total Rigs CountMAR/28</t>
+          <t>Michigan Consumer Sentiment FinalMAR</t>
         </is>
       </c>
       <c r="C1324" t="inlineStr"/>
-      <c r="D1324" t="inlineStr"/>
-      <c r="E1324" t="inlineStr"/>
-      <c r="F1324" t="inlineStr"/>
+      <c r="D1324" t="inlineStr">
+        <is>
+          <t>64.7</t>
+        </is>
+      </c>
+      <c r="E1324" t="inlineStr">
+        <is>
+          <t>57.9</t>
+        </is>
+      </c>
+      <c r="F1324" t="inlineStr">
+        <is>
+          <t>57.9</t>
+        </is>
+      </c>
       <c r="G1324" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="1325">
       <c r="A1325" t="inlineStr">
         <is>
-          <t>Saturday March 29 2025</t>
-        </is>
-      </c>
-      <c r="B1325" t="inlineStr"/>
+          <t>07:30 PM</t>
+        </is>
+      </c>
+      <c r="B1325" t="inlineStr">
+        <is>
+          <t>Michigan 5 Year Inflation Expectations FinalMAR</t>
+        </is>
+      </c>
       <c r="C1325" t="inlineStr"/>
-      <c r="D1325" t="inlineStr"/>
-      <c r="E1325" t="inlineStr"/>
-      <c r="F1325" t="inlineStr"/>
-      <c r="G1325" t="inlineStr"/>
+      <c r="D1325" t="inlineStr">
+        <is>
+          <t>3.5%</t>
+        </is>
+      </c>
+      <c r="E1325" t="inlineStr">
+        <is>
+          <t>3.9%</t>
+        </is>
+      </c>
+      <c r="F1325" t="inlineStr">
+        <is>
+          <t>3.9%</t>
+        </is>
+      </c>
+      <c r="G1325" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
     </row>
     <row r="1326">
       <c r="A1326" t="inlineStr">
         <is>
+          <t>07:30 PM</t>
+        </is>
+      </c>
+      <c r="B1326" t="inlineStr">
+        <is>
+          <t>Michigan Consumer Expectations FinalMAR</t>
+        </is>
+      </c>
+      <c r="C1326" t="inlineStr"/>
+      <c r="D1326" t="inlineStr">
+        <is>
+          <t>64.0</t>
+        </is>
+      </c>
+      <c r="E1326" t="inlineStr">
+        <is>
+          <t>54.2</t>
+        </is>
+      </c>
+      <c r="F1326" t="inlineStr">
+        <is>
+          <t>54.2</t>
+        </is>
+      </c>
+      <c r="G1326" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+    </row>
+    <row r="1327">
+      <c r="A1327" t="inlineStr">
+        <is>
+          <t>07:30 PM</t>
+        </is>
+      </c>
+      <c r="B1327" t="inlineStr">
+        <is>
+          <t>Michigan Current Conditions FinalMAR</t>
+        </is>
+      </c>
+      <c r="C1327" t="inlineStr"/>
+      <c r="D1327" t="inlineStr">
+        <is>
+          <t>65.7</t>
+        </is>
+      </c>
+      <c r="E1327" t="inlineStr">
+        <is>
+          <t>63.5</t>
+        </is>
+      </c>
+      <c r="F1327" t="inlineStr">
+        <is>
+          <t>63.5</t>
+        </is>
+      </c>
+      <c r="G1327" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+    </row>
+    <row r="1328">
+      <c r="A1328" t="inlineStr">
+        <is>
+          <t>07:30 PM</t>
+        </is>
+      </c>
+      <c r="B1328" t="inlineStr">
+        <is>
+          <t>Michigan Inflation Expectations FinalMAR</t>
+        </is>
+      </c>
+      <c r="C1328" t="inlineStr"/>
+      <c r="D1328" t="inlineStr">
+        <is>
+          <t>4.3%</t>
+        </is>
+      </c>
+      <c r="E1328" t="inlineStr">
+        <is>
+          <t>4.9%</t>
+        </is>
+      </c>
+      <c r="F1328" t="inlineStr">
+        <is>
+          <t>4.9%</t>
+        </is>
+      </c>
+      <c r="G1328" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+    </row>
+    <row r="1329">
+      <c r="A1329" t="inlineStr">
+        <is>
+          <t>09:45 PM</t>
+        </is>
+      </c>
+      <c r="B1329" t="inlineStr">
+        <is>
+          <t>Fed Barr Speech</t>
+        </is>
+      </c>
+      <c r="C1329" t="inlineStr"/>
+      <c r="D1329" t="inlineStr"/>
+      <c r="E1329" t="inlineStr"/>
+      <c r="F1329" t="inlineStr"/>
+      <c r="G1329" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+    </row>
+    <row r="1330">
+      <c r="A1330" t="inlineStr">
+        <is>
+          <t>10:30 PM</t>
+        </is>
+      </c>
+      <c r="B1330" t="inlineStr">
+        <is>
+          <t>Baker Hughes Oil Rig CountMAR/28</t>
+        </is>
+      </c>
+      <c r="C1330" t="inlineStr"/>
+      <c r="D1330" t="inlineStr"/>
+      <c r="E1330" t="inlineStr"/>
+      <c r="F1330" t="inlineStr"/>
+      <c r="G1330" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+    </row>
+    <row r="1331">
+      <c r="A1331" t="inlineStr">
+        <is>
+          <t>10:30 PM</t>
+        </is>
+      </c>
+      <c r="B1331" t="inlineStr">
+        <is>
+          <t>Baker Hughes Total Rigs CountMAR/28</t>
+        </is>
+      </c>
+      <c r="C1331" t="inlineStr"/>
+      <c r="D1331" t="inlineStr"/>
+      <c r="E1331" t="inlineStr"/>
+      <c r="F1331" t="inlineStr"/>
+      <c r="G1331" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+    </row>
+    <row r="1332">
+      <c r="A1332" t="inlineStr">
+        <is>
+          <t>Saturday March 29 2025</t>
+        </is>
+      </c>
+      <c r="B1332" t="inlineStr"/>
+      <c r="C1332" t="inlineStr"/>
+      <c r="D1332" t="inlineStr"/>
+      <c r="E1332" t="inlineStr"/>
+      <c r="F1332" t="inlineStr"/>
+      <c r="G1332" t="inlineStr"/>
+    </row>
+    <row r="1333">
+      <c r="A1333" t="inlineStr">
+        <is>
+          <t>01:00 AM</t>
+        </is>
+      </c>
+      <c r="B1333" t="inlineStr">
+        <is>
+          <t>Fed Bostic Speech</t>
+        </is>
+      </c>
+      <c r="C1333" t="inlineStr"/>
+      <c r="D1333" t="inlineStr"/>
+      <c r="E1333" t="inlineStr"/>
+      <c r="F1333" t="inlineStr"/>
+      <c r="G1333" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+    </row>
+    <row r="1334">
+      <c r="A1334" t="inlineStr">
+        <is>
           <t>Monday March 31 2025</t>
         </is>
       </c>
-      <c r="B1326" t="inlineStr"/>
-      <c r="C1326" t="inlineStr"/>
-      <c r="D1326" t="inlineStr"/>
-      <c r="E1326" t="inlineStr"/>
-      <c r="F1326" t="inlineStr"/>
-      <c r="G1326" t="inlineStr"/>
+      <c r="B1334" t="inlineStr"/>
+      <c r="C1334" t="inlineStr"/>
+      <c r="D1334" t="inlineStr"/>
+      <c r="E1334" t="inlineStr"/>
+      <c r="F1334" t="inlineStr"/>
+      <c r="G1334" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/Input_data/IST_US_trad_eco_cal_2024-12-28_to_2025-03-31.xlsx
+++ b/Input_data/IST_US_trad_eco_cal_2024-12-28_to_2025-03-31.xlsx
@@ -34662,7 +34662,11 @@
           <t>98.3</t>
         </is>
       </c>
-      <c r="E1257" t="inlineStr"/>
+      <c r="E1257" t="inlineStr">
+        <is>
+          <t>94</t>
+        </is>
+      </c>
       <c r="F1257" t="inlineStr">
         <is>
           <t>97.4</t>
@@ -34691,7 +34695,11 @@
           <t>0.657M</t>
         </is>
       </c>
-      <c r="E1258" t="inlineStr"/>
+      <c r="E1258" t="inlineStr">
+        <is>
+          <t>0.68M</t>
+        </is>
+      </c>
       <c r="F1258" t="inlineStr">
         <is>
           <t>0.66M</t>
@@ -35107,7 +35115,11 @@
           <t>3.1%</t>
         </is>
       </c>
-      <c r="E1274" t="inlineStr"/>
+      <c r="E1274" t="inlineStr">
+        <is>
+          <t>-0.7%</t>
+        </is>
+      </c>
       <c r="F1274" t="inlineStr"/>
       <c r="G1274" t="inlineStr">
         <is>
@@ -35214,20 +35226,16 @@
     <row r="1279">
       <c r="A1279" t="inlineStr">
         <is>
-          <t>08:00 PM</t>
+          <t>07:40 PM</t>
         </is>
       </c>
       <c r="B1279" t="inlineStr">
         <is>
-          <t>EIA Crude Oil Stocks ChangeMAR/21</t>
+          <t>Fed Musalem Speech</t>
         </is>
       </c>
       <c r="C1279" t="inlineStr"/>
-      <c r="D1279" t="inlineStr">
-        <is>
-          <t>1.745M</t>
-        </is>
-      </c>
+      <c r="D1279" t="inlineStr"/>
       <c r="E1279" t="inlineStr"/>
       <c r="F1279" t="inlineStr"/>
       <c r="G1279" t="inlineStr">
@@ -35244,13 +35252,13 @@
       </c>
       <c r="B1280" t="inlineStr">
         <is>
-          <t>EIA Gasoline Stocks ChangeMAR/21</t>
+          <t>EIA Crude Oil Stocks ChangeMAR/21</t>
         </is>
       </c>
       <c r="C1280" t="inlineStr"/>
       <c r="D1280" t="inlineStr">
         <is>
-          <t>-0.527M</t>
+          <t>1.745M</t>
         </is>
       </c>
       <c r="E1280" t="inlineStr"/>
@@ -35269,20 +35277,20 @@
       </c>
       <c r="B1281" t="inlineStr">
         <is>
-          <t>EIA Crude Oil Imports ChangeMAR/21</t>
+          <t>EIA Gasoline Stocks ChangeMAR/21</t>
         </is>
       </c>
       <c r="C1281" t="inlineStr"/>
       <c r="D1281" t="inlineStr">
         <is>
-          <t>-1.439M</t>
+          <t>-0.527M</t>
         </is>
       </c>
       <c r="E1281" t="inlineStr"/>
       <c r="F1281" t="inlineStr"/>
       <c r="G1281" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
@@ -35294,13 +35302,13 @@
       </c>
       <c r="B1282" t="inlineStr">
         <is>
-          <t>EIA Cushing Crude Oil Stocks ChangeMAR/21</t>
+          <t>EIA Crude Oil Imports ChangeMAR/21</t>
         </is>
       </c>
       <c r="C1282" t="inlineStr"/>
       <c r="D1282" t="inlineStr">
         <is>
-          <t>-1.009M</t>
+          <t>-1.439M</t>
         </is>
       </c>
       <c r="E1282" t="inlineStr"/>
@@ -35319,13 +35327,13 @@
       </c>
       <c r="B1283" t="inlineStr">
         <is>
-          <t>EIA Distillate Fuel Production ChangeMAR/21</t>
+          <t>EIA Cushing Crude Oil Stocks ChangeMAR/21</t>
         </is>
       </c>
       <c r="C1283" t="inlineStr"/>
       <c r="D1283" t="inlineStr">
         <is>
-          <t>0.151M</t>
+          <t>-1.009M</t>
         </is>
       </c>
       <c r="E1283" t="inlineStr"/>
@@ -35344,13 +35352,13 @@
       </c>
       <c r="B1284" t="inlineStr">
         <is>
-          <t>EIA Distillate Stocks ChangeMAR/21</t>
+          <t>EIA Distillate Fuel Production ChangeMAR/21</t>
         </is>
       </c>
       <c r="C1284" t="inlineStr"/>
       <c r="D1284" t="inlineStr">
         <is>
-          <t>-2.812M</t>
+          <t>0.151M</t>
         </is>
       </c>
       <c r="E1284" t="inlineStr"/>
@@ -35369,13 +35377,13 @@
       </c>
       <c r="B1285" t="inlineStr">
         <is>
-          <t>EIA Gasoline Production ChangeMAR/21</t>
+          <t>EIA Distillate Stocks ChangeMAR/21</t>
         </is>
       </c>
       <c r="C1285" t="inlineStr"/>
       <c r="D1285" t="inlineStr">
         <is>
-          <t>0.067M</t>
+          <t>-2.812M</t>
         </is>
       </c>
       <c r="E1285" t="inlineStr"/>
@@ -35394,13 +35402,13 @@
       </c>
       <c r="B1286" t="inlineStr">
         <is>
-          <t>EIA Heating Oil Stocks ChangeMAR/21</t>
+          <t>EIA Gasoline Production ChangeMAR/21</t>
         </is>
       </c>
       <c r="C1286" t="inlineStr"/>
       <c r="D1286" t="inlineStr">
         <is>
-          <t>0.008M</t>
+          <t>0.067M</t>
         </is>
       </c>
       <c r="E1286" t="inlineStr"/>
@@ -35419,13 +35427,13 @@
       </c>
       <c r="B1287" t="inlineStr">
         <is>
-          <t>EIA Refinery Crude Runs ChangeMAR/21</t>
+          <t>EIA Heating Oil Stocks ChangeMAR/21</t>
         </is>
       </c>
       <c r="C1287" t="inlineStr"/>
       <c r="D1287" t="inlineStr">
         <is>
-          <t>-0.045M</t>
+          <t>0.008M</t>
         </is>
       </c>
       <c r="E1287" t="inlineStr"/>
@@ -35439,18 +35447,18 @@
     <row r="1288">
       <c r="A1288" t="inlineStr">
         <is>
-          <t>10:30 PM</t>
+          <t>08:00 PM</t>
         </is>
       </c>
       <c r="B1288" t="inlineStr">
         <is>
-          <t>2-Year FRN Auction</t>
+          <t>EIA Refinery Crude Runs ChangeMAR/21</t>
         </is>
       </c>
       <c r="C1288" t="inlineStr"/>
       <c r="D1288" t="inlineStr">
         <is>
-          <t>0.090%</t>
+          <t>-0.045M</t>
         </is>
       </c>
       <c r="E1288" t="inlineStr"/>
@@ -35469,13 +35477,13 @@
       </c>
       <c r="B1289" t="inlineStr">
         <is>
-          <t>5-Year Note Auction</t>
+          <t>2-Year FRN Auction</t>
         </is>
       </c>
       <c r="C1289" t="inlineStr"/>
       <c r="D1289" t="inlineStr">
         <is>
-          <t>4.123%</t>
+          <t>0.090%</t>
         </is>
       </c>
       <c r="E1289" t="inlineStr"/>
@@ -35489,21 +35497,25 @@
     <row r="1290">
       <c r="A1290" t="inlineStr">
         <is>
-          <t>10:40 PM</t>
+          <t>10:30 PM</t>
         </is>
       </c>
       <c r="B1290" t="inlineStr">
         <is>
-          <t>Fed Musalem Speech</t>
+          <t>5-Year Note Auction</t>
         </is>
       </c>
       <c r="C1290" t="inlineStr"/>
-      <c r="D1290" t="inlineStr"/>
+      <c r="D1290" t="inlineStr">
+        <is>
+          <t>4.123%</t>
+        </is>
+      </c>
       <c r="E1290" t="inlineStr"/>
       <c r="F1290" t="inlineStr"/>
       <c r="G1290" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>

--- a/Input_data/IST_US_trad_eco_cal_2024-12-28_to_2025-03-31.xlsx
+++ b/Input_data/IST_US_trad_eco_cal_2024-12-28_to_2025-03-31.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G1334"/>
+  <dimension ref="A1:G1335"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -34308,7 +34308,11 @@
           <t>52.7</t>
         </is>
       </c>
-      <c r="E1243" t="inlineStr"/>
+      <c r="E1243" t="inlineStr">
+        <is>
+          <t>51.9</t>
+        </is>
+      </c>
       <c r="F1243" t="inlineStr">
         <is>
           <t>51</t>
@@ -34337,7 +34341,11 @@
           <t>51</t>
         </is>
       </c>
-      <c r="E1244" t="inlineStr"/>
+      <c r="E1244" t="inlineStr">
+        <is>
+          <t>51.2</t>
+        </is>
+      </c>
       <c r="F1244" t="inlineStr">
         <is>
           <t>49.5</t>
@@ -34517,7 +34525,11 @@
           <t>4.5%</t>
         </is>
       </c>
-      <c r="E1252" t="inlineStr"/>
+      <c r="E1252" t="inlineStr">
+        <is>
+          <t>4.6%</t>
+        </is>
+      </c>
       <c r="F1252" t="inlineStr">
         <is>
           <t>4.2%</t>
@@ -34633,7 +34645,11 @@
           <t>-0.1%</t>
         </is>
       </c>
-      <c r="E1256" t="inlineStr"/>
+      <c r="E1256" t="inlineStr">
+        <is>
+          <t>0.2%</t>
+        </is>
+      </c>
       <c r="F1256" t="inlineStr">
         <is>
           <t>-0.4%</t>
@@ -34757,7 +34773,11 @@
           <t>6</t>
         </is>
       </c>
-      <c r="E1260" t="inlineStr"/>
+      <c r="E1260" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
       <c r="F1260" t="inlineStr">
         <is>
           <t>-3</t>
@@ -35644,7 +35664,11 @@
           <t>$-153.26B</t>
         </is>
       </c>
-      <c r="E1295" t="inlineStr"/>
+      <c r="E1295" t="inlineStr">
+        <is>
+          <t>$-134.6B</t>
+        </is>
+      </c>
       <c r="F1295" t="inlineStr">
         <is>
           <t>$-149.0B</t>
@@ -35673,7 +35697,11 @@
           <t>223K</t>
         </is>
       </c>
-      <c r="E1296" t="inlineStr"/>
+      <c r="E1296" t="inlineStr">
+        <is>
+          <t>225K</t>
+        </is>
+      </c>
       <c r="F1296" t="inlineStr">
         <is>
           <t>225.0K</t>
@@ -35731,7 +35759,11 @@
           <t>0.8%</t>
         </is>
       </c>
-      <c r="E1298" t="inlineStr"/>
+      <c r="E1298" t="inlineStr">
+        <is>
+          <t>0.4%</t>
+        </is>
+      </c>
       <c r="F1298" t="inlineStr">
         <is>
           <t>0.6%</t>
@@ -36275,7 +36307,11 @@
           <t>0.3%</t>
         </is>
       </c>
-      <c r="E1318" t="inlineStr"/>
+      <c r="E1318" t="inlineStr">
+        <is>
+          <t>0.3%</t>
+        </is>
+      </c>
       <c r="F1318" t="inlineStr">
         <is>
           <t>0.4%</t>
@@ -36304,7 +36340,11 @@
           <t>0.9%</t>
         </is>
       </c>
-      <c r="E1319" t="inlineStr"/>
+      <c r="E1319" t="inlineStr">
+        <is>
+          <t>0.4%</t>
+        </is>
+      </c>
       <c r="F1319" t="inlineStr">
         <is>
           <t>0.3%</t>
@@ -36333,7 +36373,11 @@
           <t>-0.2%</t>
         </is>
       </c>
-      <c r="E1320" t="inlineStr"/>
+      <c r="E1320" t="inlineStr">
+        <is>
+          <t>0.6%</t>
+        </is>
+      </c>
       <c r="F1320" t="inlineStr">
         <is>
           <t>0.1%</t>
@@ -36707,6 +36751,35 @@
       <c r="F1334" t="inlineStr"/>
       <c r="G1334" t="inlineStr"/>
     </row>
+    <row r="1335">
+      <c r="A1335" t="inlineStr">
+        <is>
+          <t>07:15 PM</t>
+        </is>
+      </c>
+      <c r="B1335" t="inlineStr">
+        <is>
+          <t>Chicago PMIMAR</t>
+        </is>
+      </c>
+      <c r="C1335" t="inlineStr"/>
+      <c r="D1335" t="inlineStr">
+        <is>
+          <t>45.5</t>
+        </is>
+      </c>
+      <c r="E1335" t="inlineStr"/>
+      <c r="F1335" t="inlineStr">
+        <is>
+          <t>43</t>
+        </is>
+      </c>
+      <c r="G1335" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Input_data/IST_US_trad_eco_cal_2024-12-28_to_2025-03-31.xlsx
+++ b/Input_data/IST_US_trad_eco_cal_2024-12-28_to_2025-03-31.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G1335"/>
+  <dimension ref="A1:G1336"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -34282,7 +34282,7 @@
       <c r="E1242" t="inlineStr"/>
       <c r="F1242" t="inlineStr">
         <is>
-          <t>50.2</t>
+          <t>51.5</t>
         </is>
       </c>
       <c r="G1242" t="inlineStr">
@@ -34315,7 +34315,7 @@
       </c>
       <c r="F1243" t="inlineStr">
         <is>
-          <t>51</t>
+          <t>52.1</t>
         </is>
       </c>
       <c r="G1243" t="inlineStr">
@@ -34348,7 +34348,7 @@
       </c>
       <c r="F1244" t="inlineStr">
         <is>
-          <t>49.5</t>
+          <t>51.1</t>
         </is>
       </c>
       <c r="G1244" t="inlineStr">
@@ -34532,7 +34532,7 @@
       </c>
       <c r="F1252" t="inlineStr">
         <is>
-          <t>4.2%</t>
+          <t>4.5%</t>
         </is>
       </c>
       <c r="G1252" t="inlineStr">
@@ -34652,7 +34652,7 @@
       </c>
       <c r="F1256" t="inlineStr">
         <is>
-          <t>-0.4%</t>
+          <t>0.1%</t>
         </is>
       </c>
       <c r="G1256" t="inlineStr">
@@ -34685,7 +34685,7 @@
       </c>
       <c r="F1257" t="inlineStr">
         <is>
-          <t>97.4</t>
+          <t>94.4</t>
         </is>
       </c>
       <c r="G1257" t="inlineStr">
@@ -34780,7 +34780,7 @@
       </c>
       <c r="F1260" t="inlineStr">
         <is>
-          <t>-3</t>
+          <t>5</t>
         </is>
       </c>
       <c r="G1260" t="inlineStr">
@@ -35140,7 +35140,11 @@
           <t>-0.7%</t>
         </is>
       </c>
-      <c r="F1274" t="inlineStr"/>
+      <c r="F1274" t="inlineStr">
+        <is>
+          <t>-1.2%</t>
+        </is>
+      </c>
       <c r="G1274" t="inlineStr">
         <is>
           <t>1</t>
@@ -35165,7 +35169,11 @@
         </is>
       </c>
       <c r="E1275" t="inlineStr"/>
-      <c r="F1275" t="inlineStr"/>
+      <c r="F1275" t="inlineStr">
+        <is>
+          <t>-0.2%</t>
+        </is>
+      </c>
       <c r="G1275" t="inlineStr">
         <is>
           <t>2</t>
@@ -35190,7 +35198,11 @@
         </is>
       </c>
       <c r="E1276" t="inlineStr"/>
-      <c r="F1276" t="inlineStr"/>
+      <c r="F1276" t="inlineStr">
+        <is>
+          <t>-1.6%</t>
+        </is>
+      </c>
       <c r="G1276" t="inlineStr">
         <is>
           <t>3</t>
@@ -35215,7 +35227,11 @@
         </is>
       </c>
       <c r="E1277" t="inlineStr"/>
-      <c r="F1277" t="inlineStr"/>
+      <c r="F1277" t="inlineStr">
+        <is>
+          <t>0.2%</t>
+        </is>
+      </c>
       <c r="G1277" t="inlineStr">
         <is>
           <t>3</t>
@@ -35671,7 +35687,7 @@
       </c>
       <c r="F1295" t="inlineStr">
         <is>
-          <t>$-149.0B</t>
+          <t>$-136.0B</t>
         </is>
       </c>
       <c r="G1295" t="inlineStr">
@@ -36380,7 +36396,7 @@
       </c>
       <c r="F1320" t="inlineStr">
         <is>
-          <t>0.1%</t>
+          <t>0.5%</t>
         </is>
       </c>
       <c r="G1320" t="inlineStr">
@@ -36406,10 +36422,14 @@
           <t>0.3%</t>
         </is>
       </c>
-      <c r="E1321" t="inlineStr"/>
+      <c r="E1321" t="inlineStr">
+        <is>
+          <t>0.3%</t>
+        </is>
+      </c>
       <c r="F1321" t="inlineStr">
         <is>
-          <t>0.5%</t>
+          <t>0.4%</t>
         </is>
       </c>
       <c r="G1321" t="inlineStr">
@@ -36780,6 +36800,35 @@
         </is>
       </c>
     </row>
+    <row r="1336">
+      <c r="A1336" t="inlineStr">
+        <is>
+          <t>08:00 PM</t>
+        </is>
+      </c>
+      <c r="B1336" t="inlineStr">
+        <is>
+          <t>Dallas Fed Manufacturing IndexMAR</t>
+        </is>
+      </c>
+      <c r="C1336" t="inlineStr"/>
+      <c r="D1336" t="inlineStr">
+        <is>
+          <t>-8.3</t>
+        </is>
+      </c>
+      <c r="E1336" t="inlineStr"/>
+      <c r="F1336" t="inlineStr">
+        <is>
+          <t>-12</t>
+        </is>
+      </c>
+      <c r="G1336" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Input_data/IST_US_trad_eco_cal_2024-12-28_to_2025-03-31.xlsx
+++ b/Input_data/IST_US_trad_eco_cal_2024-12-28_to_2025-03-31.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G1336"/>
+  <dimension ref="A1:G1347"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -34850,18 +34850,18 @@
     <row r="1263">
       <c r="A1263" t="inlineStr">
         <is>
-          <t>10:30 PM</t>
+          <t>09:00 PM</t>
         </is>
       </c>
       <c r="B1263" t="inlineStr">
         <is>
-          <t>2-Year Note Auction</t>
+          <t>6-Week Bill Auction</t>
         </is>
       </c>
       <c r="C1263" t="inlineStr"/>
       <c r="D1263" t="inlineStr">
         <is>
-          <t>4.169%</t>
+          <t>4.235%</t>
         </is>
       </c>
       <c r="E1263" t="inlineStr"/>
@@ -34880,13 +34880,13 @@
       </c>
       <c r="B1264" t="inlineStr">
         <is>
-          <t>Money SupplyFEB</t>
+          <t>2-Year Note Auction</t>
         </is>
       </c>
       <c r="C1264" t="inlineStr"/>
       <c r="D1264" t="inlineStr">
         <is>
-          <t>$21.56T</t>
+          <t>4.169%</t>
         </is>
       </c>
       <c r="E1264" t="inlineStr"/>
@@ -34898,28 +34898,24 @@
       </c>
     </row>
     <row r="1265">
-      <c r="A1265" t="inlineStr"/>
+      <c r="A1265" t="inlineStr">
+        <is>
+          <t>10:30 PM</t>
+        </is>
+      </c>
       <c r="B1265" t="inlineStr">
         <is>
-          <t>Building Permits FinalFEB</t>
+          <t>Money SupplyFEB</t>
         </is>
       </c>
       <c r="C1265" t="inlineStr"/>
       <c r="D1265" t="inlineStr">
         <is>
-          <t>1.473M</t>
-        </is>
-      </c>
-      <c r="E1265" t="inlineStr">
-        <is>
-          <t>1.456M</t>
-        </is>
-      </c>
-      <c r="F1265" t="inlineStr">
-        <is>
-          <t>1.456M</t>
-        </is>
-      </c>
+          <t>$21.56T</t>
+        </is>
+      </c>
+      <c r="E1265" t="inlineStr"/>
+      <c r="F1265" t="inlineStr"/>
       <c r="G1265" t="inlineStr">
         <is>
           <t>3</t>
@@ -34930,84 +34926,88 @@
       <c r="A1266" t="inlineStr"/>
       <c r="B1266" t="inlineStr">
         <is>
-          <t>Building Permits MoM FinalFEB</t>
+          <t>Building Permits FinalFEB</t>
         </is>
       </c>
       <c r="C1266" t="inlineStr"/>
       <c r="D1266" t="inlineStr">
         <is>
+          <t>1.473M</t>
+        </is>
+      </c>
+      <c r="E1266" t="inlineStr">
+        <is>
+          <t>1.456M</t>
+        </is>
+      </c>
+      <c r="F1266" t="inlineStr">
+        <is>
+          <t>1.456M</t>
+        </is>
+      </c>
+      <c r="G1266" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+    </row>
+    <row r="1267">
+      <c r="A1267" t="inlineStr"/>
+      <c r="B1267" t="inlineStr">
+        <is>
+          <t>Building Permits MoM FinalFEB</t>
+        </is>
+      </c>
+      <c r="C1267" t="inlineStr"/>
+      <c r="D1267" t="inlineStr">
+        <is>
           <t>-0.6%</t>
         </is>
       </c>
-      <c r="E1266" t="inlineStr">
+      <c r="E1267" t="inlineStr">
         <is>
           <t>-1.2%</t>
         </is>
       </c>
-      <c r="F1266" t="inlineStr">
+      <c r="F1267" t="inlineStr">
         <is>
           <t>-1.2%</t>
         </is>
       </c>
-      <c r="G1266" t="inlineStr">
+      <c r="G1267" t="inlineStr">
         <is>
           <t>3</t>
         </is>
       </c>
-    </row>
-    <row r="1267">
-      <c r="A1267" t="inlineStr">
-        <is>
-          <t>Wednesday March 26 2025</t>
-        </is>
-      </c>
-      <c r="B1267" t="inlineStr"/>
-      <c r="C1267" t="inlineStr"/>
-      <c r="D1267" t="inlineStr"/>
-      <c r="E1267" t="inlineStr"/>
-      <c r="F1267" t="inlineStr"/>
-      <c r="G1267" t="inlineStr"/>
     </row>
     <row r="1268">
       <c r="A1268" t="inlineStr">
         <is>
-          <t>02:00 AM</t>
-        </is>
-      </c>
-      <c r="B1268" t="inlineStr">
-        <is>
-          <t>API Crude Oil Stock ChangeMAR/21</t>
-        </is>
-      </c>
+          <t>Wednesday March 26 2025</t>
+        </is>
+      </c>
+      <c r="B1268" t="inlineStr"/>
       <c r="C1268" t="inlineStr"/>
-      <c r="D1268" t="inlineStr">
-        <is>
-          <t>4.593M</t>
-        </is>
-      </c>
+      <c r="D1268" t="inlineStr"/>
       <c r="E1268" t="inlineStr"/>
       <c r="F1268" t="inlineStr"/>
-      <c r="G1268" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
+      <c r="G1268" t="inlineStr"/>
     </row>
     <row r="1269">
       <c r="A1269" t="inlineStr">
         <is>
-          <t>04:30 PM</t>
+          <t>02:00 AM</t>
         </is>
       </c>
       <c r="B1269" t="inlineStr">
         <is>
-          <t>MBA 30-Year Mortgage RateMAR/21</t>
+          <t>API Crude Oil Stock ChangeMAR/21</t>
         </is>
       </c>
       <c r="C1269" t="inlineStr"/>
       <c r="D1269" t="inlineStr">
         <is>
-          <t>6.72%</t>
+          <t>4.593M</t>
         </is>
       </c>
       <c r="E1269" t="inlineStr"/>
@@ -35026,20 +35026,20 @@
       </c>
       <c r="B1270" t="inlineStr">
         <is>
-          <t>MBA Mortgage ApplicationsMAR/21</t>
+          <t>MBA 30-Year Mortgage RateMAR/21</t>
         </is>
       </c>
       <c r="C1270" t="inlineStr"/>
       <c r="D1270" t="inlineStr">
         <is>
-          <t>-6.2%</t>
+          <t>6.72%</t>
         </is>
       </c>
       <c r="E1270" t="inlineStr"/>
       <c r="F1270" t="inlineStr"/>
       <c r="G1270" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
@@ -35051,13 +35051,13 @@
       </c>
       <c r="B1271" t="inlineStr">
         <is>
-          <t>MBA Mortgage Market IndexMAR/21</t>
+          <t>MBA Mortgage ApplicationsMAR/21</t>
         </is>
       </c>
       <c r="C1271" t="inlineStr"/>
       <c r="D1271" t="inlineStr">
         <is>
-          <t>252.5</t>
+          <t>-6.2%</t>
         </is>
       </c>
       <c r="E1271" t="inlineStr"/>
@@ -35076,13 +35076,13 @@
       </c>
       <c r="B1272" t="inlineStr">
         <is>
-          <t>MBA Mortgage Refinance IndexMAR/21</t>
+          <t>MBA Mortgage Market IndexMAR/21</t>
         </is>
       </c>
       <c r="C1272" t="inlineStr"/>
       <c r="D1272" t="inlineStr">
         <is>
-          <t>794.4</t>
+          <t>252.5</t>
         </is>
       </c>
       <c r="E1272" t="inlineStr"/>
@@ -35101,13 +35101,13 @@
       </c>
       <c r="B1273" t="inlineStr">
         <is>
-          <t>MBA Purchase IndexMAR/21</t>
+          <t>MBA Mortgage Refinance IndexMAR/21</t>
         </is>
       </c>
       <c r="C1273" t="inlineStr"/>
       <c r="D1273" t="inlineStr">
         <is>
-          <t>154.7</t>
+          <t>794.4</t>
         </is>
       </c>
       <c r="E1273" t="inlineStr"/>
@@ -35121,33 +35121,25 @@
     <row r="1274">
       <c r="A1274" t="inlineStr">
         <is>
-          <t>06:00 PM</t>
+          <t>04:30 PM</t>
         </is>
       </c>
       <c r="B1274" t="inlineStr">
         <is>
-          <t>Durable Goods Orders MoMFEB</t>
+          <t>MBA Purchase IndexMAR/21</t>
         </is>
       </c>
       <c r="C1274" t="inlineStr"/>
       <c r="D1274" t="inlineStr">
         <is>
-          <t>3.1%</t>
-        </is>
-      </c>
-      <c r="E1274" t="inlineStr">
-        <is>
-          <t>-0.7%</t>
-        </is>
-      </c>
-      <c r="F1274" t="inlineStr">
-        <is>
-          <t>-1.2%</t>
-        </is>
-      </c>
+          <t>154.7</t>
+        </is>
+      </c>
+      <c r="E1274" t="inlineStr"/>
+      <c r="F1274" t="inlineStr"/>
       <c r="G1274" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
     </row>
@@ -35159,24 +35151,28 @@
       </c>
       <c r="B1275" t="inlineStr">
         <is>
-          <t>Durable Goods Orders Ex Transp MoMFEB</t>
+          <t>Durable Goods Orders MoMFEB</t>
         </is>
       </c>
       <c r="C1275" t="inlineStr"/>
       <c r="D1275" t="inlineStr">
         <is>
-          <t>0%</t>
-        </is>
-      </c>
-      <c r="E1275" t="inlineStr"/>
+          <t>3.1%</t>
+        </is>
+      </c>
+      <c r="E1275" t="inlineStr">
+        <is>
+          <t>-0.7%</t>
+        </is>
+      </c>
       <c r="F1275" t="inlineStr">
         <is>
-          <t>-0.2%</t>
+          <t>-1.2%</t>
         </is>
       </c>
       <c r="G1275" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
     </row>
@@ -35188,24 +35184,24 @@
       </c>
       <c r="B1276" t="inlineStr">
         <is>
-          <t>Durable Goods Orders ex Defense MoMFEB</t>
+          <t>Durable Goods Orders Ex Transp MoMFEB</t>
         </is>
       </c>
       <c r="C1276" t="inlineStr"/>
       <c r="D1276" t="inlineStr">
         <is>
-          <t>3.5%</t>
+          <t>0%</t>
         </is>
       </c>
       <c r="E1276" t="inlineStr"/>
       <c r="F1276" t="inlineStr">
         <is>
-          <t>-1.6%</t>
+          <t>-0.2%</t>
         </is>
       </c>
       <c r="G1276" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
@@ -35217,19 +35213,19 @@
       </c>
       <c r="B1277" t="inlineStr">
         <is>
-          <t>Non Defense Goods Orders Ex AirFEB</t>
+          <t>Durable Goods Orders ex Defense MoMFEB</t>
         </is>
       </c>
       <c r="C1277" t="inlineStr"/>
       <c r="D1277" t="inlineStr">
         <is>
-          <t>0.8%</t>
+          <t>3.5%</t>
         </is>
       </c>
       <c r="E1277" t="inlineStr"/>
       <c r="F1277" t="inlineStr">
         <is>
-          <t>0.2%</t>
+          <t>-1.6%</t>
         </is>
       </c>
       <c r="G1277" t="inlineStr">
@@ -35241,33 +35237,41 @@
     <row r="1278">
       <c r="A1278" t="inlineStr">
         <is>
-          <t>07:30 PM</t>
+          <t>06:00 PM</t>
         </is>
       </c>
       <c r="B1278" t="inlineStr">
         <is>
-          <t>Fed Kashkari Speech</t>
+          <t>Non Defense Goods Orders Ex AirFEB</t>
         </is>
       </c>
       <c r="C1278" t="inlineStr"/>
-      <c r="D1278" t="inlineStr"/>
+      <c r="D1278" t="inlineStr">
+        <is>
+          <t>0.8%</t>
+        </is>
+      </c>
       <c r="E1278" t="inlineStr"/>
-      <c r="F1278" t="inlineStr"/>
+      <c r="F1278" t="inlineStr">
+        <is>
+          <t>0.2%</t>
+        </is>
+      </c>
       <c r="G1278" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1279">
       <c r="A1279" t="inlineStr">
         <is>
-          <t>07:40 PM</t>
+          <t>07:30 PM</t>
         </is>
       </c>
       <c r="B1279" t="inlineStr">
         <is>
-          <t>Fed Musalem Speech</t>
+          <t>Fed Kashkari Speech</t>
         </is>
       </c>
       <c r="C1279" t="inlineStr"/>
@@ -35283,20 +35287,16 @@
     <row r="1280">
       <c r="A1280" t="inlineStr">
         <is>
-          <t>08:00 PM</t>
+          <t>07:40 PM</t>
         </is>
       </c>
       <c r="B1280" t="inlineStr">
         <is>
-          <t>EIA Crude Oil Stocks ChangeMAR/21</t>
+          <t>Fed Musalem Speech</t>
         </is>
       </c>
       <c r="C1280" t="inlineStr"/>
-      <c r="D1280" t="inlineStr">
-        <is>
-          <t>1.745M</t>
-        </is>
-      </c>
+      <c r="D1280" t="inlineStr"/>
       <c r="E1280" t="inlineStr"/>
       <c r="F1280" t="inlineStr"/>
       <c r="G1280" t="inlineStr">
@@ -35313,13 +35313,13 @@
       </c>
       <c r="B1281" t="inlineStr">
         <is>
-          <t>EIA Gasoline Stocks ChangeMAR/21</t>
+          <t>EIA Crude Oil Stocks ChangeMAR/21</t>
         </is>
       </c>
       <c r="C1281" t="inlineStr"/>
       <c r="D1281" t="inlineStr">
         <is>
-          <t>-0.527M</t>
+          <t>1.745M</t>
         </is>
       </c>
       <c r="E1281" t="inlineStr"/>
@@ -35338,20 +35338,20 @@
       </c>
       <c r="B1282" t="inlineStr">
         <is>
-          <t>EIA Crude Oil Imports ChangeMAR/21</t>
+          <t>EIA Gasoline Stocks ChangeMAR/21</t>
         </is>
       </c>
       <c r="C1282" t="inlineStr"/>
       <c r="D1282" t="inlineStr">
         <is>
-          <t>-1.439M</t>
+          <t>-0.527M</t>
         </is>
       </c>
       <c r="E1282" t="inlineStr"/>
       <c r="F1282" t="inlineStr"/>
       <c r="G1282" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
@@ -35363,13 +35363,13 @@
       </c>
       <c r="B1283" t="inlineStr">
         <is>
-          <t>EIA Cushing Crude Oil Stocks ChangeMAR/21</t>
+          <t>EIA Crude Oil Imports ChangeMAR/21</t>
         </is>
       </c>
       <c r="C1283" t="inlineStr"/>
       <c r="D1283" t="inlineStr">
         <is>
-          <t>-1.009M</t>
+          <t>-1.439M</t>
         </is>
       </c>
       <c r="E1283" t="inlineStr"/>
@@ -35388,13 +35388,13 @@
       </c>
       <c r="B1284" t="inlineStr">
         <is>
-          <t>EIA Distillate Fuel Production ChangeMAR/21</t>
+          <t>EIA Cushing Crude Oil Stocks ChangeMAR/21</t>
         </is>
       </c>
       <c r="C1284" t="inlineStr"/>
       <c r="D1284" t="inlineStr">
         <is>
-          <t>0.151M</t>
+          <t>-1.009M</t>
         </is>
       </c>
       <c r="E1284" t="inlineStr"/>
@@ -35413,13 +35413,13 @@
       </c>
       <c r="B1285" t="inlineStr">
         <is>
-          <t>EIA Distillate Stocks ChangeMAR/21</t>
+          <t>EIA Distillate Fuel Production ChangeMAR/21</t>
         </is>
       </c>
       <c r="C1285" t="inlineStr"/>
       <c r="D1285" t="inlineStr">
         <is>
-          <t>-2.812M</t>
+          <t>0.151M</t>
         </is>
       </c>
       <c r="E1285" t="inlineStr"/>
@@ -35438,13 +35438,13 @@
       </c>
       <c r="B1286" t="inlineStr">
         <is>
-          <t>EIA Gasoline Production ChangeMAR/21</t>
+          <t>EIA Distillate Stocks ChangeMAR/21</t>
         </is>
       </c>
       <c r="C1286" t="inlineStr"/>
       <c r="D1286" t="inlineStr">
         <is>
-          <t>0.067M</t>
+          <t>-2.812M</t>
         </is>
       </c>
       <c r="E1286" t="inlineStr"/>
@@ -35463,13 +35463,13 @@
       </c>
       <c r="B1287" t="inlineStr">
         <is>
-          <t>EIA Heating Oil Stocks ChangeMAR/21</t>
+          <t>EIA Gasoline Production ChangeMAR/21</t>
         </is>
       </c>
       <c r="C1287" t="inlineStr"/>
       <c r="D1287" t="inlineStr">
         <is>
-          <t>0.008M</t>
+          <t>0.067M</t>
         </is>
       </c>
       <c r="E1287" t="inlineStr"/>
@@ -35488,13 +35488,13 @@
       </c>
       <c r="B1288" t="inlineStr">
         <is>
-          <t>EIA Refinery Crude Runs ChangeMAR/21</t>
+          <t>EIA Heating Oil Stocks ChangeMAR/21</t>
         </is>
       </c>
       <c r="C1288" t="inlineStr"/>
       <c r="D1288" t="inlineStr">
         <is>
-          <t>-0.045M</t>
+          <t>0.008M</t>
         </is>
       </c>
       <c r="E1288" t="inlineStr"/>
@@ -35508,18 +35508,18 @@
     <row r="1289">
       <c r="A1289" t="inlineStr">
         <is>
-          <t>10:30 PM</t>
+          <t>08:00 PM</t>
         </is>
       </c>
       <c r="B1289" t="inlineStr">
         <is>
-          <t>2-Year FRN Auction</t>
+          <t>EIA Refinery Crude Runs ChangeMAR/21</t>
         </is>
       </c>
       <c r="C1289" t="inlineStr"/>
       <c r="D1289" t="inlineStr">
         <is>
-          <t>0.090%</t>
+          <t>-0.045M</t>
         </is>
       </c>
       <c r="E1289" t="inlineStr"/>
@@ -35533,18 +35533,18 @@
     <row r="1290">
       <c r="A1290" t="inlineStr">
         <is>
-          <t>10:30 PM</t>
+          <t>09:00 PM</t>
         </is>
       </c>
       <c r="B1290" t="inlineStr">
         <is>
-          <t>5-Year Note Auction</t>
+          <t>17-Week Bill Auction</t>
         </is>
       </c>
       <c r="C1290" t="inlineStr"/>
       <c r="D1290" t="inlineStr">
         <is>
-          <t>4.123%</t>
+          <t>4.195%</t>
         </is>
       </c>
       <c r="E1290" t="inlineStr"/>
@@ -35558,77 +35558,65 @@
     <row r="1291">
       <c r="A1291" t="inlineStr">
         <is>
-          <t>Thursday March 27 2025</t>
-        </is>
-      </c>
-      <c r="B1291" t="inlineStr"/>
+          <t>09:00 PM</t>
+        </is>
+      </c>
+      <c r="B1291" t="inlineStr">
+        <is>
+          <t>2-Year FRN Auction</t>
+        </is>
+      </c>
       <c r="C1291" t="inlineStr"/>
-      <c r="D1291" t="inlineStr"/>
+      <c r="D1291" t="inlineStr">
+        <is>
+          <t>0.090%</t>
+        </is>
+      </c>
       <c r="E1291" t="inlineStr"/>
       <c r="F1291" t="inlineStr"/>
-      <c r="G1291" t="inlineStr"/>
+      <c r="G1291" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
     </row>
     <row r="1292">
       <c r="A1292" t="inlineStr">
         <is>
-          <t>06:00 PM</t>
+          <t>10:30 PM</t>
         </is>
       </c>
       <c r="B1292" t="inlineStr">
         <is>
-          <t>GDP Growth Rate QoQ FinalQ4</t>
+          <t>5-Year Note Auction</t>
         </is>
       </c>
       <c r="C1292" t="inlineStr"/>
       <c r="D1292" t="inlineStr">
         <is>
-          <t>3.1%</t>
-        </is>
-      </c>
-      <c r="E1292" t="inlineStr">
-        <is>
-          <t>2.3%</t>
-        </is>
-      </c>
-      <c r="F1292" t="inlineStr">
-        <is>
-          <t>2.3%</t>
-        </is>
-      </c>
+          <t>4.123%</t>
+        </is>
+      </c>
+      <c r="E1292" t="inlineStr"/>
+      <c r="F1292" t="inlineStr"/>
       <c r="G1292" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1293">
       <c r="A1293" t="inlineStr">
         <is>
-          <t>06:00 PM</t>
-        </is>
-      </c>
-      <c r="B1293" t="inlineStr">
-        <is>
-          <t>Corporate Profits QoQQ4</t>
-        </is>
-      </c>
+          <t>Thursday March 27 2025</t>
+        </is>
+      </c>
+      <c r="B1293" t="inlineStr"/>
       <c r="C1293" t="inlineStr"/>
-      <c r="D1293" t="inlineStr">
-        <is>
-          <t>-0.4%</t>
-        </is>
-      </c>
+      <c r="D1293" t="inlineStr"/>
       <c r="E1293" t="inlineStr"/>
-      <c r="F1293" t="inlineStr">
-        <is>
-          <t>-0.9%</t>
-        </is>
-      </c>
-      <c r="G1293" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
+      <c r="F1293" t="inlineStr"/>
+      <c r="G1293" t="inlineStr"/>
     </row>
     <row r="1294">
       <c r="A1294" t="inlineStr">
@@ -35638,28 +35626,28 @@
       </c>
       <c r="B1294" t="inlineStr">
         <is>
-          <t>GDP Price Index QoQ FinalQ4</t>
+          <t>GDP Growth Rate QoQ FinalQ4</t>
         </is>
       </c>
       <c r="C1294" t="inlineStr"/>
       <c r="D1294" t="inlineStr">
         <is>
-          <t>1.9%</t>
+          <t>3.1%</t>
         </is>
       </c>
       <c r="E1294" t="inlineStr">
         <is>
-          <t>2.4%</t>
+          <t>2.3%</t>
         </is>
       </c>
       <c r="F1294" t="inlineStr">
         <is>
-          <t>2.4%</t>
+          <t>2.3%</t>
         </is>
       </c>
       <c r="G1294" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
     </row>
@@ -35671,23 +35659,19 @@
       </c>
       <c r="B1295" t="inlineStr">
         <is>
-          <t>Goods Trade Balance AdvFEB</t>
+          <t>Corporate Profits QoQQ4</t>
         </is>
       </c>
       <c r="C1295" t="inlineStr"/>
       <c r="D1295" t="inlineStr">
         <is>
-          <t>$-153.26B</t>
-        </is>
-      </c>
-      <c r="E1295" t="inlineStr">
-        <is>
-          <t>$-134.6B</t>
-        </is>
-      </c>
+          <t>-0.4%</t>
+        </is>
+      </c>
+      <c r="E1295" t="inlineStr"/>
       <c r="F1295" t="inlineStr">
         <is>
-          <t>$-136.0B</t>
+          <t>-0.9%</t>
         </is>
       </c>
       <c r="G1295" t="inlineStr">
@@ -35704,23 +35688,23 @@
       </c>
       <c r="B1296" t="inlineStr">
         <is>
-          <t>Initial Jobless ClaimsMAR/22</t>
+          <t>GDP Price Index QoQ FinalQ4</t>
         </is>
       </c>
       <c r="C1296" t="inlineStr"/>
       <c r="D1296" t="inlineStr">
         <is>
-          <t>223K</t>
+          <t>1.9%</t>
         </is>
       </c>
       <c r="E1296" t="inlineStr">
         <is>
-          <t>225K</t>
+          <t>2.4%</t>
         </is>
       </c>
       <c r="F1296" t="inlineStr">
         <is>
-          <t>225.0K</t>
+          <t>2.4%</t>
         </is>
       </c>
       <c r="G1296" t="inlineStr">
@@ -35737,19 +35721,23 @@
       </c>
       <c r="B1297" t="inlineStr">
         <is>
-          <t>Retail Inventories Ex Autos MoM AdvFEB</t>
+          <t>Goods Trade Balance AdvFEB</t>
         </is>
       </c>
       <c r="C1297" t="inlineStr"/>
       <c r="D1297" t="inlineStr">
         <is>
-          <t>0.5%</t>
-        </is>
-      </c>
-      <c r="E1297" t="inlineStr"/>
+          <t>$-153.26B</t>
+        </is>
+      </c>
+      <c r="E1297" t="inlineStr">
+        <is>
+          <t>$-134.6B</t>
+        </is>
+      </c>
       <c r="F1297" t="inlineStr">
         <is>
-          <t>0.4%</t>
+          <t>$-136.0B</t>
         </is>
       </c>
       <c r="G1297" t="inlineStr">
@@ -35766,23 +35754,23 @@
       </c>
       <c r="B1298" t="inlineStr">
         <is>
-          <t>Wholesale Inventories MoM AdvFEB</t>
+          <t>Initial Jobless ClaimsMAR/22</t>
         </is>
       </c>
       <c r="C1298" t="inlineStr"/>
       <c r="D1298" t="inlineStr">
         <is>
-          <t>0.8%</t>
+          <t>223K</t>
         </is>
       </c>
       <c r="E1298" t="inlineStr">
         <is>
-          <t>0.4%</t>
+          <t>225K</t>
         </is>
       </c>
       <c r="F1298" t="inlineStr">
         <is>
-          <t>0.6%</t>
+          <t>225.0K</t>
         </is>
       </c>
       <c r="G1298" t="inlineStr">
@@ -35799,24 +35787,24 @@
       </c>
       <c r="B1299" t="inlineStr">
         <is>
-          <t>Continuing Jobless ClaimsMAR/15</t>
+          <t>Retail Inventories Ex Autos MoM AdvFEB</t>
         </is>
       </c>
       <c r="C1299" t="inlineStr"/>
       <c r="D1299" t="inlineStr">
         <is>
-          <t>1892K</t>
+          <t>0.5%</t>
         </is>
       </c>
       <c r="E1299" t="inlineStr"/>
       <c r="F1299" t="inlineStr">
         <is>
-          <t>1893.0K</t>
+          <t>0.4%</t>
         </is>
       </c>
       <c r="G1299" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
@@ -35828,28 +35816,28 @@
       </c>
       <c r="B1300" t="inlineStr">
         <is>
-          <t>Core PCE Prices QoQ FinalQ4</t>
+          <t>Wholesale Inventories MoM AdvFEB</t>
         </is>
       </c>
       <c r="C1300" t="inlineStr"/>
       <c r="D1300" t="inlineStr">
         <is>
-          <t>2.2%</t>
+          <t>0.8%</t>
         </is>
       </c>
       <c r="E1300" t="inlineStr">
         <is>
-          <t>2.7%</t>
+          <t>0.4%</t>
         </is>
       </c>
       <c r="F1300" t="inlineStr">
         <is>
-          <t>2.7%</t>
+          <t>0.6%</t>
         </is>
       </c>
       <c r="G1300" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
@@ -35861,23 +35849,19 @@
       </c>
       <c r="B1301" t="inlineStr">
         <is>
-          <t>GDP Sales QoQ FinalQ4</t>
+          <t>Continuing Jobless ClaimsMAR/15</t>
         </is>
       </c>
       <c r="C1301" t="inlineStr"/>
       <c r="D1301" t="inlineStr">
         <is>
-          <t>3.3%</t>
-        </is>
-      </c>
-      <c r="E1301" t="inlineStr">
-        <is>
-          <t>3.2%</t>
-        </is>
-      </c>
+          <t>1892K</t>
+        </is>
+      </c>
+      <c r="E1301" t="inlineStr"/>
       <c r="F1301" t="inlineStr">
         <is>
-          <t>3.2%</t>
+          <t>1893.0K</t>
         </is>
       </c>
       <c r="G1301" t="inlineStr">
@@ -35894,19 +35878,23 @@
       </c>
       <c r="B1302" t="inlineStr">
         <is>
-          <t>Jobless Claims 4-week AverageMAR/22</t>
+          <t>Core PCE Prices QoQ FinalQ4</t>
         </is>
       </c>
       <c r="C1302" t="inlineStr"/>
       <c r="D1302" t="inlineStr">
         <is>
-          <t>227K</t>
-        </is>
-      </c>
-      <c r="E1302" t="inlineStr"/>
+          <t>2.2%</t>
+        </is>
+      </c>
+      <c r="E1302" t="inlineStr">
+        <is>
+          <t>2.7%</t>
+        </is>
+      </c>
       <c r="F1302" t="inlineStr">
         <is>
-          <t>228.0K</t>
+          <t>2.7%</t>
         </is>
       </c>
       <c r="G1302" t="inlineStr">
@@ -35923,23 +35911,23 @@
       </c>
       <c r="B1303" t="inlineStr">
         <is>
-          <t>PCE Prices QoQ FinalQ4</t>
+          <t>GDP Sales QoQ FinalQ4</t>
         </is>
       </c>
       <c r="C1303" t="inlineStr"/>
       <c r="D1303" t="inlineStr">
         <is>
-          <t>1.5%</t>
+          <t>3.3%</t>
         </is>
       </c>
       <c r="E1303" t="inlineStr">
         <is>
-          <t>2.4%</t>
+          <t>3.2%</t>
         </is>
       </c>
       <c r="F1303" t="inlineStr">
         <is>
-          <t>2.4%</t>
+          <t>3.2%</t>
         </is>
       </c>
       <c r="G1303" t="inlineStr">
@@ -35956,23 +35944,19 @@
       </c>
       <c r="B1304" t="inlineStr">
         <is>
-          <t>Real Consumer Spending QoQ FinalQ4</t>
+          <t>Jobless Claims 4-week AverageMAR/22</t>
         </is>
       </c>
       <c r="C1304" t="inlineStr"/>
       <c r="D1304" t="inlineStr">
         <is>
-          <t>3.7%</t>
-        </is>
-      </c>
-      <c r="E1304" t="inlineStr">
-        <is>
-          <t>4.2%</t>
-        </is>
-      </c>
+          <t>227K</t>
+        </is>
+      </c>
+      <c r="E1304" t="inlineStr"/>
       <c r="F1304" t="inlineStr">
         <is>
-          <t>4.2%</t>
+          <t>228.0K</t>
         </is>
       </c>
       <c r="G1304" t="inlineStr">
@@ -35984,138 +35968,146 @@
     <row r="1305">
       <c r="A1305" t="inlineStr">
         <is>
-          <t>07:30 PM</t>
+          <t>06:00 PM</t>
         </is>
       </c>
       <c r="B1305" t="inlineStr">
         <is>
-          <t>Pending Home Sales MoMFEB</t>
+          <t>PCE Prices QoQ FinalQ4</t>
         </is>
       </c>
       <c r="C1305" t="inlineStr"/>
       <c r="D1305" t="inlineStr">
         <is>
-          <t>-4.6%</t>
-        </is>
-      </c>
-      <c r="E1305" t="inlineStr"/>
+          <t>1.5%</t>
+        </is>
+      </c>
+      <c r="E1305" t="inlineStr">
+        <is>
+          <t>2.4%</t>
+        </is>
+      </c>
       <c r="F1305" t="inlineStr">
         <is>
-          <t>2.9%</t>
+          <t>2.4%</t>
         </is>
       </c>
       <c r="G1305" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1306">
       <c r="A1306" t="inlineStr">
         <is>
-          <t>07:30 PM</t>
+          <t>06:00 PM</t>
         </is>
       </c>
       <c r="B1306" t="inlineStr">
         <is>
-          <t>Pending Home Sales YoYFEB</t>
+          <t>Real Consumer Spending QoQ FinalQ4</t>
         </is>
       </c>
       <c r="C1306" t="inlineStr"/>
       <c r="D1306" t="inlineStr">
         <is>
-          <t>-5.2%</t>
-        </is>
-      </c>
-      <c r="E1306" t="inlineStr"/>
+          <t>3.7%</t>
+        </is>
+      </c>
+      <c r="E1306" t="inlineStr">
+        <is>
+          <t>4.2%</t>
+        </is>
+      </c>
       <c r="F1306" t="inlineStr">
         <is>
-          <t>-3.7%</t>
+          <t>4.2%</t>
         </is>
       </c>
       <c r="G1306" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1307">
       <c r="A1307" t="inlineStr">
         <is>
-          <t>08:00 PM</t>
+          <t>07:30 PM</t>
         </is>
       </c>
       <c r="B1307" t="inlineStr">
         <is>
-          <t>EIA Natural Gas Stocks ChangeMAR/21</t>
+          <t>Pending Home Sales MoMFEB</t>
         </is>
       </c>
       <c r="C1307" t="inlineStr"/>
       <c r="D1307" t="inlineStr">
         <is>
-          <t>9Bcf</t>
+          <t>-4.6%</t>
         </is>
       </c>
       <c r="E1307" t="inlineStr"/>
-      <c r="F1307" t="inlineStr"/>
+      <c r="F1307" t="inlineStr">
+        <is>
+          <t>2.9%</t>
+        </is>
+      </c>
       <c r="G1307" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="1308">
       <c r="A1308" t="inlineStr">
         <is>
-          <t>08:30 PM</t>
+          <t>07:30 PM</t>
         </is>
       </c>
       <c r="B1308" t="inlineStr">
         <is>
-          <t>Kansas Fed Composite IndexMAR</t>
+          <t>Pending Home Sales YoYFEB</t>
         </is>
       </c>
       <c r="C1308" t="inlineStr"/>
       <c r="D1308" t="inlineStr">
         <is>
-          <t>-5</t>
+          <t>-5.2%</t>
         </is>
       </c>
       <c r="E1308" t="inlineStr"/>
       <c r="F1308" t="inlineStr">
         <is>
-          <t>-6</t>
+          <t>-3.7%</t>
         </is>
       </c>
       <c r="G1308" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="1309">
       <c r="A1309" t="inlineStr">
         <is>
-          <t>08:30 PM</t>
+          <t>08:00 PM</t>
         </is>
       </c>
       <c r="B1309" t="inlineStr">
         <is>
-          <t>Kansas Fed Manufacturing IndexMAR</t>
+          <t>EIA Natural Gas Stocks ChangeMAR/21</t>
         </is>
       </c>
       <c r="C1309" t="inlineStr"/>
       <c r="D1309" t="inlineStr">
         <is>
-          <t>-13</t>
+          <t>9Bcf</t>
         </is>
       </c>
       <c r="E1309" t="inlineStr"/>
-      <c r="F1309" t="inlineStr">
-        <is>
-          <t>-14</t>
-        </is>
-      </c>
+      <c r="F1309" t="inlineStr"/>
       <c r="G1309" t="inlineStr">
         <is>
           <t>3</t>
@@ -36125,22 +36117,26 @@
     <row r="1310">
       <c r="A1310" t="inlineStr">
         <is>
-          <t>09:00 PM</t>
+          <t>08:30 PM</t>
         </is>
       </c>
       <c r="B1310" t="inlineStr">
         <is>
-          <t>4-Week Bill Auction</t>
+          <t>Kansas Fed Composite IndexMAR</t>
         </is>
       </c>
       <c r="C1310" t="inlineStr"/>
       <c r="D1310" t="inlineStr">
         <is>
-          <t>4.215%</t>
+          <t>-5</t>
         </is>
       </c>
       <c r="E1310" t="inlineStr"/>
-      <c r="F1310" t="inlineStr"/>
+      <c r="F1310" t="inlineStr">
+        <is>
+          <t>-6</t>
+        </is>
+      </c>
       <c r="G1310" t="inlineStr">
         <is>
           <t>3</t>
@@ -36150,22 +36146,26 @@
     <row r="1311">
       <c r="A1311" t="inlineStr">
         <is>
-          <t>09:00 PM</t>
+          <t>08:30 PM</t>
         </is>
       </c>
       <c r="B1311" t="inlineStr">
         <is>
-          <t>8-Week Bill Auction</t>
+          <t>Kansas Fed Manufacturing IndexMAR</t>
         </is>
       </c>
       <c r="C1311" t="inlineStr"/>
       <c r="D1311" t="inlineStr">
         <is>
-          <t>4.215%</t>
+          <t>-13</t>
         </is>
       </c>
       <c r="E1311" t="inlineStr"/>
-      <c r="F1311" t="inlineStr"/>
+      <c r="F1311" t="inlineStr">
+        <is>
+          <t>-14</t>
+        </is>
+      </c>
       <c r="G1311" t="inlineStr">
         <is>
           <t>3</t>
@@ -36175,18 +36175,18 @@
     <row r="1312">
       <c r="A1312" t="inlineStr">
         <is>
-          <t>09:30 PM</t>
+          <t>09:00 PM</t>
         </is>
       </c>
       <c r="B1312" t="inlineStr">
         <is>
-          <t>15-Year Mortgage RateMAR/27</t>
+          <t>4-Week Bill Auction</t>
         </is>
       </c>
       <c r="C1312" t="inlineStr"/>
       <c r="D1312" t="inlineStr">
         <is>
-          <t>5.83%</t>
+          <t>4.215%</t>
         </is>
       </c>
       <c r="E1312" t="inlineStr"/>
@@ -36200,18 +36200,18 @@
     <row r="1313">
       <c r="A1313" t="inlineStr">
         <is>
-          <t>09:30 PM</t>
+          <t>09:00 PM</t>
         </is>
       </c>
       <c r="B1313" t="inlineStr">
         <is>
-          <t>30-Year Mortgage RateMAR/27</t>
+          <t>8-Week Bill Auction</t>
         </is>
       </c>
       <c r="C1313" t="inlineStr"/>
       <c r="D1313" t="inlineStr">
         <is>
-          <t>6.67%</t>
+          <t>4.215%</t>
         </is>
       </c>
       <c r="E1313" t="inlineStr"/>
@@ -36225,18 +36225,18 @@
     <row r="1314">
       <c r="A1314" t="inlineStr">
         <is>
-          <t>10:30 PM</t>
+          <t>09:30 PM</t>
         </is>
       </c>
       <c r="B1314" t="inlineStr">
         <is>
-          <t>7-Year Note Auction</t>
+          <t>15-Year Mortgage RateMAR/27</t>
         </is>
       </c>
       <c r="C1314" t="inlineStr"/>
       <c r="D1314" t="inlineStr">
         <is>
-          <t>4.194%</t>
+          <t>5.83%</t>
         </is>
       </c>
       <c r="E1314" t="inlineStr"/>
@@ -36250,125 +36250,109 @@
     <row r="1315">
       <c r="A1315" t="inlineStr">
         <is>
-          <t>Friday March 28 2025</t>
-        </is>
-      </c>
-      <c r="B1315" t="inlineStr"/>
+          <t>09:30 PM</t>
+        </is>
+      </c>
+      <c r="B1315" t="inlineStr">
+        <is>
+          <t>30-Year Mortgage RateMAR/27</t>
+        </is>
+      </c>
       <c r="C1315" t="inlineStr"/>
-      <c r="D1315" t="inlineStr"/>
+      <c r="D1315" t="inlineStr">
+        <is>
+          <t>6.67%</t>
+        </is>
+      </c>
       <c r="E1315" t="inlineStr"/>
       <c r="F1315" t="inlineStr"/>
-      <c r="G1315" t="inlineStr"/>
+      <c r="G1315" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
     </row>
     <row r="1316">
       <c r="A1316" t="inlineStr">
         <is>
-          <t>02:00 AM</t>
+          <t>10:30 PM</t>
         </is>
       </c>
       <c r="B1316" t="inlineStr">
         <is>
-          <t>Fed Barkin Speech</t>
+          <t>7-Year Note Auction</t>
         </is>
       </c>
       <c r="C1316" t="inlineStr"/>
-      <c r="D1316" t="inlineStr"/>
+      <c r="D1316" t="inlineStr">
+        <is>
+          <t>4.194%</t>
+        </is>
+      </c>
       <c r="E1316" t="inlineStr"/>
       <c r="F1316" t="inlineStr"/>
       <c r="G1316" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1317">
       <c r="A1317" t="inlineStr">
         <is>
-          <t>02:00 AM</t>
-        </is>
-      </c>
-      <c r="B1317" t="inlineStr">
-        <is>
-          <t>Fed Balance SheetMAR/26</t>
-        </is>
-      </c>
+          <t>Friday March 28 2025</t>
+        </is>
+      </c>
+      <c r="B1317" t="inlineStr"/>
       <c r="C1317" t="inlineStr"/>
-      <c r="D1317" t="inlineStr">
-        <is>
-          <t>$6.76T</t>
-        </is>
-      </c>
+      <c r="D1317" t="inlineStr"/>
       <c r="E1317" t="inlineStr"/>
       <c r="F1317" t="inlineStr"/>
-      <c r="G1317" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
+      <c r="G1317" t="inlineStr"/>
     </row>
     <row r="1318">
       <c r="A1318" t="inlineStr">
         <is>
-          <t>06:00 PM</t>
+          <t>02:00 AM</t>
         </is>
       </c>
       <c r="B1318" t="inlineStr">
         <is>
-          <t>Core PCE Price Index MoMFEB</t>
+          <t>Fed Barkin Speech</t>
         </is>
       </c>
       <c r="C1318" t="inlineStr"/>
-      <c r="D1318" t="inlineStr">
-        <is>
-          <t>0.3%</t>
-        </is>
-      </c>
-      <c r="E1318" t="inlineStr">
-        <is>
-          <t>0.3%</t>
-        </is>
-      </c>
-      <c r="F1318" t="inlineStr">
-        <is>
-          <t>0.4%</t>
-        </is>
-      </c>
+      <c r="D1318" t="inlineStr"/>
+      <c r="E1318" t="inlineStr"/>
+      <c r="F1318" t="inlineStr"/>
       <c r="G1318" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="1319">
       <c r="A1319" t="inlineStr">
         <is>
-          <t>06:00 PM</t>
+          <t>02:00 AM</t>
         </is>
       </c>
       <c r="B1319" t="inlineStr">
         <is>
-          <t>Personal Income MoMFEB</t>
+          <t>Fed Balance SheetMAR/26</t>
         </is>
       </c>
       <c r="C1319" t="inlineStr"/>
       <c r="D1319" t="inlineStr">
         <is>
-          <t>0.9%</t>
-        </is>
-      </c>
-      <c r="E1319" t="inlineStr">
-        <is>
-          <t>0.4%</t>
-        </is>
-      </c>
-      <c r="F1319" t="inlineStr">
-        <is>
-          <t>0.3%</t>
-        </is>
-      </c>
+          <t>$6.76T</t>
+        </is>
+      </c>
+      <c r="E1319" t="inlineStr"/>
+      <c r="F1319" t="inlineStr"/>
       <c r="G1319" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
     </row>
@@ -36380,23 +36364,23 @@
       </c>
       <c r="B1320" t="inlineStr">
         <is>
-          <t>Personal Spending MoMFEB</t>
+          <t>Core PCE Price Index MoMFEB</t>
         </is>
       </c>
       <c r="C1320" t="inlineStr"/>
       <c r="D1320" t="inlineStr">
         <is>
-          <t>-0.2%</t>
+          <t>0.3%</t>
         </is>
       </c>
       <c r="E1320" t="inlineStr">
         <is>
-          <t>0.6%</t>
+          <t>0.3%</t>
         </is>
       </c>
       <c r="F1320" t="inlineStr">
         <is>
-          <t>0.5%</t>
+          <t>0.4%</t>
         </is>
       </c>
       <c r="G1320" t="inlineStr">
@@ -36413,28 +36397,28 @@
       </c>
       <c r="B1321" t="inlineStr">
         <is>
-          <t>PCE Price Index MoMFEB</t>
+          <t>Personal Income MoMFEB</t>
         </is>
       </c>
       <c r="C1321" t="inlineStr"/>
       <c r="D1321" t="inlineStr">
         <is>
+          <t>0.9%</t>
+        </is>
+      </c>
+      <c r="E1321" t="inlineStr">
+        <is>
+          <t>0.4%</t>
+        </is>
+      </c>
+      <c r="F1321" t="inlineStr">
+        <is>
           <t>0.3%</t>
         </is>
       </c>
-      <c r="E1321" t="inlineStr">
-        <is>
-          <t>0.3%</t>
-        </is>
-      </c>
-      <c r="F1321" t="inlineStr">
-        <is>
-          <t>0.4%</t>
-        </is>
-      </c>
       <c r="G1321" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
     </row>
@@ -36446,24 +36430,28 @@
       </c>
       <c r="B1322" t="inlineStr">
         <is>
-          <t>PCE Price Index YoYFEB</t>
+          <t>Personal Spending MoMFEB</t>
         </is>
       </c>
       <c r="C1322" t="inlineStr"/>
       <c r="D1322" t="inlineStr">
         <is>
-          <t>2.5%</t>
-        </is>
-      </c>
-      <c r="E1322" t="inlineStr"/>
+          <t>-0.2%</t>
+        </is>
+      </c>
+      <c r="E1322" t="inlineStr">
+        <is>
+          <t>0.6%</t>
+        </is>
+      </c>
       <c r="F1322" t="inlineStr">
         <is>
-          <t>2.7%</t>
+          <t>0.5%</t>
         </is>
       </c>
       <c r="G1322" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
     </row>
@@ -36475,52 +36463,52 @@
       </c>
       <c r="B1323" t="inlineStr">
         <is>
-          <t>Core PCE Price Index YoYFEB</t>
+          <t>PCE Price Index MoMFEB</t>
         </is>
       </c>
       <c r="C1323" t="inlineStr"/>
       <c r="D1323" t="inlineStr">
         <is>
-          <t>2.6%</t>
-        </is>
-      </c>
-      <c r="E1323" t="inlineStr"/>
+          <t>0.3%</t>
+        </is>
+      </c>
+      <c r="E1323" t="inlineStr">
+        <is>
+          <t>0.3%</t>
+        </is>
+      </c>
       <c r="F1323" t="inlineStr">
         <is>
-          <t>2.8%</t>
+          <t>0.4%</t>
         </is>
       </c>
       <c r="G1323" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="1324">
       <c r="A1324" t="inlineStr">
         <is>
-          <t>07:30 PM</t>
+          <t>06:00 PM</t>
         </is>
       </c>
       <c r="B1324" t="inlineStr">
         <is>
-          <t>Michigan Consumer Sentiment FinalMAR</t>
+          <t>PCE Price Index YoYFEB</t>
         </is>
       </c>
       <c r="C1324" t="inlineStr"/>
       <c r="D1324" t="inlineStr">
         <is>
-          <t>64.7</t>
-        </is>
-      </c>
-      <c r="E1324" t="inlineStr">
-        <is>
-          <t>57.9</t>
-        </is>
-      </c>
+          <t>2.5%</t>
+        </is>
+      </c>
+      <c r="E1324" t="inlineStr"/>
       <c r="F1324" t="inlineStr">
         <is>
-          <t>57.9</t>
+          <t>2.7%</t>
         </is>
       </c>
       <c r="G1324" t="inlineStr">
@@ -36532,28 +36520,24 @@
     <row r="1325">
       <c r="A1325" t="inlineStr">
         <is>
-          <t>07:30 PM</t>
+          <t>06:00 PM</t>
         </is>
       </c>
       <c r="B1325" t="inlineStr">
         <is>
-          <t>Michigan 5 Year Inflation Expectations FinalMAR</t>
+          <t>Core PCE Price Index YoYFEB</t>
         </is>
       </c>
       <c r="C1325" t="inlineStr"/>
       <c r="D1325" t="inlineStr">
         <is>
-          <t>3.5%</t>
-        </is>
-      </c>
-      <c r="E1325" t="inlineStr">
-        <is>
-          <t>3.9%</t>
-        </is>
-      </c>
+          <t>2.6%</t>
+        </is>
+      </c>
+      <c r="E1325" t="inlineStr"/>
       <c r="F1325" t="inlineStr">
         <is>
-          <t>3.9%</t>
+          <t>2.8%</t>
         </is>
       </c>
       <c r="G1325" t="inlineStr">
@@ -36570,28 +36554,28 @@
       </c>
       <c r="B1326" t="inlineStr">
         <is>
-          <t>Michigan Consumer Expectations FinalMAR</t>
+          <t>Michigan Consumer Sentiment FinalMAR</t>
         </is>
       </c>
       <c r="C1326" t="inlineStr"/>
       <c r="D1326" t="inlineStr">
         <is>
-          <t>64.0</t>
+          <t>64.7</t>
         </is>
       </c>
       <c r="E1326" t="inlineStr">
         <is>
-          <t>54.2</t>
+          <t>57.9</t>
         </is>
       </c>
       <c r="F1326" t="inlineStr">
         <is>
-          <t>54.2</t>
+          <t>57.9</t>
         </is>
       </c>
       <c r="G1326" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
@@ -36603,23 +36587,23 @@
       </c>
       <c r="B1327" t="inlineStr">
         <is>
-          <t>Michigan Current Conditions FinalMAR</t>
+          <t>Michigan 5 Year Inflation Expectations FinalMAR</t>
         </is>
       </c>
       <c r="C1327" t="inlineStr"/>
       <c r="D1327" t="inlineStr">
         <is>
-          <t>65.7</t>
+          <t>3.5%</t>
         </is>
       </c>
       <c r="E1327" t="inlineStr">
         <is>
-          <t>63.5</t>
+          <t>3.9%</t>
         </is>
       </c>
       <c r="F1327" t="inlineStr">
         <is>
-          <t>63.5</t>
+          <t>3.9%</t>
         </is>
       </c>
       <c r="G1327" t="inlineStr">
@@ -36636,23 +36620,23 @@
       </c>
       <c r="B1328" t="inlineStr">
         <is>
-          <t>Michigan Inflation Expectations FinalMAR</t>
+          <t>Michigan Consumer Expectations FinalMAR</t>
         </is>
       </c>
       <c r="C1328" t="inlineStr"/>
       <c r="D1328" t="inlineStr">
         <is>
-          <t>4.3%</t>
+          <t>64.0</t>
         </is>
       </c>
       <c r="E1328" t="inlineStr">
         <is>
-          <t>4.9%</t>
+          <t>54.2</t>
         </is>
       </c>
       <c r="F1328" t="inlineStr">
         <is>
-          <t>4.9%</t>
+          <t>54.2</t>
         </is>
       </c>
       <c r="G1328" t="inlineStr">
@@ -36664,39 +36648,63 @@
     <row r="1329">
       <c r="A1329" t="inlineStr">
         <is>
-          <t>09:45 PM</t>
+          <t>07:30 PM</t>
         </is>
       </c>
       <c r="B1329" t="inlineStr">
         <is>
-          <t>Fed Barr Speech</t>
+          <t>Michigan Current Conditions FinalMAR</t>
         </is>
       </c>
       <c r="C1329" t="inlineStr"/>
-      <c r="D1329" t="inlineStr"/>
-      <c r="E1329" t="inlineStr"/>
-      <c r="F1329" t="inlineStr"/>
+      <c r="D1329" t="inlineStr">
+        <is>
+          <t>65.7</t>
+        </is>
+      </c>
+      <c r="E1329" t="inlineStr">
+        <is>
+          <t>63.5</t>
+        </is>
+      </c>
+      <c r="F1329" t="inlineStr">
+        <is>
+          <t>63.5</t>
+        </is>
+      </c>
       <c r="G1329" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1330">
       <c r="A1330" t="inlineStr">
         <is>
-          <t>10:30 PM</t>
+          <t>07:30 PM</t>
         </is>
       </c>
       <c r="B1330" t="inlineStr">
         <is>
-          <t>Baker Hughes Oil Rig CountMAR/28</t>
+          <t>Michigan Inflation Expectations FinalMAR</t>
         </is>
       </c>
       <c r="C1330" t="inlineStr"/>
-      <c r="D1330" t="inlineStr"/>
-      <c r="E1330" t="inlineStr"/>
-      <c r="F1330" t="inlineStr"/>
+      <c r="D1330" t="inlineStr">
+        <is>
+          <t>4.3%</t>
+        </is>
+      </c>
+      <c r="E1330" t="inlineStr">
+        <is>
+          <t>4.9%</t>
+        </is>
+      </c>
+      <c r="F1330" t="inlineStr">
+        <is>
+          <t>4.9%</t>
+        </is>
+      </c>
       <c r="G1330" t="inlineStr">
         <is>
           <t>3</t>
@@ -36706,12 +36714,12 @@
     <row r="1331">
       <c r="A1331" t="inlineStr">
         <is>
-          <t>10:30 PM</t>
+          <t>09:45 PM</t>
         </is>
       </c>
       <c r="B1331" t="inlineStr">
         <is>
-          <t>Baker Hughes Total Rigs CountMAR/28</t>
+          <t>Fed Barr Speech</t>
         </is>
       </c>
       <c r="C1331" t="inlineStr"/>
@@ -36720,32 +36728,40 @@
       <c r="F1331" t="inlineStr"/>
       <c r="G1331" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="1332">
       <c r="A1332" t="inlineStr">
         <is>
-          <t>Saturday March 29 2025</t>
-        </is>
-      </c>
-      <c r="B1332" t="inlineStr"/>
+          <t>10:30 PM</t>
+        </is>
+      </c>
+      <c r="B1332" t="inlineStr">
+        <is>
+          <t>Baker Hughes Oil Rig CountMAR/28</t>
+        </is>
+      </c>
       <c r="C1332" t="inlineStr"/>
       <c r="D1332" t="inlineStr"/>
       <c r="E1332" t="inlineStr"/>
       <c r="F1332" t="inlineStr"/>
-      <c r="G1332" t="inlineStr"/>
+      <c r="G1332" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
     </row>
     <row r="1333">
       <c r="A1333" t="inlineStr">
         <is>
-          <t>01:00 AM</t>
+          <t>10:30 PM</t>
         </is>
       </c>
       <c r="B1333" t="inlineStr">
         <is>
-          <t>Fed Bostic Speech</t>
+          <t>Baker Hughes Total Rigs CountMAR/28</t>
         </is>
       </c>
       <c r="C1333" t="inlineStr"/>
@@ -36754,14 +36770,14 @@
       <c r="F1333" t="inlineStr"/>
       <c r="G1333" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1334">
       <c r="A1334" t="inlineStr">
         <is>
-          <t>Monday March 31 2025</t>
+          <t>Saturday March 29 2025</t>
         </is>
       </c>
       <c r="B1334" t="inlineStr"/>
@@ -36774,26 +36790,18 @@
     <row r="1335">
       <c r="A1335" t="inlineStr">
         <is>
-          <t>07:15 PM</t>
+          <t>01:00 AM</t>
         </is>
       </c>
       <c r="B1335" t="inlineStr">
         <is>
-          <t>Chicago PMIMAR</t>
+          <t>Fed Bostic Speech</t>
         </is>
       </c>
       <c r="C1335" t="inlineStr"/>
-      <c r="D1335" t="inlineStr">
-        <is>
-          <t>45.5</t>
-        </is>
-      </c>
+      <c r="D1335" t="inlineStr"/>
       <c r="E1335" t="inlineStr"/>
-      <c r="F1335" t="inlineStr">
-        <is>
-          <t>43</t>
-        </is>
-      </c>
+      <c r="F1335" t="inlineStr"/>
       <c r="G1335" t="inlineStr">
         <is>
           <t>2</t>
@@ -36803,29 +36811,264 @@
     <row r="1336">
       <c r="A1336" t="inlineStr">
         <is>
+          <t>Monday March 31 2025</t>
+        </is>
+      </c>
+      <c r="B1336" t="inlineStr"/>
+      <c r="C1336" t="inlineStr"/>
+      <c r="D1336" t="inlineStr"/>
+      <c r="E1336" t="inlineStr"/>
+      <c r="F1336" t="inlineStr"/>
+      <c r="G1336" t="inlineStr"/>
+    </row>
+    <row r="1337">
+      <c r="A1337" t="inlineStr">
+        <is>
+          <t>07:15 PM</t>
+        </is>
+      </c>
+      <c r="B1337" t="inlineStr">
+        <is>
+          <t>Chicago PMIMAR</t>
+        </is>
+      </c>
+      <c r="C1337" t="inlineStr"/>
+      <c r="D1337" t="inlineStr">
+        <is>
+          <t>45.5</t>
+        </is>
+      </c>
+      <c r="E1337" t="inlineStr"/>
+      <c r="F1337" t="inlineStr">
+        <is>
+          <t>43</t>
+        </is>
+      </c>
+      <c r="G1337" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+    </row>
+    <row r="1338">
+      <c r="A1338" t="inlineStr">
+        <is>
           <t>08:00 PM</t>
         </is>
       </c>
-      <c r="B1336" t="inlineStr">
+      <c r="B1338" t="inlineStr">
         <is>
           <t>Dallas Fed Manufacturing IndexMAR</t>
         </is>
       </c>
-      <c r="C1336" t="inlineStr"/>
-      <c r="D1336" t="inlineStr">
+      <c r="C1338" t="inlineStr"/>
+      <c r="D1338" t="inlineStr">
         <is>
           <t>-8.3</t>
         </is>
       </c>
-      <c r="E1336" t="inlineStr"/>
-      <c r="F1336" t="inlineStr">
+      <c r="E1338" t="inlineStr"/>
+      <c r="F1338" t="inlineStr">
         <is>
           <t>-12</t>
         </is>
       </c>
-      <c r="G1336" t="inlineStr">
+      <c r="G1338" t="inlineStr">
         <is>
           <t>2</t>
+        </is>
+      </c>
+    </row>
+    <row r="1339">
+      <c r="A1339" t="inlineStr">
+        <is>
+          <t>09:00 PM</t>
+        </is>
+      </c>
+      <c r="B1339" t="inlineStr">
+        <is>
+          <t>3-Month Bill Auction</t>
+        </is>
+      </c>
+      <c r="C1339" t="inlineStr"/>
+      <c r="D1339" t="inlineStr"/>
+      <c r="E1339" t="inlineStr"/>
+      <c r="F1339" t="inlineStr"/>
+      <c r="G1339" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+    </row>
+    <row r="1340">
+      <c r="A1340" t="inlineStr">
+        <is>
+          <t>09:00 PM</t>
+        </is>
+      </c>
+      <c r="B1340" t="inlineStr">
+        <is>
+          <t>6-Month Bill Auction</t>
+        </is>
+      </c>
+      <c r="C1340" t="inlineStr"/>
+      <c r="D1340" t="inlineStr"/>
+      <c r="E1340" t="inlineStr"/>
+      <c r="F1340" t="inlineStr"/>
+      <c r="G1340" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+    </row>
+    <row r="1341">
+      <c r="A1341" t="inlineStr">
+        <is>
+          <t>09:30 PM</t>
+        </is>
+      </c>
+      <c r="B1341" t="inlineStr">
+        <is>
+          <t>Prospective Plantings - Corn2025</t>
+        </is>
+      </c>
+      <c r="C1341" t="inlineStr"/>
+      <c r="D1341" t="inlineStr"/>
+      <c r="E1341" t="inlineStr"/>
+      <c r="F1341" t="inlineStr"/>
+      <c r="G1341" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+    </row>
+    <row r="1342">
+      <c r="A1342" t="inlineStr">
+        <is>
+          <t>09:30 PM</t>
+        </is>
+      </c>
+      <c r="B1342" t="inlineStr">
+        <is>
+          <t>Prospective Plantings - Cotton2025</t>
+        </is>
+      </c>
+      <c r="C1342" t="inlineStr"/>
+      <c r="D1342" t="inlineStr"/>
+      <c r="E1342" t="inlineStr"/>
+      <c r="F1342" t="inlineStr"/>
+      <c r="G1342" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+    </row>
+    <row r="1343">
+      <c r="A1343" t="inlineStr">
+        <is>
+          <t>09:30 PM</t>
+        </is>
+      </c>
+      <c r="B1343" t="inlineStr">
+        <is>
+          <t>Prospective Plantings - Soy2025</t>
+        </is>
+      </c>
+      <c r="C1343" t="inlineStr"/>
+      <c r="D1343" t="inlineStr"/>
+      <c r="E1343" t="inlineStr"/>
+      <c r="F1343" t="inlineStr"/>
+      <c r="G1343" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+    </row>
+    <row r="1344">
+      <c r="A1344" t="inlineStr">
+        <is>
+          <t>09:30 PM</t>
+        </is>
+      </c>
+      <c r="B1344" t="inlineStr">
+        <is>
+          <t>Prospective Plantings - Wheat2025</t>
+        </is>
+      </c>
+      <c r="C1344" t="inlineStr"/>
+      <c r="D1344" t="inlineStr"/>
+      <c r="E1344" t="inlineStr"/>
+      <c r="F1344" t="inlineStr"/>
+      <c r="G1344" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+    </row>
+    <row r="1345">
+      <c r="A1345" t="inlineStr">
+        <is>
+          <t>09:30 PM</t>
+        </is>
+      </c>
+      <c r="B1345" t="inlineStr">
+        <is>
+          <t>Quarterly Grain Stocks - CornMAR</t>
+        </is>
+      </c>
+      <c r="C1345" t="inlineStr"/>
+      <c r="D1345" t="inlineStr"/>
+      <c r="E1345" t="inlineStr"/>
+      <c r="F1345" t="inlineStr"/>
+      <c r="G1345" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+    </row>
+    <row r="1346">
+      <c r="A1346" t="inlineStr">
+        <is>
+          <t>09:30 PM</t>
+        </is>
+      </c>
+      <c r="B1346" t="inlineStr">
+        <is>
+          <t>Quarterly Grain Stocks - SoyMAR</t>
+        </is>
+      </c>
+      <c r="C1346" t="inlineStr"/>
+      <c r="D1346" t="inlineStr">
+        <is>
+          <t>3.1B</t>
+        </is>
+      </c>
+      <c r="E1346" t="inlineStr"/>
+      <c r="F1346" t="inlineStr"/>
+      <c r="G1346" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+    </row>
+    <row r="1347">
+      <c r="A1347" t="inlineStr">
+        <is>
+          <t>09:30 PM</t>
+        </is>
+      </c>
+      <c r="B1347" t="inlineStr">
+        <is>
+          <t>Quarterly Grain Stocks - WheatMAR</t>
+        </is>
+      </c>
+      <c r="C1347" t="inlineStr"/>
+      <c r="D1347" t="inlineStr"/>
+      <c r="E1347" t="inlineStr"/>
+      <c r="F1347" t="inlineStr"/>
+      <c r="G1347" t="inlineStr">
+        <is>
+          <t>3</t>
         </is>
       </c>
     </row>

--- a/Input_data/IST_US_trad_eco_cal_2024-12-28_to_2025-03-31.xlsx
+++ b/Input_data/IST_US_trad_eco_cal_2024-12-28_to_2025-03-31.xlsx
@@ -34168,7 +34168,11 @@
           <t>Baker Hughes Oil Rig CountMAR/21</t>
         </is>
       </c>
-      <c r="C1237" t="inlineStr"/>
+      <c r="C1237" t="inlineStr">
+        <is>
+          <t>486</t>
+        </is>
+      </c>
       <c r="D1237" t="inlineStr">
         <is>
           <t>487</t>
@@ -34193,7 +34197,11 @@
           <t>Baker Hughes Total Rigs CountMAR/21</t>
         </is>
       </c>
-      <c r="C1238" t="inlineStr"/>
+      <c r="C1238" t="inlineStr">
+        <is>
+          <t>593</t>
+        </is>
+      </c>
       <c r="D1238" t="inlineStr">
         <is>
           <t>592</t>
@@ -36744,7 +36752,11 @@
         </is>
       </c>
       <c r="C1332" t="inlineStr"/>
-      <c r="D1332" t="inlineStr"/>
+      <c r="D1332" t="inlineStr">
+        <is>
+          <t>486</t>
+        </is>
+      </c>
       <c r="E1332" t="inlineStr"/>
       <c r="F1332" t="inlineStr"/>
       <c r="G1332" t="inlineStr">
@@ -36765,7 +36777,11 @@
         </is>
       </c>
       <c r="C1333" t="inlineStr"/>
-      <c r="D1333" t="inlineStr"/>
+      <c r="D1333" t="inlineStr">
+        <is>
+          <t>593</t>
+        </is>
+      </c>
       <c r="E1333" t="inlineStr"/>
       <c r="F1333" t="inlineStr"/>
       <c r="G1333" t="inlineStr">
